--- a/資料/char.xlsx
+++ b/資料/char.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\麻生情報ビジネス専門学校\3年\5月制作\Charlotte-quest\資料\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F68A4344-68D3-402A-AED4-3A8AECC2E0B4}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AE61D71F-142C-4386-BF85-2BFAF31932F4}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="6" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="キャラ紹介" sheetId="4" r:id="rId1"/>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1196" uniqueCount="607">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1196" uniqueCount="584">
   <si>
     <t>名前</t>
     <rPh sb="0" eb="2">
@@ -55,18 +55,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>STR</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>AGI</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>INT</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>LUK</t>
     <phoneticPr fontId="1"/>
   </si>
@@ -91,10 +79,6 @@
     <rPh sb="0" eb="2">
       <t>ジョウショウ</t>
     </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>lv99INT</t>
     <phoneticPr fontId="1"/>
   </si>
   <si>
@@ -1908,10 +1892,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>STR</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>ゴブリン</t>
     <phoneticPr fontId="1"/>
   </si>
@@ -2242,26 +2222,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>VIT</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>STR</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>lv99VIT</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>lv99AGI</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>lv99MAG</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>lv99LUK</t>
     <phoneticPr fontId="1"/>
   </si>
@@ -2270,39 +2230,11 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>lv99STR</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>lv99SP</t>
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>MAG</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>INT</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>SP</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>VIT</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>MAG</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>VIT</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>MAG</t>
     <phoneticPr fontId="1"/>
   </si>
   <si>
@@ -2611,13 +2543,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>INT依存</t>
-    <rPh sb="3" eb="5">
-      <t>イゾン</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>サラマンダー2</t>
     <phoneticPr fontId="1"/>
   </si>
@@ -3168,31 +3093,7 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>STR</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>INT</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>STR</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>INT</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>STR</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>コメット</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>INT</t>
     <phoneticPr fontId="1"/>
   </si>
   <si>
@@ -3206,15 +3107,7 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>STRアップ</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>アースクエイク</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>STR</t>
     <phoneticPr fontId="1"/>
   </si>
   <si>
@@ -3331,18 +3224,10 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>INT</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>弐式魔導陣・生命吸収</t>
   </si>
   <si>
     <t>参式魔導陣・消失</t>
-  </si>
-  <si>
-    <t>STR</t>
-    <phoneticPr fontId="1"/>
   </si>
   <si>
     <t>肆式魔導陣・強化</t>
@@ -3388,10 +3273,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>STR</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>リヴァイブ</t>
     <phoneticPr fontId="1"/>
   </si>
@@ -3560,10 +3441,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>INT</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>ダークフレア</t>
     <phoneticPr fontId="1"/>
   </si>
@@ -3587,10 +3464,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>STR</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>ファイアブレス</t>
     <phoneticPr fontId="1"/>
   </si>
@@ -3673,10 +3546,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>INT</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>セイントクロス</t>
     <phoneticPr fontId="1"/>
   </si>
@@ -3755,10 +3624,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>STR</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>四回攻撃</t>
     <rPh sb="0" eb="2">
       <t>ヨンカイ</t>
@@ -3780,10 +3645,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>STR</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>ばくはつするー！</t>
     <phoneticPr fontId="1"/>
   </si>
@@ -3853,10 +3714,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>INT</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>65％で素早さダウン</t>
     <rPh sb="4" eb="6">
       <t>スバヤ</t>
@@ -3899,16 +3756,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>相手のSTR吸収</t>
-    <rPh sb="0" eb="2">
-      <t>アイテ</t>
-    </rPh>
-    <rPh sb="6" eb="8">
-      <t>キュウシュウ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>傲慢</t>
     <rPh sb="0" eb="2">
       <t>ゴウマン</t>
@@ -4154,22 +4001,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>STR+5</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>STR+10</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>STR+25</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>STR+40</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>皮のブレスレット</t>
     <rPh sb="0" eb="1">
       <t>カワ</t>
@@ -4199,18 +4030,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>VIT+5</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>VIT+10</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>VIT+25</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>皮のピアス</t>
     <rPh sb="0" eb="1">
       <t>カワ</t>
@@ -4229,10 +4048,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>VIT+40</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>皮のアンクレット</t>
     <rPh sb="0" eb="1">
       <t>カワ</t>
@@ -4267,22 +4082,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>INT+5</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>INT+10</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>INT+25</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>INT+40</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>皮の指輪</t>
     <rPh sb="0" eb="1">
       <t>カワ</t>
@@ -4303,38 +4102,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>MAG+5</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>MAG+10</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>MAG+25</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>MAG+40</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>AGI+5</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>AGI+10</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>AGI+25</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>AGI+40</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>プラチナの指輪</t>
     <rPh sb="5" eb="7">
       <t>ユビワ</t>
@@ -4880,6 +4647,116 @@
   <si>
     <t>手塚部長がジャン・ジャック・マルソーを葬った技</t>
     <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ATK</t>
+  </si>
+  <si>
+    <t>ATKアップ</t>
+  </si>
+  <si>
+    <t>相手のATK吸収</t>
+    <rPh sb="0" eb="2">
+      <t>アイテ</t>
+    </rPh>
+    <rPh sb="6" eb="8">
+      <t>キュウシュウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>lv99ATK</t>
+  </si>
+  <si>
+    <t>ATK+5</t>
+  </si>
+  <si>
+    <t>ATK+10</t>
+  </si>
+  <si>
+    <t>ATK+25</t>
+  </si>
+  <si>
+    <t>ATK+40</t>
+  </si>
+  <si>
+    <t>DEF</t>
+  </si>
+  <si>
+    <t>lv99DEF</t>
+  </si>
+  <si>
+    <t>DEF+5</t>
+  </si>
+  <si>
+    <t>DEF+10</t>
+  </si>
+  <si>
+    <t>DEF+25</t>
+  </si>
+  <si>
+    <t>DEF+40</t>
+  </si>
+  <si>
+    <t>SPD</t>
+  </si>
+  <si>
+    <t>lv99SPD</t>
+  </si>
+  <si>
+    <t>SPD+5</t>
+  </si>
+  <si>
+    <t>SPD+10</t>
+  </si>
+  <si>
+    <t>SPD+25</t>
+  </si>
+  <si>
+    <t>SPD+40</t>
+  </si>
+  <si>
+    <t>MAT依存</t>
+    <rPh sb="3" eb="5">
+      <t>イゾン</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>MAT</t>
+  </si>
+  <si>
+    <t>lv99MAT</t>
+  </si>
+  <si>
+    <t>MAT+5</t>
+  </si>
+  <si>
+    <t>MAT+10</t>
+  </si>
+  <si>
+    <t>MAT+25</t>
+  </si>
+  <si>
+    <t>MAT+40</t>
+  </si>
+  <si>
+    <t>MDF</t>
+  </si>
+  <si>
+    <t>lv99MDF</t>
+  </si>
+  <si>
+    <t>MDF+5</t>
+  </si>
+  <si>
+    <t>MDF+10</t>
+  </si>
+  <si>
+    <t>MDF+25</t>
+  </si>
+  <si>
+    <t>MDF+40</t>
   </si>
 </sst>
 </file>
@@ -10455,17 +10332,17 @@
   <sheetData>
     <row r="2" spans="4:18" ht="18" customHeight="1" x14ac:dyDescent="0.4">
       <c r="D2" s="75" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="E2" s="76"/>
       <c r="F2" s="76"/>
       <c r="J2" s="79" t="s">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="K2" s="79"/>
       <c r="L2" s="79"/>
       <c r="P2" s="57" t="s">
-        <v>148</v>
+        <v>144</v>
       </c>
       <c r="Q2" s="58"/>
       <c r="R2" s="58"/>
@@ -10499,7 +10376,7 @@
     </row>
     <row r="6" spans="4:18" ht="18" customHeight="1" x14ac:dyDescent="0.4">
       <c r="D6" s="59" t="s">
-        <v>146</v>
+        <v>142</v>
       </c>
       <c r="E6" s="77"/>
       <c r="F6" s="77"/>
@@ -10509,12 +10386,12 @@
       <c r="E7" s="77"/>
       <c r="F7" s="77"/>
       <c r="J7" s="78" t="s">
-        <v>147</v>
+        <v>143</v>
       </c>
       <c r="K7" s="58"/>
       <c r="L7" s="58"/>
       <c r="P7" s="59" t="s">
-        <v>149</v>
+        <v>145</v>
       </c>
       <c r="Q7" s="58"/>
       <c r="R7" s="58"/>
@@ -10565,17 +10442,17 @@
     </row>
     <row r="14" spans="4:18" x14ac:dyDescent="0.4">
       <c r="D14" s="57" t="s">
-        <v>79</v>
+        <v>75</v>
       </c>
       <c r="E14" s="58"/>
       <c r="F14" s="58"/>
       <c r="J14" s="60" t="s">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="K14" s="61"/>
       <c r="L14" s="62"/>
       <c r="P14" s="75" t="s">
-        <v>152</v>
+        <v>148</v>
       </c>
       <c r="Q14" s="80"/>
       <c r="R14" s="80"/>
@@ -10604,17 +10481,17 @@
     </row>
     <row r="18" spans="4:18" ht="18" customHeight="1" x14ac:dyDescent="0.4">
       <c r="D18" s="69" t="s">
-        <v>150</v>
+        <v>146</v>
       </c>
       <c r="E18" s="70"/>
       <c r="F18" s="71"/>
       <c r="J18" s="59" t="s">
-        <v>153</v>
+        <v>149</v>
       </c>
       <c r="K18" s="58"/>
       <c r="L18" s="58"/>
       <c r="P18" s="59" t="s">
-        <v>151</v>
+        <v>147</v>
       </c>
       <c r="Q18" s="58"/>
       <c r="R18" s="58"/>
@@ -10722,27 +10599,27 @@
   <sheetData>
     <row r="1" spans="1:7" ht="19.5" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A1" t="s">
-        <v>602</v>
+        <v>546</v>
       </c>
     </row>
     <row r="2" spans="1:7" ht="19.5" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A2" s="43" t="s">
-        <v>591</v>
+        <v>535</v>
       </c>
       <c r="B2" s="44" t="s">
-        <v>592</v>
+        <v>536</v>
       </c>
       <c r="C2" s="45" t="s">
-        <v>599</v>
+        <v>543</v>
       </c>
       <c r="E2" s="12" t="s">
-        <v>591</v>
+        <v>535</v>
       </c>
       <c r="F2" s="13" t="s">
-        <v>592</v>
+        <v>536</v>
       </c>
       <c r="G2" s="14" t="s">
-        <v>593</v>
+        <v>537</v>
       </c>
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.4">
@@ -13129,7 +13006,7 @@
   <sheetPr codeName="Sheet2"/>
   <dimension ref="A1:I54"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C1" zoomScale="103" workbookViewId="0">
+    <sheetView topLeftCell="C1" zoomScale="103" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A29" activePane="bottomLeft" state="frozen"/>
       <selection pane="bottomLeft" activeCell="I39" sqref="I39"/>
     </sheetView>
@@ -13146,31 +13023,31 @@
   <sheetData>
     <row r="1" spans="1:9" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A1" s="31" t="s">
-        <v>605</v>
+        <v>549</v>
       </c>
       <c r="B1" s="12" t="s">
-        <v>595</v>
+        <v>539</v>
       </c>
       <c r="C1" s="13" t="s">
+        <v>14</v>
+      </c>
+      <c r="D1" s="13" t="s">
+        <v>13</v>
+      </c>
+      <c r="E1" s="13" t="s">
+        <v>12</v>
+      </c>
+      <c r="F1" s="13" t="s">
+        <v>15</v>
+      </c>
+      <c r="G1" s="13" t="s">
+        <v>22</v>
+      </c>
+      <c r="H1" s="13" t="s">
+        <v>16</v>
+      </c>
+      <c r="I1" s="14" t="s">
         <v>18</v>
-      </c>
-      <c r="D1" s="13" t="s">
-        <v>17</v>
-      </c>
-      <c r="E1" s="13" t="s">
-        <v>16</v>
-      </c>
-      <c r="F1" s="13" t="s">
-        <v>19</v>
-      </c>
-      <c r="G1" s="13" t="s">
-        <v>26</v>
-      </c>
-      <c r="H1" s="13" t="s">
-        <v>20</v>
-      </c>
-      <c r="I1" s="14" t="s">
-        <v>22</v>
       </c>
     </row>
     <row r="2" spans="1:9" ht="18" customHeight="1" x14ac:dyDescent="0.4">
@@ -13178,10 +13055,10 @@
         <v>1</v>
       </c>
       <c r="B2" s="53" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="C2" s="16" t="s">
-        <v>15</v>
+        <v>11</v>
       </c>
       <c r="D2" s="16">
         <v>1</v>
@@ -13193,13 +13070,13 @@
         <v>15</v>
       </c>
       <c r="G2" s="16" t="s">
-        <v>27</v>
+        <v>23</v>
       </c>
       <c r="H2" s="16" t="s">
-        <v>21</v>
+        <v>17</v>
       </c>
       <c r="I2" s="17" t="s">
-        <v>23</v>
+        <v>19</v>
       </c>
     </row>
     <row r="3" spans="1:9" ht="18" customHeight="1" x14ac:dyDescent="0.4">
@@ -13207,10 +13084,10 @@
         <v>2</v>
       </c>
       <c r="B3" s="34" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>24</v>
+        <v>20</v>
       </c>
       <c r="D3" s="1">
         <v>15</v>
@@ -13222,10 +13099,10 @@
         <v>18</v>
       </c>
       <c r="G3" s="1" t="s">
-        <v>27</v>
+        <v>23</v>
       </c>
       <c r="H3" s="1" t="s">
-        <v>25</v>
+        <v>21</v>
       </c>
       <c r="I3" s="19"/>
     </row>
@@ -13234,10 +13111,10 @@
         <v>3</v>
       </c>
       <c r="B4" s="34" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>28</v>
+        <v>24</v>
       </c>
       <c r="D4" s="1">
         <v>18</v>
@@ -13249,13 +13126,13 @@
         <v>8</v>
       </c>
       <c r="G4" s="1" t="s">
-        <v>29</v>
+        <v>25</v>
       </c>
       <c r="H4" s="1" t="s">
-        <v>39</v>
+        <v>35</v>
       </c>
       <c r="I4" s="19" t="s">
-        <v>30</v>
+        <v>26</v>
       </c>
     </row>
     <row r="5" spans="1:9" ht="18" customHeight="1" x14ac:dyDescent="0.4">
@@ -13263,10 +13140,10 @@
         <v>4</v>
       </c>
       <c r="B5" s="34" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>31</v>
+        <v>27</v>
       </c>
       <c r="D5" s="1">
         <v>22</v>
@@ -13278,10 +13155,10 @@
         <v>15</v>
       </c>
       <c r="G5" s="1" t="s">
-        <v>32</v>
+        <v>28</v>
       </c>
       <c r="H5" s="1" t="s">
-        <v>34</v>
+        <v>30</v>
       </c>
       <c r="I5" s="19"/>
     </row>
@@ -13290,10 +13167,10 @@
         <v>5</v>
       </c>
       <c r="B6" s="34" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>603</v>
+        <v>547</v>
       </c>
       <c r="D6" s="1">
         <v>34</v>
@@ -13305,10 +13182,10 @@
         <v>22</v>
       </c>
       <c r="G6" s="1" t="s">
-        <v>35</v>
+        <v>31</v>
       </c>
       <c r="H6" s="1" t="s">
-        <v>38</v>
+        <v>34</v>
       </c>
       <c r="I6" s="19"/>
     </row>
@@ -13317,10 +13194,10 @@
         <v>6</v>
       </c>
       <c r="B7" s="34" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>36</v>
+        <v>32</v>
       </c>
       <c r="D7" s="1">
         <v>45</v>
@@ -13332,13 +13209,13 @@
         <v>20</v>
       </c>
       <c r="G7" s="1" t="s">
-        <v>35</v>
+        <v>31</v>
       </c>
       <c r="H7" s="1" t="s">
-        <v>37</v>
+        <v>33</v>
       </c>
       <c r="I7" s="19" t="s">
-        <v>23</v>
+        <v>19</v>
       </c>
     </row>
     <row r="8" spans="1:9" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
@@ -13346,10 +13223,10 @@
         <v>7</v>
       </c>
       <c r="B8" s="35" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="C8" s="21" t="s">
-        <v>40</v>
+        <v>36</v>
       </c>
       <c r="D8" s="21">
         <v>81</v>
@@ -13361,10 +13238,10 @@
         <v>55</v>
       </c>
       <c r="G8" s="21" t="s">
-        <v>41</v>
+        <v>37</v>
       </c>
       <c r="H8" s="21" t="s">
-        <v>42</v>
+        <v>38</v>
       </c>
       <c r="I8" s="22"/>
     </row>
@@ -13374,10 +13251,10 @@
         <v>8</v>
       </c>
       <c r="B10" s="33" t="s">
-        <v>43</v>
+        <v>39</v>
       </c>
       <c r="C10" s="16" t="s">
-        <v>60</v>
+        <v>56</v>
       </c>
       <c r="D10" s="16">
         <v>1</v>
@@ -13389,10 +13266,10 @@
         <v>10</v>
       </c>
       <c r="G10" s="16" t="s">
-        <v>27</v>
+        <v>23</v>
       </c>
       <c r="H10" s="16" t="s">
-        <v>53</v>
+        <v>49</v>
       </c>
       <c r="I10" s="17"/>
     </row>
@@ -13401,10 +13278,10 @@
         <v>9</v>
       </c>
       <c r="B11" s="34" t="s">
-        <v>43</v>
+        <v>39</v>
       </c>
       <c r="C11" s="1" t="s">
-        <v>45</v>
+        <v>41</v>
       </c>
       <c r="D11" s="1">
         <v>8</v>
@@ -13416,13 +13293,13 @@
         <v>30</v>
       </c>
       <c r="G11" s="1" t="s">
-        <v>32</v>
+        <v>28</v>
       </c>
       <c r="H11" s="1" t="s">
-        <v>46</v>
+        <v>42</v>
       </c>
       <c r="I11" s="19" t="s">
-        <v>47</v>
+        <v>43</v>
       </c>
     </row>
     <row r="12" spans="1:9" ht="18" customHeight="1" x14ac:dyDescent="0.4">
@@ -13430,10 +13307,10 @@
         <v>10</v>
       </c>
       <c r="B12" s="34" t="s">
-        <v>43</v>
+        <v>39</v>
       </c>
       <c r="C12" s="1" t="s">
-        <v>44</v>
+        <v>40</v>
       </c>
       <c r="D12" s="1">
         <v>15</v>
@@ -13445,10 +13322,10 @@
         <v>30</v>
       </c>
       <c r="G12" s="1" t="s">
-        <v>570</v>
+        <v>514</v>
       </c>
       <c r="H12" s="1" t="s">
-        <v>594</v>
+        <v>538</v>
       </c>
       <c r="I12" s="19"/>
     </row>
@@ -13457,10 +13334,10 @@
         <v>11</v>
       </c>
       <c r="B13" s="34" t="s">
-        <v>43</v>
+        <v>39</v>
       </c>
       <c r="C13" s="1" t="s">
-        <v>61</v>
+        <v>57</v>
       </c>
       <c r="D13" s="1">
         <v>21</v>
@@ -13472,10 +13349,10 @@
         <v>25</v>
       </c>
       <c r="G13" s="1" t="s">
-        <v>32</v>
+        <v>28</v>
       </c>
       <c r="H13" s="1" t="s">
-        <v>53</v>
+        <v>49</v>
       </c>
       <c r="I13" s="19"/>
     </row>
@@ -13484,10 +13361,10 @@
         <v>12</v>
       </c>
       <c r="B14" s="34" t="s">
-        <v>43</v>
+        <v>39</v>
       </c>
       <c r="C14" s="1" t="s">
-        <v>52</v>
+        <v>48</v>
       </c>
       <c r="D14" s="1">
         <v>32</v>
@@ -13499,10 +13376,10 @@
         <v>50</v>
       </c>
       <c r="G14" s="1" t="s">
-        <v>35</v>
+        <v>31</v>
       </c>
       <c r="H14" s="1" t="s">
-        <v>63</v>
+        <v>59</v>
       </c>
       <c r="I14" s="19"/>
     </row>
@@ -13511,10 +13388,10 @@
         <v>13</v>
       </c>
       <c r="B15" s="34" t="s">
-        <v>43</v>
+        <v>39</v>
       </c>
       <c r="C15" s="1" t="s">
-        <v>54</v>
+        <v>50</v>
       </c>
       <c r="D15" s="1">
         <v>32</v>
@@ -13526,13 +13403,13 @@
         <v>40</v>
       </c>
       <c r="G15" s="1" t="s">
-        <v>35</v>
+        <v>31</v>
       </c>
       <c r="H15" s="1" t="s">
-        <v>55</v>
+        <v>51</v>
       </c>
       <c r="I15" s="19" t="s">
-        <v>56</v>
+        <v>52</v>
       </c>
     </row>
     <row r="16" spans="1:9" ht="18" customHeight="1" x14ac:dyDescent="0.4">
@@ -13540,10 +13417,10 @@
         <v>14</v>
       </c>
       <c r="B16" s="34" t="s">
-        <v>43</v>
+        <v>39</v>
       </c>
       <c r="C16" s="1" t="s">
-        <v>62</v>
+        <v>58</v>
       </c>
       <c r="D16" s="1">
         <v>35</v>
@@ -13555,10 +13432,10 @@
         <v>42</v>
       </c>
       <c r="G16" s="1" t="s">
-        <v>35</v>
+        <v>31</v>
       </c>
       <c r="H16" s="1" t="s">
-        <v>59</v>
+        <v>55</v>
       </c>
       <c r="I16" s="19"/>
     </row>
@@ -13567,10 +13444,10 @@
         <v>15</v>
       </c>
       <c r="B17" s="34" t="s">
-        <v>43</v>
+        <v>39</v>
       </c>
       <c r="C17" s="1" t="s">
-        <v>57</v>
+        <v>53</v>
       </c>
       <c r="D17" s="1">
         <v>45</v>
@@ -13582,10 +13459,10 @@
         <v>55</v>
       </c>
       <c r="G17" s="1" t="s">
-        <v>35</v>
+        <v>31</v>
       </c>
       <c r="H17" s="1" t="s">
-        <v>58</v>
+        <v>54</v>
       </c>
       <c r="I17" s="19"/>
     </row>
@@ -13594,10 +13471,10 @@
         <v>16</v>
       </c>
       <c r="B18" s="35" t="s">
-        <v>43</v>
+        <v>39</v>
       </c>
       <c r="C18" s="21" t="s">
-        <v>409</v>
+        <v>380</v>
       </c>
       <c r="D18" s="21">
         <v>81</v>
@@ -13609,10 +13486,10 @@
         <v>80</v>
       </c>
       <c r="G18" s="21" t="s">
-        <v>35</v>
+        <v>31</v>
       </c>
       <c r="H18" s="21" t="s">
-        <v>63</v>
+        <v>59</v>
       </c>
       <c r="I18" s="22"/>
     </row>
@@ -13622,10 +13499,10 @@
         <v>17</v>
       </c>
       <c r="B20" s="33" t="s">
-        <v>65</v>
+        <v>61</v>
       </c>
       <c r="C20" s="16" t="s">
-        <v>66</v>
+        <v>62</v>
       </c>
       <c r="D20" s="16">
         <v>1</v>
@@ -13637,10 +13514,10 @@
         <v>7</v>
       </c>
       <c r="G20" s="16" t="s">
-        <v>29</v>
+        <v>25</v>
       </c>
       <c r="H20" s="16" t="s">
-        <v>67</v>
+        <v>63</v>
       </c>
       <c r="I20" s="17"/>
     </row>
@@ -13649,10 +13526,10 @@
         <v>18</v>
       </c>
       <c r="B21" s="34" t="s">
+        <v>60</v>
+      </c>
+      <c r="C21" s="1" t="s">
         <v>64</v>
-      </c>
-      <c r="C21" s="1" t="s">
-        <v>68</v>
       </c>
       <c r="D21" s="1">
         <v>7</v>
@@ -13664,10 +13541,10 @@
         <v>12</v>
       </c>
       <c r="G21" s="1" t="s">
-        <v>69</v>
+        <v>65</v>
       </c>
       <c r="H21" s="1" t="s">
-        <v>70</v>
+        <v>66</v>
       </c>
       <c r="I21" s="19"/>
     </row>
@@ -13676,10 +13553,10 @@
         <v>19</v>
       </c>
       <c r="B22" s="34" t="s">
-        <v>64</v>
+        <v>60</v>
       </c>
       <c r="C22" s="1" t="s">
-        <v>73</v>
+        <v>69</v>
       </c>
       <c r="D22" s="1">
         <v>15</v>
@@ -13691,10 +13568,10 @@
         <v>21</v>
       </c>
       <c r="G22" s="1" t="s">
-        <v>69</v>
+        <v>65</v>
       </c>
       <c r="H22" s="1" t="s">
-        <v>74</v>
+        <v>70</v>
       </c>
       <c r="I22" s="19"/>
     </row>
@@ -13703,10 +13580,10 @@
         <v>20</v>
       </c>
       <c r="B23" s="34" t="s">
-        <v>64</v>
+        <v>60</v>
       </c>
       <c r="C23" s="1" t="s">
-        <v>75</v>
+        <v>71</v>
       </c>
       <c r="D23" s="1">
         <v>23</v>
@@ -13718,10 +13595,10 @@
         <v>10</v>
       </c>
       <c r="G23" s="1" t="s">
-        <v>32</v>
+        <v>28</v>
       </c>
       <c r="H23" s="1" t="s">
-        <v>76</v>
+        <v>72</v>
       </c>
       <c r="I23" s="19"/>
     </row>
@@ -13730,10 +13607,10 @@
         <v>21</v>
       </c>
       <c r="B24" s="34" t="s">
-        <v>64</v>
+        <v>60</v>
       </c>
       <c r="C24" s="1" t="s">
-        <v>71</v>
+        <v>67</v>
       </c>
       <c r="D24" s="1">
         <v>32</v>
@@ -13745,10 +13622,10 @@
         <v>20</v>
       </c>
       <c r="G24" s="1" t="s">
-        <v>35</v>
+        <v>31</v>
       </c>
       <c r="H24" s="1" t="s">
-        <v>72</v>
+        <v>68</v>
       </c>
       <c r="I24" s="19"/>
     </row>
@@ -13757,10 +13634,10 @@
         <v>22</v>
       </c>
       <c r="B25" s="35" t="s">
-        <v>64</v>
+        <v>60</v>
       </c>
       <c r="C25" s="21" t="s">
-        <v>77</v>
+        <v>73</v>
       </c>
       <c r="D25" s="21">
         <v>81</v>
@@ -13772,10 +13649,10 @@
         <v>55</v>
       </c>
       <c r="G25" s="21" t="s">
-        <v>41</v>
+        <v>37</v>
       </c>
       <c r="H25" s="21" t="s">
-        <v>78</v>
+        <v>74</v>
       </c>
       <c r="I25" s="22"/>
     </row>
@@ -13785,10 +13662,10 @@
         <v>23</v>
       </c>
       <c r="B27" s="33" t="s">
-        <v>79</v>
+        <v>75</v>
       </c>
       <c r="C27" s="16" t="s">
-        <v>80</v>
+        <v>76</v>
       </c>
       <c r="D27" s="16">
         <v>1</v>
@@ -13800,10 +13677,10 @@
         <v>15</v>
       </c>
       <c r="G27" s="16" t="s">
-        <v>32</v>
+        <v>28</v>
       </c>
       <c r="H27" s="16" t="s">
-        <v>91</v>
+        <v>87</v>
       </c>
       <c r="I27" s="17"/>
     </row>
@@ -13812,10 +13689,10 @@
         <v>24</v>
       </c>
       <c r="B28" s="34" t="s">
-        <v>79</v>
+        <v>75</v>
       </c>
       <c r="C28" s="1" t="s">
-        <v>81</v>
+        <v>77</v>
       </c>
       <c r="D28" s="1">
         <v>1</v>
@@ -13827,10 +13704,10 @@
         <v>15</v>
       </c>
       <c r="G28" s="1" t="s">
-        <v>32</v>
+        <v>28</v>
       </c>
       <c r="H28" s="1" t="s">
-        <v>89</v>
+        <v>85</v>
       </c>
       <c r="I28" s="19"/>
     </row>
@@ -13839,10 +13716,10 @@
         <v>25</v>
       </c>
       <c r="B29" s="34" t="s">
-        <v>79</v>
+        <v>75</v>
       </c>
       <c r="C29" s="1" t="s">
-        <v>82</v>
+        <v>78</v>
       </c>
       <c r="D29" s="1">
         <v>1</v>
@@ -13854,10 +13731,10 @@
         <v>15</v>
       </c>
       <c r="G29" s="1" t="s">
-        <v>32</v>
+        <v>28</v>
       </c>
       <c r="H29" s="1" t="s">
-        <v>90</v>
+        <v>86</v>
       </c>
       <c r="I29" s="19"/>
     </row>
@@ -13866,10 +13743,10 @@
         <v>26</v>
       </c>
       <c r="B30" s="34" t="s">
+        <v>75</v>
+      </c>
+      <c r="C30" s="1" t="s">
         <v>79</v>
-      </c>
-      <c r="C30" s="1" t="s">
-        <v>83</v>
       </c>
       <c r="D30" s="1">
         <v>22</v>
@@ -13881,10 +13758,10 @@
         <v>30</v>
       </c>
       <c r="G30" s="1" t="s">
-        <v>35</v>
+        <v>31</v>
       </c>
       <c r="H30" s="1" t="s">
-        <v>92</v>
+        <v>88</v>
       </c>
       <c r="I30" s="19"/>
     </row>
@@ -13893,10 +13770,10 @@
         <v>27</v>
       </c>
       <c r="B31" s="34" t="s">
-        <v>79</v>
+        <v>75</v>
       </c>
       <c r="C31" s="1" t="s">
-        <v>84</v>
+        <v>80</v>
       </c>
       <c r="D31" s="1">
         <v>22</v>
@@ -13908,10 +13785,10 @@
         <v>30</v>
       </c>
       <c r="G31" s="1" t="s">
-        <v>35</v>
+        <v>31</v>
       </c>
       <c r="H31" s="1" t="s">
-        <v>93</v>
+        <v>89</v>
       </c>
       <c r="I31" s="19"/>
     </row>
@@ -13920,10 +13797,10 @@
         <v>28</v>
       </c>
       <c r="B32" s="34" t="s">
-        <v>79</v>
+        <v>75</v>
       </c>
       <c r="C32" s="1" t="s">
-        <v>85</v>
+        <v>81</v>
       </c>
       <c r="D32" s="1">
         <v>22</v>
@@ -13935,10 +13812,10 @@
         <v>30</v>
       </c>
       <c r="G32" s="1" t="s">
-        <v>35</v>
+        <v>31</v>
       </c>
       <c r="H32" s="1" t="s">
-        <v>94</v>
+        <v>90</v>
       </c>
       <c r="I32" s="19"/>
     </row>
@@ -13947,10 +13824,10 @@
         <v>29</v>
       </c>
       <c r="B33" s="34" t="s">
-        <v>79</v>
+        <v>75</v>
       </c>
       <c r="C33" s="4" t="s">
-        <v>86</v>
+        <v>82</v>
       </c>
       <c r="D33" s="4">
         <v>38</v>
@@ -13962,10 +13839,10 @@
         <v>45</v>
       </c>
       <c r="G33" s="4" t="s">
-        <v>41</v>
+        <v>37</v>
       </c>
       <c r="H33" s="1" t="s">
-        <v>96</v>
+        <v>92</v>
       </c>
       <c r="I33" s="19"/>
     </row>
@@ -13974,10 +13851,10 @@
         <v>30</v>
       </c>
       <c r="B34" s="34" t="s">
-        <v>79</v>
+        <v>75</v>
       </c>
       <c r="C34" s="4" t="s">
-        <v>87</v>
+        <v>83</v>
       </c>
       <c r="D34" s="4">
         <v>38</v>
@@ -13989,10 +13866,10 @@
         <v>45</v>
       </c>
       <c r="G34" s="4" t="s">
-        <v>41</v>
+        <v>37</v>
       </c>
       <c r="H34" s="1" t="s">
-        <v>97</v>
+        <v>93</v>
       </c>
       <c r="I34" s="19"/>
     </row>
@@ -14001,10 +13878,10 @@
         <v>31</v>
       </c>
       <c r="B35" s="34" t="s">
-        <v>79</v>
+        <v>75</v>
       </c>
       <c r="C35" s="4" t="s">
-        <v>88</v>
+        <v>84</v>
       </c>
       <c r="D35" s="4">
         <v>38</v>
@@ -14016,10 +13893,10 @@
         <v>45</v>
       </c>
       <c r="G35" s="4" t="s">
-        <v>95</v>
+        <v>91</v>
       </c>
       <c r="H35" s="1" t="s">
-        <v>98</v>
+        <v>94</v>
       </c>
       <c r="I35" s="19"/>
     </row>
@@ -14028,10 +13905,10 @@
         <v>32</v>
       </c>
       <c r="B36" s="34" t="s">
-        <v>79</v>
+        <v>75</v>
       </c>
       <c r="C36" s="4" t="s">
-        <v>100</v>
+        <v>96</v>
       </c>
       <c r="D36" s="4">
         <v>42</v>
@@ -14043,10 +13920,10 @@
         <v>65</v>
       </c>
       <c r="G36" s="4" t="s">
-        <v>41</v>
+        <v>37</v>
       </c>
       <c r="H36" s="4" t="s">
-        <v>101</v>
+        <v>97</v>
       </c>
       <c r="I36" s="19"/>
     </row>
@@ -14055,10 +13932,10 @@
         <v>33</v>
       </c>
       <c r="B37" s="35" t="s">
-        <v>79</v>
+        <v>75</v>
       </c>
       <c r="C37" s="29" t="s">
-        <v>99</v>
+        <v>95</v>
       </c>
       <c r="D37" s="29">
         <v>81</v>
@@ -14070,13 +13947,13 @@
         <v>80</v>
       </c>
       <c r="G37" s="29" t="s">
-        <v>41</v>
+        <v>37</v>
       </c>
       <c r="H37" s="29" t="s">
-        <v>102</v>
+        <v>98</v>
       </c>
       <c r="I37" s="22" t="s">
-        <v>606</v>
+        <v>550</v>
       </c>
     </row>
     <row r="38" spans="1:9" s="8" customFormat="1" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.45"/>
@@ -14085,10 +13962,10 @@
         <v>34</v>
       </c>
       <c r="B39" s="33" t="s">
-        <v>103</v>
+        <v>99</v>
       </c>
       <c r="C39" s="16" t="s">
-        <v>104</v>
+        <v>100</v>
       </c>
       <c r="D39" s="16">
         <v>1</v>
@@ -14100,13 +13977,13 @@
         <v>25</v>
       </c>
       <c r="G39" s="16" t="s">
-        <v>32</v>
+        <v>28</v>
       </c>
       <c r="H39" s="16" t="s">
-        <v>110</v>
+        <v>106</v>
       </c>
       <c r="I39" s="17" t="s">
-        <v>107</v>
+        <v>103</v>
       </c>
     </row>
     <row r="40" spans="1:9" ht="18" customHeight="1" x14ac:dyDescent="0.4">
@@ -14114,10 +13991,10 @@
         <v>35</v>
       </c>
       <c r="B40" s="34" t="s">
-        <v>103</v>
+        <v>99</v>
       </c>
       <c r="C40" s="1" t="s">
-        <v>115</v>
+        <v>111</v>
       </c>
       <c r="D40" s="1">
         <v>1</v>
@@ -14129,13 +14006,13 @@
         <v>20</v>
       </c>
       <c r="G40" s="1" t="s">
-        <v>32</v>
+        <v>28</v>
       </c>
       <c r="H40" s="1" t="s">
-        <v>116</v>
+        <v>112</v>
       </c>
       <c r="I40" s="19" t="s">
-        <v>117</v>
+        <v>113</v>
       </c>
     </row>
     <row r="41" spans="1:9" ht="18" customHeight="1" x14ac:dyDescent="0.4">
@@ -14143,10 +14020,10 @@
         <v>36</v>
       </c>
       <c r="B41" s="34" t="s">
-        <v>103</v>
+        <v>99</v>
       </c>
       <c r="C41" s="1" t="s">
-        <v>118</v>
+        <v>114</v>
       </c>
       <c r="D41" s="1">
         <v>8</v>
@@ -14158,13 +14035,13 @@
         <v>18</v>
       </c>
       <c r="G41" s="1" t="s">
-        <v>32</v>
+        <v>28</v>
       </c>
       <c r="H41" s="1" t="s">
-        <v>119</v>
+        <v>115</v>
       </c>
       <c r="I41" s="19" t="s">
-        <v>120</v>
+        <v>116</v>
       </c>
     </row>
     <row r="42" spans="1:9" ht="18" customHeight="1" x14ac:dyDescent="0.4">
@@ -14172,10 +14049,10 @@
         <v>37</v>
       </c>
       <c r="B42" s="34" t="s">
-        <v>103</v>
+        <v>99</v>
       </c>
       <c r="C42" s="1" t="s">
-        <v>105</v>
+        <v>101</v>
       </c>
       <c r="D42" s="1">
         <v>15</v>
@@ -14187,10 +14064,10 @@
         <v>15</v>
       </c>
       <c r="G42" s="1" t="s">
-        <v>108</v>
+        <v>104</v>
       </c>
       <c r="H42" s="1" t="s">
-        <v>109</v>
+        <v>105</v>
       </c>
       <c r="I42" s="19"/>
     </row>
@@ -14199,10 +14076,10 @@
         <v>38</v>
       </c>
       <c r="B43" s="34" t="s">
-        <v>103</v>
+        <v>99</v>
       </c>
       <c r="C43" s="4" t="s">
-        <v>124</v>
+        <v>120</v>
       </c>
       <c r="D43" s="4">
         <v>19</v>
@@ -14214,13 +14091,13 @@
         <v>31</v>
       </c>
       <c r="G43" s="1" t="s">
-        <v>35</v>
+        <v>31</v>
       </c>
       <c r="H43" s="1" t="s">
-        <v>125</v>
+        <v>121</v>
       </c>
       <c r="I43" s="19" t="s">
-        <v>126</v>
+        <v>122</v>
       </c>
     </row>
     <row r="44" spans="1:9" ht="18" customHeight="1" x14ac:dyDescent="0.4">
@@ -14228,10 +14105,10 @@
         <v>39</v>
       </c>
       <c r="B44" s="34" t="s">
-        <v>103</v>
+        <v>99</v>
       </c>
       <c r="C44" s="1" t="s">
-        <v>106</v>
+        <v>102</v>
       </c>
       <c r="D44" s="1">
         <v>22</v>
@@ -14243,13 +14120,13 @@
         <v>22</v>
       </c>
       <c r="G44" s="1" t="s">
-        <v>32</v>
+        <v>28</v>
       </c>
       <c r="H44" s="1" t="s">
-        <v>111</v>
+        <v>107</v>
       </c>
       <c r="I44" s="19" t="s">
-        <v>112</v>
+        <v>108</v>
       </c>
     </row>
     <row r="45" spans="1:9" ht="18" customHeight="1" x14ac:dyDescent="0.4">
@@ -14257,10 +14134,10 @@
         <v>40</v>
       </c>
       <c r="B45" s="34" t="s">
-        <v>103</v>
+        <v>99</v>
       </c>
       <c r="C45" s="1" t="s">
-        <v>113</v>
+        <v>109</v>
       </c>
       <c r="D45" s="1">
         <v>31</v>
@@ -14272,10 +14149,10 @@
         <v>42</v>
       </c>
       <c r="G45" s="1" t="s">
-        <v>35</v>
+        <v>31</v>
       </c>
       <c r="H45" s="1" t="s">
-        <v>114</v>
+        <v>110</v>
       </c>
       <c r="I45" s="19"/>
     </row>
@@ -14284,10 +14161,10 @@
         <v>41</v>
       </c>
       <c r="B46" s="35" t="s">
-        <v>103</v>
+        <v>99</v>
       </c>
       <c r="C46" s="29" t="s">
-        <v>121</v>
+        <v>117</v>
       </c>
       <c r="D46" s="21">
         <v>81</v>
@@ -14299,13 +14176,13 @@
         <v>55</v>
       </c>
       <c r="G46" s="21" t="s">
-        <v>41</v>
+        <v>37</v>
       </c>
       <c r="H46" s="21" t="s">
-        <v>122</v>
+        <v>118</v>
       </c>
       <c r="I46" s="22" t="s">
-        <v>123</v>
+        <v>119</v>
       </c>
     </row>
     <row r="47" spans="1:9" s="8" customFormat="1" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.45"/>
@@ -14314,10 +14191,10 @@
         <v>42</v>
       </c>
       <c r="B48" s="33" t="s">
-        <v>152</v>
+        <v>148</v>
       </c>
       <c r="C48" s="16" t="s">
-        <v>129</v>
+        <v>125</v>
       </c>
       <c r="D48" s="16">
         <v>1</v>
@@ -14329,13 +14206,13 @@
         <v>40</v>
       </c>
       <c r="G48" s="16" t="s">
-        <v>32</v>
+        <v>28</v>
       </c>
       <c r="H48" s="16" t="s">
-        <v>134</v>
+        <v>130</v>
       </c>
       <c r="I48" s="17" t="s">
-        <v>133</v>
+        <v>129</v>
       </c>
     </row>
     <row r="49" spans="1:9" ht="18" customHeight="1" x14ac:dyDescent="0.4">
@@ -14343,10 +14220,10 @@
         <v>43</v>
       </c>
       <c r="B49" s="34" t="s">
-        <v>152</v>
+        <v>148</v>
       </c>
       <c r="C49" s="1" t="s">
-        <v>130</v>
+        <v>126</v>
       </c>
       <c r="D49" s="1">
         <v>1</v>
@@ -14358,13 +14235,13 @@
         <v>35</v>
       </c>
       <c r="G49" s="1" t="s">
-        <v>32</v>
+        <v>28</v>
       </c>
       <c r="H49" s="1" t="s">
-        <v>131</v>
+        <v>127</v>
       </c>
       <c r="I49" s="19" t="s">
-        <v>267</v>
+        <v>571</v>
       </c>
     </row>
     <row r="50" spans="1:9" ht="18" customHeight="1" x14ac:dyDescent="0.4">
@@ -14372,10 +14249,10 @@
         <v>44</v>
       </c>
       <c r="B50" s="34" t="s">
-        <v>152</v>
+        <v>148</v>
       </c>
       <c r="C50" s="1" t="s">
-        <v>132</v>
+        <v>128</v>
       </c>
       <c r="D50" s="1">
         <v>1</v>
@@ -14387,13 +14264,13 @@
         <v>45</v>
       </c>
       <c r="G50" s="1" t="s">
-        <v>35</v>
+        <v>31</v>
       </c>
       <c r="H50" s="1" t="s">
-        <v>136</v>
+        <v>132</v>
       </c>
       <c r="I50" s="19" t="s">
-        <v>135</v>
+        <v>131</v>
       </c>
     </row>
     <row r="51" spans="1:9" ht="18" customHeight="1" x14ac:dyDescent="0.4">
@@ -14401,10 +14278,10 @@
         <v>45</v>
       </c>
       <c r="B51" s="34" t="s">
-        <v>152</v>
+        <v>148</v>
       </c>
       <c r="C51" s="1" t="s">
-        <v>139</v>
+        <v>135</v>
       </c>
       <c r="D51" s="1">
         <v>1</v>
@@ -14416,13 +14293,13 @@
         <v>30</v>
       </c>
       <c r="G51" s="1" t="s">
-        <v>108</v>
+        <v>104</v>
       </c>
       <c r="H51" s="1" t="s">
-        <v>137</v>
+        <v>133</v>
       </c>
       <c r="I51" s="19" t="s">
-        <v>138</v>
+        <v>134</v>
       </c>
     </row>
     <row r="52" spans="1:9" ht="18" customHeight="1" x14ac:dyDescent="0.4">
@@ -14430,10 +14307,10 @@
         <v>46</v>
       </c>
       <c r="B52" s="34" t="s">
-        <v>152</v>
+        <v>148</v>
       </c>
       <c r="C52" s="4" t="s">
-        <v>144</v>
+        <v>140</v>
       </c>
       <c r="D52" s="1">
         <v>1</v>
@@ -14445,10 +14322,10 @@
         <v>45</v>
       </c>
       <c r="G52" s="1" t="s">
-        <v>35</v>
+        <v>31</v>
       </c>
       <c r="H52" s="1" t="s">
-        <v>145</v>
+        <v>141</v>
       </c>
       <c r="I52" s="19"/>
     </row>
@@ -14457,10 +14334,10 @@
         <v>47</v>
       </c>
       <c r="B53" s="34" t="s">
-        <v>152</v>
+        <v>148</v>
       </c>
       <c r="C53" s="4" t="s">
-        <v>127</v>
+        <v>123</v>
       </c>
       <c r="D53" s="4">
         <v>1</v>
@@ -14472,13 +14349,13 @@
         <v>18</v>
       </c>
       <c r="G53" s="4" t="s">
-        <v>32</v>
+        <v>28</v>
       </c>
       <c r="H53" s="4" t="s">
-        <v>128</v>
+        <v>124</v>
       </c>
       <c r="I53" s="19" t="s">
-        <v>140</v>
+        <v>136</v>
       </c>
     </row>
     <row r="54" spans="1:9" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
@@ -14486,10 +14363,10 @@
         <v>48</v>
       </c>
       <c r="B54" s="35" t="s">
-        <v>152</v>
+        <v>148</v>
       </c>
       <c r="C54" s="29" t="s">
-        <v>141</v>
+        <v>137</v>
       </c>
       <c r="D54" s="29">
         <v>81</v>
@@ -14501,13 +14378,13 @@
         <v>99</v>
       </c>
       <c r="G54" s="29" t="s">
-        <v>41</v>
+        <v>37</v>
       </c>
       <c r="H54" s="29" t="s">
-        <v>142</v>
+        <v>138</v>
       </c>
       <c r="I54" s="30" t="s">
-        <v>143</v>
+        <v>139</v>
       </c>
     </row>
   </sheetData>
@@ -14535,28 +14412,28 @@
   <sheetData>
     <row r="2" spans="2:9" x14ac:dyDescent="0.4">
       <c r="B2" s="1" t="s">
-        <v>333</v>
+        <v>315</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>332</v>
+        <v>314</v>
       </c>
       <c r="D2" s="1" t="s">
-        <v>334</v>
+        <v>316</v>
       </c>
       <c r="E2" s="1" t="s">
-        <v>335</v>
+        <v>317</v>
       </c>
       <c r="F2" s="1" t="s">
-        <v>337</v>
+        <v>319</v>
       </c>
       <c r="G2" s="1" t="s">
-        <v>390</v>
+        <v>362</v>
       </c>
       <c r="H2" s="1" t="s">
-        <v>358</v>
+        <v>340</v>
       </c>
       <c r="I2" s="1" t="s">
-        <v>344</v>
+        <v>326</v>
       </c>
     </row>
     <row r="3" spans="2:9" x14ac:dyDescent="0.4">
@@ -14564,22 +14441,22 @@
         <v>1</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>378</v>
+        <v>352</v>
       </c>
       <c r="D3" s="1">
         <v>1</v>
       </c>
       <c r="E3" s="1" t="s">
-        <v>338</v>
+        <v>320</v>
       </c>
       <c r="F3" s="1">
         <v>0</v>
       </c>
       <c r="G3" s="1" t="s">
-        <v>391</v>
+        <v>363</v>
       </c>
       <c r="H3" s="1" t="s">
-        <v>359</v>
+        <v>551</v>
       </c>
       <c r="I3" s="1"/>
     </row>
@@ -14588,22 +14465,22 @@
         <v>2</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>379</v>
+        <v>353</v>
       </c>
       <c r="D4" s="1">
         <v>0.8</v>
       </c>
       <c r="E4" s="1" t="s">
-        <v>340</v>
+        <v>322</v>
       </c>
       <c r="F4" s="1">
         <v>0</v>
       </c>
       <c r="G4" s="1" t="s">
-        <v>392</v>
+        <v>364</v>
       </c>
       <c r="H4" s="1" t="s">
-        <v>359</v>
+        <v>551</v>
       </c>
       <c r="I4" s="1"/>
     </row>
@@ -14612,19 +14489,19 @@
         <v>3</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>380</v>
+        <v>354</v>
       </c>
       <c r="D5" s="1">
         <v>1</v>
       </c>
       <c r="E5" s="1" t="s">
-        <v>47</v>
+        <v>43</v>
       </c>
       <c r="F5" s="1">
         <v>0</v>
       </c>
       <c r="G5" s="1" t="s">
-        <v>391</v>
+        <v>363</v>
       </c>
       <c r="H5" s="1"/>
       <c r="I5" s="1"/>
@@ -14634,19 +14511,19 @@
         <v>4</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>381</v>
+        <v>355</v>
       </c>
       <c r="D6" s="1">
         <v>0.8</v>
       </c>
       <c r="E6" s="1" t="s">
-        <v>140</v>
+        <v>136</v>
       </c>
       <c r="F6" s="1">
         <v>0</v>
       </c>
       <c r="G6" s="1" t="s">
-        <v>392</v>
+        <v>364</v>
       </c>
       <c r="H6" s="1"/>
       <c r="I6" s="1"/>
@@ -14656,22 +14533,22 @@
         <v>5</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>336</v>
+        <v>318</v>
       </c>
       <c r="D7" s="1">
         <v>1.1000000000000001</v>
       </c>
       <c r="E7" s="1" t="s">
-        <v>338</v>
+        <v>320</v>
       </c>
       <c r="F7" s="1">
         <v>0</v>
       </c>
       <c r="G7" s="1" t="s">
-        <v>393</v>
+        <v>365</v>
       </c>
       <c r="H7" s="1" t="s">
-        <v>359</v>
+        <v>551</v>
       </c>
       <c r="I7" s="1"/>
     </row>
@@ -14680,22 +14557,22 @@
         <v>6</v>
       </c>
       <c r="C8" s="1" t="s">
-        <v>80</v>
+        <v>76</v>
       </c>
       <c r="D8" s="1">
         <v>1</v>
       </c>
       <c r="E8" s="1" t="s">
-        <v>338</v>
+        <v>320</v>
       </c>
       <c r="F8" s="1">
         <v>15</v>
       </c>
       <c r="G8" s="1" t="s">
-        <v>391</v>
+        <v>363</v>
       </c>
       <c r="H8" s="1" t="s">
-        <v>360</v>
+        <v>572</v>
       </c>
       <c r="I8" s="1"/>
     </row>
@@ -14704,22 +14581,22 @@
         <v>7</v>
       </c>
       <c r="C9" s="1" t="s">
-        <v>339</v>
+        <v>321</v>
       </c>
       <c r="D9" s="1">
         <v>1</v>
       </c>
       <c r="E9" s="1" t="s">
-        <v>338</v>
+        <v>320</v>
       </c>
       <c r="F9" s="1">
         <v>15</v>
       </c>
       <c r="G9" s="1" t="s">
-        <v>391</v>
+        <v>363</v>
       </c>
       <c r="H9" s="1" t="s">
-        <v>360</v>
+        <v>572</v>
       </c>
       <c r="I9" s="1"/>
     </row>
@@ -14728,22 +14605,22 @@
         <v>8</v>
       </c>
       <c r="C10" s="1" t="s">
-        <v>82</v>
+        <v>78</v>
       </c>
       <c r="D10" s="1">
         <v>1</v>
       </c>
       <c r="E10" s="1" t="s">
-        <v>338</v>
+        <v>320</v>
       </c>
       <c r="F10" s="1">
         <v>15</v>
       </c>
       <c r="G10" s="1" t="s">
-        <v>391</v>
+        <v>363</v>
       </c>
       <c r="H10" s="1" t="s">
-        <v>360</v>
+        <v>572</v>
       </c>
       <c r="I10" s="1"/>
     </row>
@@ -14752,22 +14629,22 @@
         <v>9</v>
       </c>
       <c r="C11" s="1" t="s">
-        <v>341</v>
+        <v>323</v>
       </c>
       <c r="D11" s="1">
         <v>0.7</v>
       </c>
       <c r="E11" s="1" t="s">
-        <v>340</v>
+        <v>322</v>
       </c>
       <c r="F11" s="1">
         <v>15</v>
       </c>
       <c r="G11" s="1" t="s">
-        <v>391</v>
+        <v>363</v>
       </c>
       <c r="H11" s="1" t="s">
-        <v>361</v>
+        <v>551</v>
       </c>
       <c r="I11" s="1"/>
     </row>
@@ -14776,22 +14653,22 @@
         <v>10</v>
       </c>
       <c r="C12" s="1" t="s">
-        <v>342</v>
+        <v>324</v>
       </c>
       <c r="D12" s="1">
         <v>1</v>
       </c>
       <c r="E12" s="1" t="s">
-        <v>338</v>
+        <v>320</v>
       </c>
       <c r="F12" s="1">
         <v>0</v>
       </c>
       <c r="G12" s="1" t="s">
-        <v>391</v>
+        <v>363</v>
       </c>
       <c r="H12" s="1" t="s">
-        <v>361</v>
+        <v>551</v>
       </c>
       <c r="I12" s="1"/>
     </row>
@@ -14800,22 +14677,22 @@
         <v>11</v>
       </c>
       <c r="C13" s="1" t="s">
-        <v>343</v>
+        <v>325</v>
       </c>
       <c r="D13" s="1">
         <v>0.6</v>
       </c>
       <c r="E13" s="1" t="s">
-        <v>340</v>
+        <v>322</v>
       </c>
       <c r="F13" s="1">
         <v>30</v>
       </c>
       <c r="G13" s="1" t="s">
-        <v>393</v>
+        <v>365</v>
       </c>
       <c r="H13" s="1" t="s">
-        <v>361</v>
+        <v>551</v>
       </c>
       <c r="I13" s="1"/>
     </row>
@@ -14824,22 +14701,22 @@
         <v>12</v>
       </c>
       <c r="C14" s="1" t="s">
-        <v>345</v>
+        <v>327</v>
       </c>
       <c r="D14" s="1">
         <v>1.5</v>
       </c>
       <c r="E14" s="1" t="s">
-        <v>338</v>
+        <v>320</v>
       </c>
       <c r="F14" s="1">
         <v>30</v>
       </c>
       <c r="G14" s="1" t="s">
-        <v>392</v>
+        <v>364</v>
       </c>
       <c r="H14" s="1" t="s">
-        <v>360</v>
+        <v>572</v>
       </c>
       <c r="I14" s="1"/>
     </row>
@@ -14848,22 +14725,22 @@
         <v>13</v>
       </c>
       <c r="C15" s="1" t="s">
-        <v>425</v>
+        <v>396</v>
       </c>
       <c r="D15" s="1">
         <v>1.5</v>
       </c>
       <c r="E15" s="1" t="s">
-        <v>338</v>
+        <v>320</v>
       </c>
       <c r="F15" s="1">
         <v>30</v>
       </c>
       <c r="G15" s="1" t="s">
-        <v>392</v>
+        <v>364</v>
       </c>
       <c r="H15" s="1" t="s">
-        <v>360</v>
+        <v>572</v>
       </c>
       <c r="I15" s="1"/>
     </row>
@@ -14872,22 +14749,22 @@
         <v>14</v>
       </c>
       <c r="C16" s="1" t="s">
-        <v>346</v>
+        <v>328</v>
       </c>
       <c r="D16" s="1">
         <v>1.5</v>
       </c>
       <c r="E16" s="1" t="s">
-        <v>338</v>
+        <v>320</v>
       </c>
       <c r="F16" s="1">
         <v>30</v>
       </c>
       <c r="G16" s="1" t="s">
-        <v>392</v>
+        <v>364</v>
       </c>
       <c r="H16" s="1" t="s">
-        <v>360</v>
+        <v>572</v>
       </c>
       <c r="I16" s="1"/>
     </row>
@@ -14896,22 +14773,22 @@
         <v>15</v>
       </c>
       <c r="C17" s="1" t="s">
-        <v>351</v>
+        <v>333</v>
       </c>
       <c r="D17" s="1">
         <v>1.25</v>
       </c>
       <c r="E17" s="1" t="s">
-        <v>340</v>
+        <v>322</v>
       </c>
       <c r="F17" s="1">
         <v>45</v>
       </c>
       <c r="G17" s="1" t="s">
-        <v>392</v>
+        <v>364</v>
       </c>
       <c r="H17" s="1" t="s">
-        <v>362</v>
+        <v>572</v>
       </c>
       <c r="I17" s="1"/>
     </row>
@@ -14920,22 +14797,22 @@
         <v>16</v>
       </c>
       <c r="C18" s="1" t="s">
-        <v>352</v>
+        <v>334</v>
       </c>
       <c r="D18" s="1">
         <v>1.2</v>
       </c>
       <c r="E18" s="1" t="s">
-        <v>338</v>
+        <v>320</v>
       </c>
       <c r="F18" s="1">
         <v>30</v>
       </c>
       <c r="G18" s="1" t="s">
-        <v>393</v>
+        <v>365</v>
       </c>
       <c r="H18" s="1" t="s">
-        <v>360</v>
+        <v>572</v>
       </c>
       <c r="I18" s="1"/>
     </row>
@@ -14944,22 +14821,22 @@
         <v>17</v>
       </c>
       <c r="C19" s="1" t="s">
-        <v>353</v>
+        <v>335</v>
       </c>
       <c r="D19" s="1">
         <v>1.2</v>
       </c>
       <c r="E19" s="1" t="s">
-        <v>338</v>
+        <v>320</v>
       </c>
       <c r="F19" s="1">
         <v>0</v>
       </c>
       <c r="G19" s="1" t="s">
-        <v>393</v>
+        <v>365</v>
       </c>
       <c r="H19" s="1" t="s">
-        <v>359</v>
+        <v>551</v>
       </c>
       <c r="I19" s="1"/>
     </row>
@@ -14968,22 +14845,22 @@
         <v>18</v>
       </c>
       <c r="C20" s="1" t="s">
-        <v>354</v>
+        <v>336</v>
       </c>
       <c r="D20" s="1">
         <v>0.8</v>
       </c>
       <c r="E20" s="1" t="s">
-        <v>340</v>
+        <v>322</v>
       </c>
       <c r="F20" s="1">
         <v>30</v>
       </c>
       <c r="G20" s="1" t="s">
-        <v>392</v>
+        <v>364</v>
       </c>
       <c r="H20" s="1" t="s">
-        <v>363</v>
+        <v>551</v>
       </c>
       <c r="I20" s="1"/>
     </row>
@@ -14992,22 +14869,22 @@
         <v>19</v>
       </c>
       <c r="C21" s="1" t="s">
-        <v>355</v>
+        <v>337</v>
       </c>
       <c r="D21" s="1">
         <v>1.8</v>
       </c>
       <c r="E21" s="1" t="s">
-        <v>338</v>
+        <v>320</v>
       </c>
       <c r="F21" s="1">
         <v>60</v>
       </c>
       <c r="G21" s="1" t="s">
-        <v>394</v>
+        <v>366</v>
       </c>
       <c r="H21" s="1" t="s">
-        <v>360</v>
+        <v>572</v>
       </c>
       <c r="I21" s="1"/>
     </row>
@@ -15016,22 +14893,22 @@
         <v>20</v>
       </c>
       <c r="C22" s="1" t="s">
-        <v>356</v>
+        <v>338</v>
       </c>
       <c r="D22" s="1">
         <v>1.8</v>
       </c>
       <c r="E22" s="1" t="s">
-        <v>338</v>
+        <v>320</v>
       </c>
       <c r="F22" s="1">
         <v>60</v>
       </c>
       <c r="G22" s="1" t="s">
-        <v>394</v>
+        <v>366</v>
       </c>
       <c r="H22" s="1" t="s">
-        <v>360</v>
+        <v>572</v>
       </c>
       <c r="I22" s="1"/>
     </row>
@@ -15040,22 +14917,22 @@
         <v>21</v>
       </c>
       <c r="C23" s="1" t="s">
-        <v>357</v>
+        <v>339</v>
       </c>
       <c r="D23" s="1">
         <v>1.8</v>
       </c>
       <c r="E23" s="1" t="s">
-        <v>338</v>
+        <v>320</v>
       </c>
       <c r="F23" s="1">
         <v>60</v>
       </c>
       <c r="G23" s="1" t="s">
-        <v>394</v>
+        <v>366</v>
       </c>
       <c r="H23" s="1" t="s">
-        <v>360</v>
+        <v>572</v>
       </c>
       <c r="I23" s="1"/>
     </row>
@@ -15064,22 +14941,22 @@
         <v>22</v>
       </c>
       <c r="C24" s="1" t="s">
-        <v>453</v>
+        <v>422</v>
       </c>
       <c r="D24" s="1">
         <v>1.4</v>
       </c>
       <c r="E24" s="1" t="s">
-        <v>432</v>
+        <v>403</v>
       </c>
       <c r="F24" s="1">
         <v>77</v>
       </c>
       <c r="G24" s="1" t="s">
-        <v>433</v>
+        <v>404</v>
       </c>
       <c r="H24" s="1" t="s">
-        <v>454</v>
+        <v>572</v>
       </c>
       <c r="I24" s="1"/>
     </row>
@@ -15088,25 +14965,25 @@
         <v>23</v>
       </c>
       <c r="C25" s="1" t="s">
-        <v>366</v>
+        <v>342</v>
       </c>
       <c r="D25" s="1">
         <v>0.1</v>
       </c>
       <c r="E25" s="1" t="s">
-        <v>338</v>
+        <v>320</v>
       </c>
       <c r="F25" s="1">
         <v>0</v>
       </c>
       <c r="G25" s="1" t="s">
-        <v>391</v>
+        <v>363</v>
       </c>
       <c r="H25" s="1" t="s">
-        <v>363</v>
+        <v>551</v>
       </c>
       <c r="I25" s="1" t="s">
-        <v>367</v>
+        <v>552</v>
       </c>
     </row>
     <row r="26" spans="2:9" x14ac:dyDescent="0.4">
@@ -15114,22 +14991,22 @@
         <v>24</v>
       </c>
       <c r="C26" s="1" t="s">
-        <v>368</v>
+        <v>343</v>
       </c>
       <c r="D26" s="1">
         <v>1.1000000000000001</v>
       </c>
       <c r="E26" s="1" t="s">
-        <v>340</v>
+        <v>322</v>
       </c>
       <c r="F26" s="1">
         <v>30</v>
       </c>
       <c r="G26" s="1" t="s">
-        <v>392</v>
+        <v>364</v>
       </c>
       <c r="H26" s="1" t="s">
-        <v>369</v>
+        <v>551</v>
       </c>
       <c r="I26" s="1"/>
     </row>
@@ -15138,21 +15015,21 @@
         <v>25</v>
       </c>
       <c r="C27" s="1" t="s">
-        <v>370</v>
+        <v>344</v>
       </c>
       <c r="D27" s="1"/>
       <c r="E27" s="1" t="s">
-        <v>338</v>
+        <v>320</v>
       </c>
       <c r="F27" s="1">
         <v>40</v>
       </c>
       <c r="G27" s="1" t="s">
-        <v>392</v>
+        <v>364</v>
       </c>
       <c r="H27" s="1"/>
       <c r="I27" s="1" t="s">
-        <v>371</v>
+        <v>345</v>
       </c>
     </row>
     <row r="28" spans="2:9" x14ac:dyDescent="0.4">
@@ -15160,22 +15037,22 @@
         <v>26</v>
       </c>
       <c r="C28" s="1" t="s">
-        <v>372</v>
+        <v>346</v>
       </c>
       <c r="D28" s="1">
         <v>1.2</v>
       </c>
       <c r="E28" s="1" t="s">
-        <v>338</v>
+        <v>320</v>
       </c>
       <c r="F28" s="1">
         <v>15</v>
       </c>
       <c r="G28" s="1" t="s">
-        <v>393</v>
+        <v>365</v>
       </c>
       <c r="H28" s="1" t="s">
-        <v>359</v>
+        <v>551</v>
       </c>
       <c r="I28" s="1"/>
     </row>
@@ -15184,22 +15061,22 @@
         <v>27</v>
       </c>
       <c r="C29" s="1" t="s">
-        <v>373</v>
+        <v>347</v>
       </c>
       <c r="D29" s="1">
         <v>1.3</v>
       </c>
       <c r="E29" s="1" t="s">
-        <v>338</v>
+        <v>320</v>
       </c>
       <c r="F29" s="1">
         <v>25</v>
       </c>
       <c r="G29" s="1" t="s">
-        <v>392</v>
+        <v>364</v>
       </c>
       <c r="H29" s="1" t="s">
-        <v>359</v>
+        <v>551</v>
       </c>
       <c r="I29" s="1"/>
     </row>
@@ -15208,22 +15085,22 @@
         <v>28</v>
       </c>
       <c r="C30" s="1" t="s">
-        <v>431</v>
+        <v>402</v>
       </c>
       <c r="D30" s="1">
         <v>1.2</v>
       </c>
       <c r="E30" s="1" t="s">
-        <v>432</v>
+        <v>403</v>
       </c>
       <c r="F30" s="1">
         <v>55</v>
       </c>
       <c r="G30" s="1" t="s">
-        <v>433</v>
+        <v>404</v>
       </c>
       <c r="H30" s="1" t="s">
-        <v>434</v>
+        <v>572</v>
       </c>
       <c r="I30" s="1"/>
     </row>
@@ -15232,25 +15109,25 @@
         <v>29</v>
       </c>
       <c r="C31" s="1" t="s">
-        <v>375</v>
+        <v>349</v>
       </c>
       <c r="D31" s="1">
         <v>0.5</v>
       </c>
       <c r="E31" s="1" t="s">
-        <v>340</v>
+        <v>322</v>
       </c>
       <c r="F31" s="1">
         <v>35</v>
       </c>
       <c r="G31" s="1" t="s">
-        <v>391</v>
+        <v>363</v>
       </c>
       <c r="H31" s="1" t="s">
-        <v>359</v>
+        <v>551</v>
       </c>
       <c r="I31" s="1" t="s">
-        <v>374</v>
+        <v>348</v>
       </c>
     </row>
     <row r="32" spans="2:9" x14ac:dyDescent="0.4">
@@ -15258,22 +15135,22 @@
         <v>30</v>
       </c>
       <c r="C32" s="1" t="s">
-        <v>376</v>
+        <v>350</v>
       </c>
       <c r="D32" s="1">
         <v>0.8</v>
       </c>
       <c r="E32" s="1" t="s">
-        <v>340</v>
+        <v>322</v>
       </c>
       <c r="F32" s="1">
         <v>35</v>
       </c>
       <c r="G32" s="1" t="s">
-        <v>393</v>
+        <v>365</v>
       </c>
       <c r="H32" s="1" t="s">
-        <v>359</v>
+        <v>551</v>
       </c>
       <c r="I32" s="1"/>
     </row>
@@ -15282,22 +15159,22 @@
         <v>31</v>
       </c>
       <c r="C33" s="1" t="s">
-        <v>415</v>
+        <v>386</v>
       </c>
       <c r="D33" s="1">
         <v>0.7</v>
       </c>
       <c r="E33" s="1" t="s">
-        <v>340</v>
+        <v>322</v>
       </c>
       <c r="F33" s="1">
         <v>35</v>
       </c>
       <c r="G33" s="1" t="s">
-        <v>393</v>
+        <v>365</v>
       </c>
       <c r="H33" s="1" t="s">
-        <v>359</v>
+        <v>551</v>
       </c>
       <c r="I33" s="1"/>
     </row>
@@ -15306,22 +15183,22 @@
         <v>32</v>
       </c>
       <c r="C34" s="1" t="s">
-        <v>377</v>
+        <v>351</v>
       </c>
       <c r="D34" s="1">
         <v>0.9</v>
       </c>
       <c r="E34" s="1" t="s">
-        <v>340</v>
+        <v>322</v>
       </c>
       <c r="F34" s="1">
         <v>35</v>
       </c>
       <c r="G34" s="1" t="s">
-        <v>393</v>
+        <v>365</v>
       </c>
       <c r="H34" s="1" t="s">
-        <v>359</v>
+        <v>551</v>
       </c>
       <c r="I34" s="1"/>
     </row>
@@ -15330,25 +15207,25 @@
         <v>33</v>
       </c>
       <c r="C35" s="1" t="s">
-        <v>448</v>
+        <v>417</v>
       </c>
       <c r="D35" s="1">
         <v>0.7</v>
       </c>
       <c r="E35" s="1" t="s">
-        <v>432</v>
+        <v>403</v>
       </c>
       <c r="F35" s="1">
         <v>35</v>
       </c>
       <c r="G35" s="1" t="s">
-        <v>449</v>
+        <v>418</v>
       </c>
       <c r="H35" s="1" t="s">
-        <v>440</v>
+        <v>551</v>
       </c>
       <c r="I35" s="1" t="s">
-        <v>450</v>
+        <v>419</v>
       </c>
     </row>
     <row r="36" spans="2:9" x14ac:dyDescent="0.4">
@@ -15356,22 +15233,22 @@
         <v>34</v>
       </c>
       <c r="C36" s="1" t="s">
-        <v>438</v>
+        <v>408</v>
       </c>
       <c r="D36" s="1">
         <v>1.2</v>
       </c>
       <c r="E36" s="1" t="s">
-        <v>432</v>
+        <v>403</v>
       </c>
       <c r="F36" s="1">
         <v>24</v>
       </c>
       <c r="G36" s="1" t="s">
-        <v>439</v>
+        <v>409</v>
       </c>
       <c r="H36" s="1" t="s">
-        <v>440</v>
+        <v>551</v>
       </c>
       <c r="I36" s="1"/>
     </row>
@@ -15380,22 +15257,22 @@
         <v>35</v>
       </c>
       <c r="C37" s="1" t="s">
-        <v>364</v>
+        <v>341</v>
       </c>
       <c r="D37" s="1">
         <v>1.5</v>
       </c>
       <c r="E37" s="1" t="s">
-        <v>340</v>
+        <v>322</v>
       </c>
       <c r="F37" s="1">
         <v>99</v>
       </c>
       <c r="G37" s="1" t="s">
-        <v>394</v>
+        <v>366</v>
       </c>
       <c r="H37" s="1" t="s">
-        <v>365</v>
+        <v>572</v>
       </c>
       <c r="I37" s="1"/>
     </row>
@@ -15404,22 +15281,22 @@
         <v>36</v>
       </c>
       <c r="C38" s="1" t="s">
-        <v>382</v>
+        <v>356</v>
       </c>
       <c r="D38" s="1">
         <v>1.21</v>
       </c>
       <c r="E38" s="1" t="s">
-        <v>338</v>
+        <v>320</v>
       </c>
       <c r="F38" s="1">
         <v>50</v>
       </c>
       <c r="G38" s="1" t="s">
-        <v>394</v>
+        <v>366</v>
       </c>
       <c r="H38" s="1" t="s">
-        <v>365</v>
+        <v>572</v>
       </c>
       <c r="I38" s="1"/>
     </row>
@@ -15428,22 +15305,22 @@
         <v>37</v>
       </c>
       <c r="C39" s="1" t="s">
-        <v>383</v>
+        <v>357</v>
       </c>
       <c r="D39" s="1">
         <v>1.05</v>
       </c>
       <c r="E39" s="1" t="s">
-        <v>340</v>
+        <v>322</v>
       </c>
       <c r="F39" s="1">
         <v>30</v>
       </c>
       <c r="G39" s="1" t="s">
-        <v>392</v>
+        <v>364</v>
       </c>
       <c r="H39" s="1" t="s">
-        <v>384</v>
+        <v>572</v>
       </c>
       <c r="I39" s="1"/>
     </row>
@@ -15452,22 +15329,22 @@
         <v>38</v>
       </c>
       <c r="C40" s="1" t="s">
-        <v>460</v>
+        <v>428</v>
       </c>
       <c r="D40" s="1">
         <v>0.7</v>
       </c>
       <c r="E40" s="1" t="s">
-        <v>338</v>
+        <v>320</v>
       </c>
       <c r="F40" s="1">
         <v>35</v>
       </c>
       <c r="G40" s="1" t="s">
-        <v>393</v>
+        <v>365</v>
       </c>
       <c r="H40" s="1" t="s">
-        <v>359</v>
+        <v>551</v>
       </c>
       <c r="I40" s="1"/>
     </row>
@@ -15476,22 +15353,22 @@
         <v>39</v>
       </c>
       <c r="C41" s="1" t="s">
-        <v>386</v>
+        <v>359</v>
       </c>
       <c r="D41" s="1">
         <v>0.6</v>
       </c>
       <c r="E41" s="1" t="s">
-        <v>340</v>
+        <v>322</v>
       </c>
       <c r="F41" s="1">
         <v>45</v>
       </c>
       <c r="G41" s="1" t="s">
-        <v>393</v>
+        <v>365</v>
       </c>
       <c r="H41" s="1" t="s">
-        <v>387</v>
+        <v>551</v>
       </c>
       <c r="I41" s="1"/>
     </row>
@@ -15500,21 +15377,21 @@
         <v>40</v>
       </c>
       <c r="C42" s="1" t="s">
-        <v>388</v>
+        <v>360</v>
       </c>
       <c r="D42" s="1"/>
       <c r="E42" s="1" t="s">
-        <v>338</v>
+        <v>320</v>
       </c>
       <c r="F42" s="1">
         <v>30</v>
       </c>
       <c r="G42" s="1" t="s">
-        <v>393</v>
+        <v>365</v>
       </c>
       <c r="H42" s="1"/>
       <c r="I42" s="1" t="s">
-        <v>389</v>
+        <v>361</v>
       </c>
     </row>
     <row r="43" spans="2:9" ht="20.45" customHeight="1" x14ac:dyDescent="0.4">
@@ -15522,25 +15399,25 @@
         <v>41</v>
       </c>
       <c r="C43" s="1" t="s">
-        <v>469</v>
+        <v>437</v>
       </c>
       <c r="D43" s="1">
         <v>0.4</v>
       </c>
       <c r="E43" s="1" t="s">
-        <v>470</v>
+        <v>438</v>
       </c>
       <c r="F43" s="1">
         <v>45</v>
       </c>
       <c r="G43" s="1" t="s">
-        <v>471</v>
+        <v>439</v>
       </c>
       <c r="H43" s="1" t="s">
-        <v>472</v>
+        <v>551</v>
       </c>
       <c r="I43" s="1" t="s">
-        <v>473</v>
+        <v>440</v>
       </c>
     </row>
     <row r="44" spans="2:9" x14ac:dyDescent="0.4">
@@ -15548,22 +15425,22 @@
         <v>42</v>
       </c>
       <c r="C44" s="1" t="s">
-        <v>474</v>
+        <v>441</v>
       </c>
       <c r="D44" s="1">
         <v>1.2</v>
       </c>
       <c r="E44" s="1" t="s">
-        <v>340</v>
+        <v>322</v>
       </c>
       <c r="F44" s="1">
         <v>18</v>
       </c>
       <c r="G44" s="1" t="s">
-        <v>393</v>
+        <v>365</v>
       </c>
       <c r="H44" s="1" t="s">
-        <v>384</v>
+        <v>572</v>
       </c>
       <c r="I44" s="1"/>
     </row>
@@ -15572,21 +15449,21 @@
         <v>43</v>
       </c>
       <c r="C45" s="1" t="s">
-        <v>396</v>
+        <v>367</v>
       </c>
       <c r="D45" s="1"/>
       <c r="E45" s="1" t="s">
-        <v>338</v>
+        <v>320</v>
       </c>
       <c r="F45" s="1">
         <v>40</v>
       </c>
       <c r="G45" s="1" t="s">
-        <v>392</v>
+        <v>364</v>
       </c>
       <c r="H45" s="1"/>
       <c r="I45" s="1" t="s">
-        <v>397</v>
+        <v>368</v>
       </c>
     </row>
     <row r="46" spans="2:9" x14ac:dyDescent="0.4">
@@ -15594,25 +15471,25 @@
         <v>44</v>
       </c>
       <c r="C46" s="1" t="s">
-        <v>489</v>
+        <v>455</v>
       </c>
       <c r="D46" s="1">
         <v>1.2</v>
       </c>
       <c r="E46" s="1" t="s">
-        <v>470</v>
+        <v>438</v>
       </c>
       <c r="F46" s="1">
         <v>65</v>
       </c>
       <c r="G46" s="1" t="s">
-        <v>433</v>
+        <v>404</v>
       </c>
       <c r="H46" s="1" t="s">
-        <v>490</v>
+        <v>572</v>
       </c>
       <c r="I46" s="1" t="s">
-        <v>491</v>
+        <v>456</v>
       </c>
     </row>
     <row r="47" spans="2:9" x14ac:dyDescent="0.4">
@@ -15620,22 +15497,22 @@
         <v>45</v>
       </c>
       <c r="C47" s="1" t="s">
-        <v>492</v>
+        <v>457</v>
       </c>
       <c r="D47" s="1">
         <v>1.4</v>
       </c>
       <c r="E47" s="1" t="s">
-        <v>432</v>
+        <v>403</v>
       </c>
       <c r="F47" s="1">
         <v>55</v>
       </c>
       <c r="G47" s="1" t="s">
-        <v>433</v>
+        <v>404</v>
       </c>
       <c r="H47" s="1" t="s">
-        <v>434</v>
+        <v>572</v>
       </c>
       <c r="I47" s="1"/>
     </row>
@@ -15644,25 +15521,25 @@
         <v>46</v>
       </c>
       <c r="C48" s="1" t="s">
-        <v>493</v>
+        <v>458</v>
       </c>
       <c r="D48" s="1">
         <v>0.1</v>
       </c>
       <c r="E48" s="1" t="s">
-        <v>470</v>
+        <v>438</v>
       </c>
       <c r="F48" s="1">
         <v>45</v>
       </c>
       <c r="G48" s="1" t="s">
-        <v>471</v>
+        <v>439</v>
       </c>
       <c r="H48" s="1" t="s">
-        <v>434</v>
+        <v>572</v>
       </c>
       <c r="I48" s="1" t="s">
-        <v>494</v>
+        <v>459</v>
       </c>
     </row>
     <row r="49" spans="2:9" x14ac:dyDescent="0.4">
@@ -15670,22 +15547,22 @@
         <v>47</v>
       </c>
       <c r="C49" s="1" t="s">
-        <v>488</v>
+        <v>454</v>
       </c>
       <c r="D49" s="1">
         <v>1.5</v>
       </c>
       <c r="E49" s="1" t="s">
-        <v>340</v>
+        <v>322</v>
       </c>
       <c r="F49" s="1">
         <v>75</v>
       </c>
       <c r="G49" s="1" t="s">
-        <v>394</v>
+        <v>366</v>
       </c>
       <c r="H49" s="1" t="s">
-        <v>395</v>
+        <v>551</v>
       </c>
       <c r="I49" s="1"/>
     </row>
@@ -15694,25 +15571,25 @@
         <v>48</v>
       </c>
       <c r="C50" s="1" t="s">
-        <v>475</v>
+        <v>442</v>
       </c>
       <c r="D50" s="1">
         <v>2</v>
       </c>
       <c r="E50" s="1" t="s">
-        <v>470</v>
+        <v>438</v>
       </c>
       <c r="F50" s="1">
         <v>0</v>
       </c>
       <c r="G50" s="1" t="s">
-        <v>433</v>
+        <v>404</v>
       </c>
       <c r="H50" s="1" t="s">
-        <v>476</v>
+        <v>551</v>
       </c>
       <c r="I50" s="1" t="s">
-        <v>477</v>
+        <v>443</v>
       </c>
     </row>
     <row r="51" spans="2:9" x14ac:dyDescent="0.4">
@@ -15720,25 +15597,25 @@
         <v>49</v>
       </c>
       <c r="C51" s="1" t="s">
-        <v>496</v>
+        <v>461</v>
       </c>
       <c r="D51" s="1">
         <v>0.6</v>
       </c>
       <c r="E51" s="1" t="s">
-        <v>470</v>
+        <v>438</v>
       </c>
       <c r="F51" s="1">
         <v>0</v>
       </c>
       <c r="G51" s="1" t="s">
-        <v>433</v>
+        <v>404</v>
       </c>
       <c r="H51" s="1" t="s">
-        <v>440</v>
+        <v>551</v>
       </c>
       <c r="I51" s="1" t="s">
-        <v>497</v>
+        <v>553</v>
       </c>
     </row>
     <row r="52" spans="2:9" x14ac:dyDescent="0.4">
@@ -15746,23 +15623,23 @@
         <v>50</v>
       </c>
       <c r="C52" s="1" t="s">
-        <v>498</v>
+        <v>462</v>
       </c>
       <c r="D52" s="1">
         <v>0</v>
       </c>
       <c r="E52" s="1" t="s">
-        <v>432</v>
+        <v>403</v>
       </c>
       <c r="F52" s="1">
         <v>0</v>
       </c>
       <c r="G52" s="1" t="s">
-        <v>433</v>
+        <v>404</v>
       </c>
       <c r="H52" s="1"/>
       <c r="I52" s="1" t="s">
-        <v>499</v>
+        <v>463</v>
       </c>
     </row>
     <row r="53" spans="2:9" x14ac:dyDescent="0.4">
@@ -15770,25 +15647,25 @@
         <v>51</v>
       </c>
       <c r="C53" s="1" t="s">
-        <v>500</v>
+        <v>464</v>
       </c>
       <c r="D53" s="1">
         <v>2</v>
       </c>
       <c r="E53" s="1" t="s">
-        <v>470</v>
+        <v>438</v>
       </c>
       <c r="F53" s="1">
         <v>0</v>
       </c>
       <c r="G53" s="1" t="s">
-        <v>433</v>
+        <v>404</v>
       </c>
       <c r="H53" s="1" t="s">
-        <v>472</v>
+        <v>551</v>
       </c>
       <c r="I53" s="1" t="s">
-        <v>501</v>
+        <v>465</v>
       </c>
     </row>
     <row r="54" spans="2:9" x14ac:dyDescent="0.4">
@@ -15796,25 +15673,25 @@
         <v>52</v>
       </c>
       <c r="C54" s="1" t="s">
-        <v>502</v>
+        <v>466</v>
       </c>
       <c r="D54" s="1">
         <v>1</v>
       </c>
       <c r="E54" s="1" t="s">
-        <v>432</v>
+        <v>403</v>
       </c>
       <c r="F54" s="1">
         <v>0</v>
       </c>
       <c r="G54" s="1" t="s">
-        <v>433</v>
+        <v>404</v>
       </c>
       <c r="H54" s="1" t="s">
-        <v>440</v>
+        <v>551</v>
       </c>
       <c r="I54" s="1" t="s">
-        <v>503</v>
+        <v>467</v>
       </c>
     </row>
     <row r="55" spans="2:9" x14ac:dyDescent="0.4">
@@ -15822,25 +15699,25 @@
         <v>53</v>
       </c>
       <c r="C55" s="1" t="s">
-        <v>505</v>
+        <v>469</v>
       </c>
       <c r="D55" s="1">
         <v>0</v>
       </c>
       <c r="E55" s="1" t="s">
-        <v>470</v>
+        <v>438</v>
       </c>
       <c r="F55" s="1">
         <v>0</v>
       </c>
       <c r="G55" s="1" t="s">
-        <v>433</v>
+        <v>404</v>
       </c>
       <c r="H55" s="1" t="s">
-        <v>472</v>
+        <v>551</v>
       </c>
       <c r="I55" s="1" t="s">
-        <v>571</v>
+        <v>515</v>
       </c>
     </row>
     <row r="56" spans="2:9" x14ac:dyDescent="0.4">
@@ -15848,23 +15725,23 @@
         <v>54</v>
       </c>
       <c r="C56" s="1" t="s">
-        <v>506</v>
+        <v>470</v>
       </c>
       <c r="D56" s="1">
         <v>0</v>
       </c>
       <c r="E56" s="1" t="s">
-        <v>470</v>
+        <v>438</v>
       </c>
       <c r="F56" s="1">
         <v>0</v>
       </c>
       <c r="G56" s="1" t="s">
-        <v>433</v>
+        <v>404</v>
       </c>
       <c r="H56" s="1"/>
       <c r="I56" s="1" t="s">
-        <v>509</v>
+        <v>473</v>
       </c>
     </row>
     <row r="57" spans="2:9" x14ac:dyDescent="0.4">
@@ -15872,25 +15749,25 @@
         <v>55</v>
       </c>
       <c r="C57" s="1" t="s">
-        <v>507</v>
+        <v>471</v>
       </c>
       <c r="D57" s="1">
         <v>0.8</v>
       </c>
       <c r="E57" s="1" t="s">
-        <v>470</v>
+        <v>438</v>
       </c>
       <c r="F57" s="1">
         <v>0</v>
       </c>
       <c r="G57" s="1" t="s">
-        <v>433</v>
+        <v>404</v>
       </c>
       <c r="H57" s="1" t="s">
-        <v>440</v>
+        <v>551</v>
       </c>
       <c r="I57" s="1" t="s">
-        <v>508</v>
+        <v>472</v>
       </c>
     </row>
   </sheetData>
@@ -15924,58 +15801,58 @@
   <sheetData>
     <row r="1" spans="1:18" x14ac:dyDescent="0.4">
       <c r="A1" s="15" t="s">
-        <v>331</v>
+        <v>313</v>
       </c>
       <c r="B1" s="16" t="s">
+        <v>150</v>
+      </c>
+      <c r="C1" s="16" t="s">
+        <v>151</v>
+      </c>
+      <c r="D1" s="16" t="s">
+        <v>152</v>
+      </c>
+      <c r="E1" s="16" t="s">
+        <v>551</v>
+      </c>
+      <c r="F1" s="16" t="s">
+        <v>559</v>
+      </c>
+      <c r="G1" s="16" t="s">
+        <v>565</v>
+      </c>
+      <c r="H1" s="16" t="s">
+        <v>572</v>
+      </c>
+      <c r="I1" s="16" t="s">
+        <v>578</v>
+      </c>
+      <c r="J1" s="16" t="s">
+        <v>4</v>
+      </c>
+      <c r="K1" s="39" t="s">
+        <v>165</v>
+      </c>
+      <c r="L1" s="39" t="s">
         <v>154</v>
       </c>
-      <c r="C1" s="16" t="s">
-        <v>155</v>
-      </c>
-      <c r="D1" s="16" t="s">
-        <v>156</v>
-      </c>
-      <c r="E1" s="16" t="s">
-        <v>157</v>
-      </c>
-      <c r="F1" s="16" t="s">
-        <v>215</v>
-      </c>
-      <c r="G1" s="16" t="s">
-        <v>5</v>
-      </c>
-      <c r="H1" s="16" t="s">
-        <v>6</v>
-      </c>
-      <c r="I1" s="16" t="s">
-        <v>216</v>
-      </c>
-      <c r="J1" s="16" t="s">
-        <v>7</v>
-      </c>
-      <c r="K1" s="39" t="s">
-        <v>170</v>
-      </c>
-      <c r="L1" s="39" t="s">
-        <v>159</v>
-      </c>
       <c r="M1" s="39" t="s">
+        <v>179</v>
+      </c>
+      <c r="N1" s="39" t="s">
+        <v>183</v>
+      </c>
+      <c r="O1" s="39" t="s">
         <v>184</v>
       </c>
-      <c r="N1" s="39" t="s">
-        <v>188</v>
-      </c>
-      <c r="O1" s="39" t="s">
-        <v>189</v>
-      </c>
       <c r="P1" s="39" t="s">
-        <v>190</v>
+        <v>185</v>
       </c>
       <c r="Q1" s="39" t="s">
-        <v>191</v>
+        <v>186</v>
       </c>
       <c r="R1" s="40" t="s">
-        <v>244</v>
+        <v>227</v>
       </c>
     </row>
     <row r="2" spans="1:18" x14ac:dyDescent="0.4">
@@ -15983,7 +15860,7 @@
         <v>1</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>158</v>
+        <v>153</v>
       </c>
       <c r="C2" s="1">
         <v>150</v>
@@ -16010,19 +15887,19 @@
         <v>0</v>
       </c>
       <c r="K2" s="1" t="s">
-        <v>160</v>
+        <v>155</v>
       </c>
       <c r="L2" s="1" t="s">
-        <v>160</v>
+        <v>155</v>
       </c>
       <c r="M2" s="1" t="s">
-        <v>181</v>
+        <v>176</v>
       </c>
       <c r="N2" s="1" t="s">
-        <v>398</v>
+        <v>369</v>
       </c>
       <c r="O2" s="1" t="s">
-        <v>399</v>
+        <v>370</v>
       </c>
       <c r="P2" s="1"/>
       <c r="Q2" s="1"/>
@@ -16033,7 +15910,7 @@
         <v>2</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>167</v>
+        <v>162</v>
       </c>
       <c r="C3" s="1">
         <v>220</v>
@@ -16060,14 +15937,14 @@
         <v>0</v>
       </c>
       <c r="K3" s="1" t="s">
-        <v>160</v>
+        <v>155</v>
       </c>
       <c r="L3" s="1" t="s">
-        <v>160</v>
+        <v>155</v>
       </c>
       <c r="M3" s="1"/>
       <c r="N3" s="1" t="s">
-        <v>398</v>
+        <v>369</v>
       </c>
       <c r="O3" s="1"/>
       <c r="P3" s="1"/>
@@ -16079,7 +15956,7 @@
         <v>3</v>
       </c>
       <c r="B4" s="4" t="s">
-        <v>185</v>
+        <v>180</v>
       </c>
       <c r="C4" s="1">
         <v>120</v>
@@ -16106,16 +15983,16 @@
         <v>0</v>
       </c>
       <c r="K4" s="1" t="s">
-        <v>29</v>
+        <v>25</v>
       </c>
       <c r="L4" s="1" t="s">
-        <v>29</v>
+        <v>25</v>
       </c>
       <c r="M4" s="1" t="s">
-        <v>194</v>
+        <v>189</v>
       </c>
       <c r="N4" s="1" t="s">
-        <v>398</v>
+        <v>369</v>
       </c>
       <c r="O4" s="1"/>
       <c r="P4" s="1"/>
@@ -16127,7 +16004,7 @@
         <v>4</v>
       </c>
       <c r="B5" s="4" t="s">
-        <v>186</v>
+        <v>181</v>
       </c>
       <c r="C5" s="1">
         <v>150</v>
@@ -16154,16 +16031,16 @@
         <v>0</v>
       </c>
       <c r="K5" s="1" t="s">
-        <v>29</v>
+        <v>25</v>
       </c>
       <c r="L5" s="1" t="s">
-        <v>29</v>
+        <v>25</v>
       </c>
       <c r="M5" s="1" t="s">
-        <v>193</v>
+        <v>188</v>
       </c>
       <c r="N5" s="1" t="s">
-        <v>398</v>
+        <v>369</v>
       </c>
       <c r="O5" s="1"/>
       <c r="P5" s="1"/>
@@ -16175,7 +16052,7 @@
         <v>5</v>
       </c>
       <c r="B6" s="4" t="s">
-        <v>187</v>
+        <v>182</v>
       </c>
       <c r="C6" s="1">
         <v>130</v>
@@ -16202,16 +16079,16 @@
         <v>0</v>
       </c>
       <c r="K6" s="1" t="s">
-        <v>29</v>
+        <v>25</v>
       </c>
       <c r="L6" s="1" t="s">
-        <v>29</v>
+        <v>25</v>
       </c>
       <c r="M6" s="1" t="s">
-        <v>181</v>
+        <v>176</v>
       </c>
       <c r="N6" s="1" t="s">
-        <v>398</v>
+        <v>369</v>
       </c>
       <c r="O6" s="1"/>
       <c r="P6" s="1"/>
@@ -16223,7 +16100,7 @@
         <v>6</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>168</v>
+        <v>163</v>
       </c>
       <c r="C7" s="1">
         <v>180</v>
@@ -16250,13 +16127,13 @@
         <v>0</v>
       </c>
       <c r="K7" s="1" t="s">
-        <v>160</v>
+        <v>155</v>
       </c>
       <c r="L7" s="1" t="s">
-        <v>160</v>
+        <v>155</v>
       </c>
       <c r="M7" s="1" t="s">
-        <v>181</v>
+        <v>176</v>
       </c>
       <c r="N7" s="1" t="str">
         <f>IF(E7&gt;H7,"通常攻撃(物理)","通常攻撃(魔法)")</f>
@@ -16272,7 +16149,7 @@
         <v>7</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>292</v>
+        <v>274</v>
       </c>
       <c r="C8" s="1">
         <v>1200</v>
@@ -16299,10 +16176,10 @@
         <v>15</v>
       </c>
       <c r="K8" s="1" t="s">
-        <v>160</v>
+        <v>155</v>
       </c>
       <c r="L8" s="1" t="s">
-        <v>160</v>
+        <v>155</v>
       </c>
       <c r="M8" s="1"/>
       <c r="N8" s="1" t="str">
@@ -16310,14 +16187,14 @@
         <v>通常攻撃(物理)</v>
       </c>
       <c r="O8" s="1" t="s">
-        <v>400</v>
+        <v>371</v>
       </c>
       <c r="P8" s="1" t="s">
-        <v>401</v>
+        <v>372</v>
       </c>
       <c r="Q8" s="1"/>
       <c r="R8" s="19" t="s">
-        <v>245</v>
+        <v>228</v>
       </c>
     </row>
     <row r="9" spans="1:18" x14ac:dyDescent="0.4">
@@ -16325,7 +16202,7 @@
         <v>8</v>
       </c>
       <c r="B9" s="4" t="s">
-        <v>287</v>
+        <v>269</v>
       </c>
       <c r="C9" s="1">
         <v>750</v>
@@ -16352,25 +16229,25 @@
         <v>60</v>
       </c>
       <c r="K9" s="1" t="s">
-        <v>182</v>
+        <v>177</v>
       </c>
       <c r="L9" s="1" t="s">
-        <v>182</v>
+        <v>177</v>
       </c>
       <c r="M9" s="1" t="s">
-        <v>194</v>
+        <v>189</v>
       </c>
       <c r="N9" s="1" t="str">
         <f t="shared" si="0"/>
         <v>通常攻撃(魔法)</v>
       </c>
       <c r="O9" s="1" t="s">
-        <v>398</v>
+        <v>369</v>
       </c>
       <c r="P9" s="1"/>
       <c r="Q9" s="1"/>
       <c r="R9" s="19" t="s">
-        <v>245</v>
+        <v>228</v>
       </c>
     </row>
     <row r="10" spans="1:18" x14ac:dyDescent="0.4">
@@ -16378,7 +16255,7 @@
         <v>9</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>196</v>
+        <v>191</v>
       </c>
       <c r="C10" s="1">
         <v>280</v>
@@ -16405,20 +16282,20 @@
         <v>999</v>
       </c>
       <c r="K10" s="1" t="s">
-        <v>29</v>
+        <v>25</v>
       </c>
       <c r="L10" s="1" t="s">
-        <v>29</v>
+        <v>25</v>
       </c>
       <c r="M10" s="1" t="s">
-        <v>200</v>
+        <v>195</v>
       </c>
       <c r="N10" s="1" t="str">
         <f t="shared" si="0"/>
         <v>通常攻撃(物理)</v>
       </c>
       <c r="O10" s="1" t="s">
-        <v>402</v>
+        <v>373</v>
       </c>
       <c r="P10" s="1"/>
       <c r="Q10" s="1"/>
@@ -16429,7 +16306,7 @@
         <v>10</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>197</v>
+        <v>192</v>
       </c>
       <c r="C11" s="1">
         <v>320</v>
@@ -16456,20 +16333,20 @@
         <v>999</v>
       </c>
       <c r="K11" s="1" t="s">
-        <v>29</v>
+        <v>25</v>
       </c>
       <c r="L11" s="1" t="s">
-        <v>29</v>
+        <v>25</v>
       </c>
       <c r="M11" s="1" t="s">
-        <v>201</v>
+        <v>196</v>
       </c>
       <c r="N11" s="1" t="str">
         <f t="shared" si="0"/>
         <v>通常攻撃(物理)</v>
       </c>
       <c r="O11" s="1" t="s">
-        <v>402</v>
+        <v>373</v>
       </c>
       <c r="P11" s="1"/>
       <c r="Q11" s="1"/>
@@ -16480,7 +16357,7 @@
         <v>11</v>
       </c>
       <c r="B12" s="10" t="s">
-        <v>198</v>
+        <v>193</v>
       </c>
       <c r="C12" s="10">
         <v>300</v>
@@ -16507,20 +16384,20 @@
         <v>999</v>
       </c>
       <c r="K12" s="1" t="s">
-        <v>29</v>
+        <v>25</v>
       </c>
       <c r="L12" s="1" t="s">
-        <v>29</v>
+        <v>25</v>
       </c>
       <c r="M12" s="10" t="s">
-        <v>199</v>
+        <v>194</v>
       </c>
       <c r="N12" s="1" t="str">
         <f t="shared" si="0"/>
         <v>通常攻撃(物理)</v>
       </c>
       <c r="O12" s="10" t="s">
-        <v>403</v>
+        <v>374</v>
       </c>
       <c r="P12" s="10"/>
       <c r="Q12" s="10"/>
@@ -16531,7 +16408,7 @@
         <v>12</v>
       </c>
       <c r="B13" s="1" t="s">
-        <v>286</v>
+        <v>268</v>
       </c>
       <c r="C13" s="1">
         <v>3200</v>
@@ -16558,10 +16435,10 @@
         <v>9999</v>
       </c>
       <c r="K13" s="1" t="s">
-        <v>29</v>
+        <v>25</v>
       </c>
       <c r="L13" s="1" t="s">
-        <v>29</v>
+        <v>25</v>
       </c>
       <c r="M13" s="1"/>
       <c r="N13" s="1" t="str">
@@ -16569,14 +16446,14 @@
         <v>通常攻撃(物理)</v>
       </c>
       <c r="O13" s="10" t="s">
-        <v>403</v>
+        <v>374</v>
       </c>
       <c r="P13" s="1" t="s">
-        <v>404</v>
+        <v>375</v>
       </c>
       <c r="Q13" s="1"/>
       <c r="R13" s="19" t="s">
-        <v>246</v>
+        <v>229</v>
       </c>
     </row>
     <row r="14" spans="1:18" x14ac:dyDescent="0.4">
@@ -16584,7 +16461,7 @@
         <v>13</v>
       </c>
       <c r="B14" s="10" t="s">
-        <v>220</v>
+        <v>203</v>
       </c>
       <c r="C14" s="10">
         <v>500</v>
@@ -16611,13 +16488,13 @@
         <v>130</v>
       </c>
       <c r="K14" s="10" t="s">
-        <v>202</v>
+        <v>197</v>
       </c>
       <c r="L14" s="10" t="s">
-        <v>202</v>
+        <v>197</v>
       </c>
       <c r="M14" s="10" t="s">
-        <v>199</v>
+        <v>194</v>
       </c>
       <c r="N14" s="1" t="str">
         <f t="shared" si="0"/>
@@ -16633,7 +16510,7 @@
         <v>14</v>
       </c>
       <c r="B15" s="1" t="s">
-        <v>221</v>
+        <v>204</v>
       </c>
       <c r="C15" s="1">
         <v>430</v>
@@ -16660,13 +16537,13 @@
         <v>120</v>
       </c>
       <c r="K15" s="1" t="s">
-        <v>202</v>
+        <v>197</v>
       </c>
       <c r="L15" s="1" t="s">
-        <v>202</v>
+        <v>197</v>
       </c>
       <c r="M15" s="1" t="s">
-        <v>201</v>
+        <v>196</v>
       </c>
       <c r="N15" s="1" t="str">
         <f t="shared" si="0"/>
@@ -16682,7 +16559,7 @@
         <v>15</v>
       </c>
       <c r="B16" s="1" t="s">
-        <v>222</v>
+        <v>205</v>
       </c>
       <c r="C16" s="1">
         <v>2800</v>
@@ -16709,27 +16586,27 @@
         <v>77</v>
       </c>
       <c r="K16" s="1" t="s">
-        <v>202</v>
+        <v>197</v>
       </c>
       <c r="L16" s="1" t="s">
-        <v>29</v>
+        <v>25</v>
       </c>
       <c r="M16" s="1" t="s">
-        <v>199</v>
+        <v>194</v>
       </c>
       <c r="N16" s="1" t="str">
         <f t="shared" si="0"/>
         <v>通常攻撃(魔法)</v>
       </c>
       <c r="O16" s="1" t="s">
-        <v>405</v>
+        <v>376</v>
       </c>
       <c r="P16" s="1" t="s">
-        <v>406</v>
+        <v>377</v>
       </c>
       <c r="Q16" s="1"/>
       <c r="R16" s="19" t="s">
-        <v>247</v>
+        <v>230</v>
       </c>
     </row>
     <row r="17" spans="1:18" s="11" customFormat="1" x14ac:dyDescent="0.4">
@@ -16737,7 +16614,7 @@
         <v>16</v>
       </c>
       <c r="B17" s="1" t="s">
-        <v>226</v>
+        <v>209</v>
       </c>
       <c r="C17" s="1">
         <v>770</v>
@@ -16764,13 +16641,13 @@
         <v>15</v>
       </c>
       <c r="K17" s="1" t="s">
-        <v>202</v>
+        <v>197</v>
       </c>
       <c r="L17" s="1" t="s">
-        <v>223</v>
+        <v>206</v>
       </c>
       <c r="M17" s="1" t="s">
-        <v>201</v>
+        <v>196</v>
       </c>
       <c r="N17" s="1" t="str">
         <f t="shared" si="0"/>
@@ -16786,7 +16663,7 @@
         <v>17</v>
       </c>
       <c r="B18" s="1" t="s">
-        <v>224</v>
+        <v>207</v>
       </c>
       <c r="C18" s="1">
         <v>700</v>
@@ -16813,13 +16690,13 @@
         <v>15</v>
       </c>
       <c r="K18" s="1" t="s">
-        <v>202</v>
+        <v>197</v>
       </c>
       <c r="L18" s="1" t="s">
-        <v>223</v>
+        <v>206</v>
       </c>
       <c r="M18" s="1" t="s">
-        <v>200</v>
+        <v>195</v>
       </c>
       <c r="N18" s="1" t="str">
         <f t="shared" si="0"/>
@@ -16835,7 +16712,7 @@
         <v>18</v>
       </c>
       <c r="B19" s="1" t="s">
-        <v>225</v>
+        <v>208</v>
       </c>
       <c r="C19" s="1">
         <v>800</v>
@@ -16862,13 +16739,13 @@
         <v>15</v>
       </c>
       <c r="K19" s="1" t="s">
-        <v>202</v>
+        <v>197</v>
       </c>
       <c r="L19" s="1" t="s">
-        <v>223</v>
+        <v>206</v>
       </c>
       <c r="M19" s="10" t="s">
-        <v>199</v>
+        <v>194</v>
       </c>
       <c r="N19" s="1" t="str">
         <f t="shared" si="0"/>
@@ -16884,7 +16761,7 @@
         <v>19</v>
       </c>
       <c r="B20" s="1" t="s">
-        <v>227</v>
+        <v>210</v>
       </c>
       <c r="C20" s="1">
         <v>870</v>
@@ -16911,20 +16788,20 @@
         <v>30</v>
       </c>
       <c r="K20" s="1" t="s">
-        <v>202</v>
+        <v>197</v>
       </c>
       <c r="L20" s="1" t="s">
-        <v>223</v>
+        <v>206</v>
       </c>
       <c r="M20" s="1" t="s">
-        <v>201</v>
+        <v>196</v>
       </c>
       <c r="N20" s="1" t="str">
         <f t="shared" si="0"/>
         <v>通常攻撃(物理)</v>
       </c>
       <c r="O20" s="1" t="s">
-        <v>401</v>
+        <v>372</v>
       </c>
       <c r="P20" s="1"/>
       <c r="Q20" s="1"/>
@@ -16935,7 +16812,7 @@
         <v>20</v>
       </c>
       <c r="B21" s="1" t="s">
-        <v>228</v>
+        <v>211</v>
       </c>
       <c r="C21" s="1">
         <v>780</v>
@@ -16962,20 +16839,20 @@
         <v>34</v>
       </c>
       <c r="K21" s="1" t="s">
-        <v>202</v>
+        <v>197</v>
       </c>
       <c r="L21" s="1" t="s">
-        <v>223</v>
+        <v>206</v>
       </c>
       <c r="M21" s="1" t="s">
-        <v>200</v>
+        <v>195</v>
       </c>
       <c r="N21" s="1" t="str">
         <f t="shared" si="0"/>
         <v>通常攻撃(物理)</v>
       </c>
       <c r="O21" s="1" t="s">
-        <v>407</v>
+        <v>378</v>
       </c>
       <c r="P21" s="1"/>
       <c r="Q21" s="1"/>
@@ -16986,7 +16863,7 @@
         <v>21</v>
       </c>
       <c r="B22" s="1" t="s">
-        <v>229</v>
+        <v>212</v>
       </c>
       <c r="C22" s="1">
         <v>812</v>
@@ -17013,20 +16890,20 @@
         <v>12</v>
       </c>
       <c r="K22" s="1" t="s">
-        <v>202</v>
+        <v>197</v>
       </c>
       <c r="L22" s="1" t="s">
-        <v>223</v>
+        <v>206</v>
       </c>
       <c r="M22" s="10" t="s">
-        <v>199</v>
+        <v>194</v>
       </c>
       <c r="N22" s="1" t="str">
         <f t="shared" si="0"/>
         <v>通常攻撃(物理)</v>
       </c>
       <c r="O22" s="1" t="s">
-        <v>405</v>
+        <v>376</v>
       </c>
       <c r="P22" s="1"/>
       <c r="Q22" s="1"/>
@@ -17037,7 +16914,7 @@
         <v>22</v>
       </c>
       <c r="B23" s="1" t="s">
-        <v>285</v>
+        <v>267</v>
       </c>
       <c r="C23" s="1">
         <v>8000</v>
@@ -17064,25 +16941,25 @@
         <v>0</v>
       </c>
       <c r="K23" s="1" t="s">
-        <v>202</v>
+        <v>197</v>
       </c>
       <c r="L23" s="1" t="s">
-        <v>223</v>
+        <v>206</v>
       </c>
       <c r="M23" s="1" t="s">
-        <v>201</v>
+        <v>196</v>
       </c>
       <c r="N23" s="1" t="str">
         <f t="shared" si="0"/>
         <v>通常攻撃(魔法)</v>
       </c>
       <c r="O23" s="1" t="s">
-        <v>408</v>
+        <v>379</v>
       </c>
       <c r="P23" s="1"/>
       <c r="Q23" s="1"/>
       <c r="R23" s="19" t="s">
-        <v>245</v>
+        <v>228</v>
       </c>
     </row>
     <row r="24" spans="1:18" x14ac:dyDescent="0.4">
@@ -17090,7 +16967,7 @@
         <v>23</v>
       </c>
       <c r="B24" s="1" t="s">
-        <v>230</v>
+        <v>213</v>
       </c>
       <c r="C24" s="1">
         <v>1200</v>
@@ -17117,20 +16994,20 @@
         <v>150</v>
       </c>
       <c r="K24" s="1" t="s">
-        <v>202</v>
+        <v>197</v>
       </c>
       <c r="L24" s="1" t="s">
-        <v>235</v>
+        <v>218</v>
       </c>
       <c r="M24" s="1" t="s">
-        <v>200</v>
+        <v>195</v>
       </c>
       <c r="N24" s="1" t="str">
         <f t="shared" si="0"/>
         <v>通常攻撃(魔法)</v>
       </c>
       <c r="O24" s="1" t="s">
-        <v>352</v>
+        <v>334</v>
       </c>
       <c r="P24" s="1"/>
       <c r="Q24" s="1"/>
@@ -17141,7 +17018,7 @@
         <v>24</v>
       </c>
       <c r="B25" s="1" t="s">
-        <v>231</v>
+        <v>214</v>
       </c>
       <c r="C25" s="1">
         <v>1700</v>
@@ -17168,20 +17045,20 @@
         <v>0</v>
       </c>
       <c r="K25" s="1" t="s">
-        <v>235</v>
+        <v>218</v>
       </c>
       <c r="L25" s="1" t="s">
-        <v>236</v>
+        <v>219</v>
       </c>
       <c r="M25" s="1" t="s">
-        <v>200</v>
+        <v>195</v>
       </c>
       <c r="N25" s="1" t="str">
         <f t="shared" si="0"/>
         <v>通常攻撃(物理)</v>
       </c>
       <c r="O25" s="1" t="s">
-        <v>336</v>
+        <v>318</v>
       </c>
       <c r="P25" s="1"/>
       <c r="Q25" s="1"/>
@@ -17192,7 +17069,7 @@
         <v>25</v>
       </c>
       <c r="B26" s="1" t="s">
-        <v>232</v>
+        <v>215</v>
       </c>
       <c r="C26" s="1">
         <v>1500</v>
@@ -17219,10 +17096,10 @@
         <v>77</v>
       </c>
       <c r="K26" s="1" t="s">
-        <v>202</v>
+        <v>197</v>
       </c>
       <c r="L26" s="1" t="s">
-        <v>202</v>
+        <v>197</v>
       </c>
       <c r="M26" s="1"/>
       <c r="N26" s="1" t="str">
@@ -17230,7 +17107,7 @@
         <v>通常攻撃(物理)</v>
       </c>
       <c r="O26" s="1" t="s">
-        <v>354</v>
+        <v>336</v>
       </c>
       <c r="P26" s="1"/>
       <c r="Q26" s="1"/>
@@ -17241,7 +17118,7 @@
         <v>26</v>
       </c>
       <c r="B27" s="1" t="s">
-        <v>233</v>
+        <v>216</v>
       </c>
       <c r="C27" s="1">
         <v>1450</v>
@@ -17268,23 +17145,23 @@
         <v>0</v>
       </c>
       <c r="K27" s="1" t="s">
-        <v>29</v>
+        <v>25</v>
       </c>
       <c r="L27" s="1" t="s">
-        <v>236</v>
+        <v>219</v>
       </c>
       <c r="M27" s="1" t="s">
-        <v>201</v>
+        <v>196</v>
       </c>
       <c r="N27" s="1" t="str">
         <f t="shared" si="0"/>
         <v>通常攻撃(物理)</v>
       </c>
       <c r="O27" s="8" t="s">
-        <v>80</v>
+        <v>76</v>
       </c>
       <c r="P27" s="1" t="s">
-        <v>411</v>
+        <v>382</v>
       </c>
       <c r="Q27" s="1"/>
       <c r="R27" s="19"/>
@@ -17294,7 +17171,7 @@
         <v>27</v>
       </c>
       <c r="B28" s="1" t="s">
-        <v>234</v>
+        <v>217</v>
       </c>
       <c r="C28" s="1">
         <v>1650</v>
@@ -17321,20 +17198,20 @@
         <v>0</v>
       </c>
       <c r="K28" s="1" t="s">
-        <v>235</v>
+        <v>218</v>
       </c>
       <c r="L28" s="1" t="s">
-        <v>202</v>
+        <v>197</v>
       </c>
       <c r="M28" s="1" t="s">
-        <v>201</v>
+        <v>196</v>
       </c>
       <c r="N28" s="1" t="str">
         <f t="shared" si="0"/>
         <v>通常攻撃(物理)</v>
       </c>
       <c r="O28" s="1" t="s">
-        <v>410</v>
+        <v>381</v>
       </c>
       <c r="P28" s="1"/>
       <c r="Q28" s="1"/>
@@ -17345,7 +17222,7 @@
         <v>28</v>
       </c>
       <c r="B29" s="1" t="s">
-        <v>288</v>
+        <v>270</v>
       </c>
       <c r="C29" s="1">
         <v>15000</v>
@@ -17372,27 +17249,27 @@
         <v>0</v>
       </c>
       <c r="K29" s="1" t="s">
-        <v>202</v>
+        <v>197</v>
       </c>
       <c r="L29" s="1" t="s">
-        <v>202</v>
+        <v>197</v>
       </c>
       <c r="M29" s="1" t="s">
-        <v>199</v>
+        <v>194</v>
       </c>
       <c r="N29" s="1" t="str">
         <f t="shared" si="0"/>
         <v>通常攻撃(物理)</v>
       </c>
       <c r="O29" s="1" t="s">
-        <v>412</v>
+        <v>383</v>
       </c>
       <c r="P29" s="1" t="s">
-        <v>413</v>
+        <v>384</v>
       </c>
       <c r="Q29" s="1"/>
       <c r="R29" s="19" t="s">
-        <v>245</v>
+        <v>228</v>
       </c>
     </row>
     <row r="30" spans="1:18" x14ac:dyDescent="0.4">
@@ -17400,7 +17277,7 @@
         <v>29</v>
       </c>
       <c r="B30" s="1" t="s">
-        <v>237</v>
+        <v>220</v>
       </c>
       <c r="C30" s="1">
         <v>1800</v>
@@ -17427,20 +17304,20 @@
         <v>0</v>
       </c>
       <c r="K30" s="1" t="s">
-        <v>202</v>
+        <v>197</v>
       </c>
       <c r="L30" s="1" t="s">
-        <v>202</v>
+        <v>197</v>
       </c>
       <c r="M30" s="1" t="s">
-        <v>199</v>
+        <v>194</v>
       </c>
       <c r="N30" s="1" t="str">
         <f t="shared" si="0"/>
         <v>通常攻撃(物理)</v>
       </c>
       <c r="O30" s="1" t="s">
-        <v>414</v>
+        <v>385</v>
       </c>
       <c r="P30" s="1"/>
       <c r="Q30" s="1"/>
@@ -17451,7 +17328,7 @@
         <v>30</v>
       </c>
       <c r="B31" s="1" t="s">
-        <v>238</v>
+        <v>221</v>
       </c>
       <c r="C31" s="1">
         <v>500</v>
@@ -17478,25 +17355,25 @@
         <v>0</v>
       </c>
       <c r="K31" s="1" t="s">
-        <v>254</v>
+        <v>237</v>
       </c>
       <c r="L31" s="1" t="s">
-        <v>243</v>
+        <v>226</v>
       </c>
       <c r="M31" s="1" t="s">
-        <v>199</v>
+        <v>194</v>
       </c>
       <c r="N31" s="1" t="str">
         <f t="shared" si="0"/>
         <v>通常攻撃(魔法)</v>
       </c>
       <c r="O31" s="1" t="s">
-        <v>405</v>
+        <v>376</v>
       </c>
       <c r="P31" s="1"/>
       <c r="Q31" s="1"/>
       <c r="R31" s="19" t="s">
-        <v>256</v>
+        <v>239</v>
       </c>
     </row>
     <row r="32" spans="1:18" x14ac:dyDescent="0.4">
@@ -17504,7 +17381,7 @@
         <v>31</v>
       </c>
       <c r="B32" s="1" t="s">
-        <v>239</v>
+        <v>222</v>
       </c>
       <c r="C32" s="1">
         <v>2200</v>
@@ -17531,20 +17408,20 @@
         <v>90</v>
       </c>
       <c r="K32" s="1" t="s">
-        <v>202</v>
+        <v>197</v>
       </c>
       <c r="L32" s="1" t="s">
-        <v>235</v>
+        <v>218</v>
       </c>
       <c r="M32" s="1" t="s">
-        <v>199</v>
+        <v>194</v>
       </c>
       <c r="N32" s="1" t="str">
         <f t="shared" si="0"/>
         <v>通常攻撃(魔法)</v>
       </c>
       <c r="O32" s="1" t="s">
-        <v>405</v>
+        <v>376</v>
       </c>
       <c r="P32" s="1"/>
       <c r="Q32" s="1"/>
@@ -17555,7 +17432,7 @@
         <v>32</v>
       </c>
       <c r="B33" s="1" t="s">
-        <v>240</v>
+        <v>223</v>
       </c>
       <c r="C33" s="1">
         <v>3200</v>
@@ -17582,20 +17459,20 @@
         <v>77</v>
       </c>
       <c r="K33" s="1" t="s">
-        <v>202</v>
+        <v>197</v>
       </c>
       <c r="L33" s="1" t="s">
-        <v>202</v>
+        <v>197</v>
       </c>
       <c r="M33" s="1" t="s">
-        <v>199</v>
+        <v>194</v>
       </c>
       <c r="N33" s="1" t="str">
         <f t="shared" si="0"/>
         <v>通常攻撃(物理)</v>
       </c>
       <c r="O33" s="1" t="s">
-        <v>414</v>
+        <v>385</v>
       </c>
       <c r="P33" s="1"/>
       <c r="Q33" s="1"/>
@@ -17606,7 +17483,7 @@
         <v>33</v>
       </c>
       <c r="B34" s="1" t="s">
-        <v>241</v>
+        <v>224</v>
       </c>
       <c r="C34" s="1">
         <v>4100</v>
@@ -17633,13 +17510,13 @@
         <v>67</v>
       </c>
       <c r="K34" s="1" t="s">
-        <v>202</v>
+        <v>197</v>
       </c>
       <c r="L34" s="1" t="s">
-        <v>202</v>
+        <v>197</v>
       </c>
       <c r="M34" s="1" t="s">
-        <v>199</v>
+        <v>194</v>
       </c>
       <c r="N34" s="1" t="str">
         <f t="shared" si="0"/>
@@ -17655,7 +17532,7 @@
         <v>34</v>
       </c>
       <c r="B35" s="1" t="s">
-        <v>242</v>
+        <v>225</v>
       </c>
       <c r="C35" s="1">
         <v>2400</v>
@@ -17682,20 +17559,20 @@
         <v>0</v>
       </c>
       <c r="K35" s="1" t="s">
-        <v>235</v>
+        <v>218</v>
       </c>
       <c r="L35" s="1" t="s">
-        <v>202</v>
+        <v>197</v>
       </c>
       <c r="M35" s="1" t="s">
-        <v>199</v>
+        <v>194</v>
       </c>
       <c r="N35" s="1" t="str">
         <f t="shared" si="0"/>
         <v>通常攻撃(魔法)</v>
       </c>
       <c r="O35" s="1" t="s">
-        <v>405</v>
+        <v>376</v>
       </c>
       <c r="P35" s="1"/>
       <c r="Q35" s="1"/>
@@ -17706,7 +17583,7 @@
         <v>35</v>
       </c>
       <c r="B36" s="1" t="s">
-        <v>416</v>
+        <v>387</v>
       </c>
       <c r="C36" s="1">
         <v>11500</v>
@@ -17733,27 +17610,27 @@
         <v>40</v>
       </c>
       <c r="K36" s="1" t="s">
-        <v>235</v>
+        <v>218</v>
       </c>
       <c r="L36" s="1" t="s">
-        <v>235</v>
+        <v>218</v>
       </c>
       <c r="M36" s="1" t="s">
-        <v>199</v>
+        <v>194</v>
       </c>
       <c r="N36" s="1" t="str">
         <f t="shared" si="0"/>
         <v>通常攻撃(物理)</v>
       </c>
       <c r="O36" s="1" t="s">
-        <v>419</v>
+        <v>390</v>
       </c>
       <c r="P36" s="1" t="s">
-        <v>417</v>
+        <v>388</v>
       </c>
       <c r="Q36" s="1"/>
       <c r="R36" s="19" t="s">
-        <v>245</v>
+        <v>228</v>
       </c>
     </row>
     <row r="37" spans="1:18" x14ac:dyDescent="0.4">
@@ -17761,7 +17638,7 @@
         <v>36</v>
       </c>
       <c r="B37" s="1" t="s">
-        <v>257</v>
+        <v>240</v>
       </c>
       <c r="C37" s="1">
         <v>3300</v>
@@ -17788,23 +17665,23 @@
         <v>0</v>
       </c>
       <c r="K37" s="1" t="s">
-        <v>202</v>
+        <v>197</v>
       </c>
       <c r="L37" s="1" t="s">
-        <v>202</v>
+        <v>197</v>
       </c>
       <c r="M37" s="1" t="s">
-        <v>199</v>
+        <v>194</v>
       </c>
       <c r="N37" s="1" t="str">
         <f t="shared" si="0"/>
         <v>通常攻撃(物理)</v>
       </c>
       <c r="O37" s="1" t="s">
-        <v>404</v>
+        <v>375</v>
       </c>
       <c r="P37" s="1" t="s">
-        <v>420</v>
+        <v>391</v>
       </c>
       <c r="Q37" s="1"/>
       <c r="R37" s="19"/>
@@ -17814,7 +17691,7 @@
         <v>37</v>
       </c>
       <c r="B38" s="1" t="s">
-        <v>258</v>
+        <v>241</v>
       </c>
       <c r="C38" s="1">
         <v>18000</v>
@@ -17841,27 +17718,27 @@
         <v>0</v>
       </c>
       <c r="K38" s="1" t="s">
-        <v>202</v>
+        <v>197</v>
       </c>
       <c r="L38" s="1" t="s">
-        <v>202</v>
+        <v>197</v>
       </c>
       <c r="M38" s="1" t="s">
-        <v>255</v>
+        <v>238</v>
       </c>
       <c r="N38" s="1" t="str">
         <f t="shared" si="0"/>
         <v>通常攻撃(物理)</v>
       </c>
       <c r="O38" s="1" t="s">
-        <v>412</v>
+        <v>383</v>
       </c>
       <c r="P38" s="1" t="s">
-        <v>421</v>
+        <v>392</v>
       </c>
       <c r="Q38" s="1"/>
       <c r="R38" s="19" t="s">
-        <v>245</v>
+        <v>228</v>
       </c>
     </row>
     <row r="39" spans="1:18" x14ac:dyDescent="0.4">
@@ -17869,7 +17746,7 @@
         <v>38</v>
       </c>
       <c r="B39" s="1" t="s">
-        <v>259</v>
+        <v>242</v>
       </c>
       <c r="C39" s="1">
         <v>3800</v>
@@ -17896,10 +17773,10 @@
         <v>99</v>
       </c>
       <c r="K39" s="1" t="s">
-        <v>202</v>
+        <v>197</v>
       </c>
       <c r="L39" s="1" t="s">
-        <v>202</v>
+        <v>197</v>
       </c>
       <c r="M39" s="1"/>
       <c r="N39" s="1" t="str">
@@ -17907,10 +17784,10 @@
         <v>通常攻撃(物理)</v>
       </c>
       <c r="O39" s="1" t="s">
-        <v>413</v>
+        <v>384</v>
       </c>
       <c r="P39" s="1" t="s">
-        <v>418</v>
+        <v>389</v>
       </c>
       <c r="Q39" s="1"/>
       <c r="R39" s="19"/>
@@ -17920,7 +17797,7 @@
         <v>39</v>
       </c>
       <c r="B40" s="1" t="s">
-        <v>260</v>
+        <v>243</v>
       </c>
       <c r="C40" s="1">
         <v>2900</v>
@@ -17947,10 +17824,10 @@
         <v>0</v>
       </c>
       <c r="K40" s="1" t="s">
-        <v>202</v>
+        <v>197</v>
       </c>
       <c r="L40" s="1" t="s">
-        <v>202</v>
+        <v>197</v>
       </c>
       <c r="M40" s="1"/>
       <c r="N40" s="1" t="str">
@@ -17958,7 +17835,7 @@
         <v>通常攻撃(物理)</v>
       </c>
       <c r="O40" s="1" t="s">
-        <v>422</v>
+        <v>393</v>
       </c>
       <c r="P40" s="1"/>
       <c r="Q40" s="1"/>
@@ -17969,7 +17846,7 @@
         <v>40</v>
       </c>
       <c r="B41" s="1" t="s">
-        <v>261</v>
+        <v>244</v>
       </c>
       <c r="C41" s="1">
         <v>4500</v>
@@ -17996,10 +17873,10 @@
         <v>0</v>
       </c>
       <c r="K41" s="1" t="s">
-        <v>202</v>
+        <v>197</v>
       </c>
       <c r="L41" s="1" t="s">
-        <v>202</v>
+        <v>197</v>
       </c>
       <c r="M41" s="1"/>
       <c r="N41" s="1" t="str">
@@ -18007,7 +17884,7 @@
         <v>通常攻撃(物理)</v>
       </c>
       <c r="O41" s="1" t="s">
-        <v>423</v>
+        <v>394</v>
       </c>
       <c r="P41" s="1"/>
       <c r="Q41" s="1"/>
@@ -18018,7 +17895,7 @@
         <v>41</v>
       </c>
       <c r="B42" s="1" t="s">
-        <v>262</v>
+        <v>245</v>
       </c>
       <c r="C42" s="1">
         <v>3200</v>
@@ -18045,10 +17922,10 @@
         <v>0</v>
       </c>
       <c r="K42" s="1" t="s">
-        <v>235</v>
+        <v>218</v>
       </c>
       <c r="L42" s="1" t="s">
-        <v>236</v>
+        <v>219</v>
       </c>
       <c r="M42" s="1"/>
       <c r="N42" s="1" t="str">
@@ -18056,7 +17933,7 @@
         <v>通常攻撃(魔法)</v>
       </c>
       <c r="O42" s="1" t="s">
-        <v>424</v>
+        <v>395</v>
       </c>
       <c r="P42" s="1"/>
       <c r="Q42" s="1"/>
@@ -18067,7 +17944,7 @@
         <v>42</v>
       </c>
       <c r="B43" s="1" t="s">
-        <v>263</v>
+        <v>246</v>
       </c>
       <c r="C43" s="1">
         <v>4000</v>
@@ -18094,10 +17971,10 @@
         <v>0</v>
       </c>
       <c r="K43" s="1" t="s">
-        <v>202</v>
+        <v>197</v>
       </c>
       <c r="L43" s="1" t="s">
-        <v>202</v>
+        <v>197</v>
       </c>
       <c r="M43" s="1"/>
       <c r="N43" s="1" t="str">
@@ -18105,10 +17982,10 @@
         <v>通常攻撃(物理)</v>
       </c>
       <c r="O43" s="1" t="s">
-        <v>418</v>
+        <v>389</v>
       </c>
       <c r="P43" s="1" t="s">
-        <v>426</v>
+        <v>397</v>
       </c>
       <c r="Q43" s="1"/>
       <c r="R43" s="19"/>
@@ -18118,7 +17995,7 @@
         <v>43</v>
       </c>
       <c r="B44" s="1" t="s">
-        <v>264</v>
+        <v>247</v>
       </c>
       <c r="C44" s="1">
         <v>4700</v>
@@ -18145,20 +18022,20 @@
         <v>0</v>
       </c>
       <c r="K44" s="1" t="s">
-        <v>202</v>
+        <v>197</v>
       </c>
       <c r="L44" s="1" t="s">
-        <v>202</v>
+        <v>197</v>
       </c>
       <c r="M44" s="1" t="s">
-        <v>199</v>
+        <v>194</v>
       </c>
       <c r="N44" s="1" t="str">
         <f t="shared" si="0"/>
         <v>通常攻撃(物理)</v>
       </c>
       <c r="O44" s="1" t="s">
-        <v>427</v>
+        <v>398</v>
       </c>
       <c r="P44" s="1"/>
       <c r="Q44" s="1"/>
@@ -18169,7 +18046,7 @@
         <v>44</v>
       </c>
       <c r="B45" s="1" t="s">
-        <v>302</v>
+        <v>284</v>
       </c>
       <c r="C45" s="1">
         <v>4200</v>
@@ -18196,10 +18073,10 @@
         <v>0</v>
       </c>
       <c r="K45" s="1" t="s">
-        <v>29</v>
+        <v>25</v>
       </c>
       <c r="L45" s="1" t="s">
-        <v>29</v>
+        <v>25</v>
       </c>
       <c r="M45" s="1"/>
       <c r="N45" s="1" t="str">
@@ -18207,7 +18084,7 @@
         <v>通常攻撃(物理)</v>
       </c>
       <c r="O45" s="1" t="s">
-        <v>428</v>
+        <v>399</v>
       </c>
       <c r="P45" s="1"/>
       <c r="Q45" s="1"/>
@@ -18218,7 +18095,7 @@
         <v>45</v>
       </c>
       <c r="B46" s="1" t="s">
-        <v>265</v>
+        <v>248</v>
       </c>
       <c r="C46" s="1">
         <v>3800</v>
@@ -18245,10 +18122,10 @@
         <v>59</v>
       </c>
       <c r="K46" s="1" t="s">
-        <v>202</v>
+        <v>197</v>
       </c>
       <c r="L46" s="1" t="s">
-        <v>202</v>
+        <v>197</v>
       </c>
       <c r="M46" s="1"/>
       <c r="N46" s="1" t="str">
@@ -18265,7 +18142,7 @@
         <v>46</v>
       </c>
       <c r="B47" s="1" t="s">
-        <v>266</v>
+        <v>249</v>
       </c>
       <c r="C47" s="1">
         <v>3200</v>
@@ -18292,10 +18169,10 @@
         <v>0</v>
       </c>
       <c r="K47" s="1" t="s">
-        <v>202</v>
+        <v>197</v>
       </c>
       <c r="L47" s="1" t="s">
-        <v>202</v>
+        <v>197</v>
       </c>
       <c r="M47" s="1"/>
       <c r="N47" s="1" t="str">
@@ -18303,7 +18180,7 @@
         <v>通常攻撃(物理)</v>
       </c>
       <c r="O47" s="1" t="s">
-        <v>429</v>
+        <v>400</v>
       </c>
       <c r="P47" s="1"/>
       <c r="Q47" s="1"/>
@@ -18314,7 +18191,7 @@
         <v>47</v>
       </c>
       <c r="B48" s="1" t="s">
-        <v>290</v>
+        <v>272</v>
       </c>
       <c r="C48" s="1">
         <v>28000</v>
@@ -18341,10 +18218,10 @@
         <v>40</v>
       </c>
       <c r="K48" s="1" t="s">
-        <v>202</v>
+        <v>197</v>
       </c>
       <c r="L48" s="1" t="s">
-        <v>202</v>
+        <v>197</v>
       </c>
       <c r="M48" s="1"/>
       <c r="N48" s="1" t="str">
@@ -18352,14 +18229,14 @@
         <v>通常攻撃(物理)</v>
       </c>
       <c r="O48" s="1" t="s">
-        <v>430</v>
+        <v>401</v>
       </c>
       <c r="P48" s="1" t="s">
-        <v>435</v>
+        <v>405</v>
       </c>
       <c r="Q48" s="1"/>
       <c r="R48" s="19" t="s">
-        <v>245</v>
+        <v>228</v>
       </c>
     </row>
     <row r="49" spans="1:18" x14ac:dyDescent="0.4">
@@ -18367,7 +18244,7 @@
         <v>48</v>
       </c>
       <c r="B49" s="1" t="s">
-        <v>268</v>
+        <v>250</v>
       </c>
       <c r="C49" s="1">
         <v>5000</v>
@@ -18394,20 +18271,20 @@
         <v>0</v>
       </c>
       <c r="K49" s="1" t="s">
-        <v>202</v>
+        <v>197</v>
       </c>
       <c r="L49" s="1" t="s">
-        <v>236</v>
+        <v>219</v>
       </c>
       <c r="M49" s="1" t="s">
-        <v>194</v>
+        <v>189</v>
       </c>
       <c r="N49" s="1" t="str">
         <f t="shared" si="0"/>
         <v>通常攻撃(物理)</v>
       </c>
       <c r="O49" s="1" t="s">
-        <v>410</v>
+        <v>381</v>
       </c>
       <c r="P49" s="1"/>
       <c r="Q49" s="1"/>
@@ -18418,7 +18295,7 @@
         <v>49</v>
       </c>
       <c r="B50" s="1" t="s">
-        <v>269</v>
+        <v>251</v>
       </c>
       <c r="C50" s="1">
         <v>4300</v>
@@ -18445,20 +18322,20 @@
         <v>100</v>
       </c>
       <c r="K50" s="1" t="s">
-        <v>202</v>
+        <v>197</v>
       </c>
       <c r="L50" s="1" t="s">
-        <v>235</v>
+        <v>218</v>
       </c>
       <c r="M50" s="1" t="s">
-        <v>200</v>
+        <v>195</v>
       </c>
       <c r="N50" s="1" t="str">
         <f t="shared" si="0"/>
         <v>通常攻撃(物理)</v>
       </c>
       <c r="O50" s="1" t="s">
-        <v>437</v>
+        <v>407</v>
       </c>
       <c r="P50" s="1"/>
       <c r="Q50" s="1"/>
@@ -18469,7 +18346,7 @@
         <v>50</v>
       </c>
       <c r="B51" s="1" t="s">
-        <v>270</v>
+        <v>252</v>
       </c>
       <c r="C51" s="1">
         <v>4000</v>
@@ -18496,20 +18373,20 @@
         <v>87</v>
       </c>
       <c r="K51" s="1" t="s">
-        <v>202</v>
+        <v>197</v>
       </c>
       <c r="L51" s="1" t="s">
-        <v>235</v>
+        <v>218</v>
       </c>
       <c r="M51" s="1" t="s">
-        <v>201</v>
+        <v>196</v>
       </c>
       <c r="N51" s="1" t="str">
         <f t="shared" si="0"/>
         <v>通常攻撃(物理)</v>
       </c>
       <c r="O51" s="1" t="s">
-        <v>436</v>
+        <v>406</v>
       </c>
       <c r="P51" s="1"/>
       <c r="Q51" s="1"/>
@@ -18520,7 +18397,7 @@
         <v>51</v>
       </c>
       <c r="B52" s="1" t="s">
-        <v>271</v>
+        <v>253</v>
       </c>
       <c r="C52" s="1">
         <v>4000</v>
@@ -18547,10 +18424,10 @@
         <v>0</v>
       </c>
       <c r="K52" s="1" t="s">
-        <v>202</v>
+        <v>197</v>
       </c>
       <c r="L52" s="1" t="s">
-        <v>202</v>
+        <v>197</v>
       </c>
       <c r="M52" s="1"/>
       <c r="N52" s="1" t="str">
@@ -18567,7 +18444,7 @@
         <v>52</v>
       </c>
       <c r="B53" s="1" t="s">
-        <v>272</v>
+        <v>254</v>
       </c>
       <c r="C53" s="1">
         <v>3800</v>
@@ -18594,10 +18471,10 @@
         <v>0</v>
       </c>
       <c r="K53" s="1" t="s">
-        <v>202</v>
+        <v>197</v>
       </c>
       <c r="L53" s="1" t="s">
-        <v>202</v>
+        <v>197</v>
       </c>
       <c r="M53" s="1"/>
       <c r="N53" s="1" t="str">
@@ -18614,7 +18491,7 @@
         <v>53</v>
       </c>
       <c r="B54" s="1" t="s">
-        <v>273</v>
+        <v>255</v>
       </c>
       <c r="C54" s="1">
         <v>4500</v>
@@ -18641,20 +18518,20 @@
         <v>0</v>
       </c>
       <c r="K54" s="1" t="s">
-        <v>202</v>
+        <v>197</v>
       </c>
       <c r="L54" s="1" t="s">
-        <v>202</v>
+        <v>197</v>
       </c>
       <c r="M54" s="1" t="s">
-        <v>201</v>
+        <v>196</v>
       </c>
       <c r="N54" s="1" t="str">
         <f t="shared" si="0"/>
         <v>通常攻撃(物理)</v>
       </c>
       <c r="O54" s="1" t="s">
-        <v>436</v>
+        <v>406</v>
       </c>
       <c r="P54" s="1"/>
       <c r="Q54" s="1"/>
@@ -18665,7 +18542,7 @@
         <v>54</v>
       </c>
       <c r="B55" s="1" t="s">
-        <v>274</v>
+        <v>256</v>
       </c>
       <c r="C55" s="1">
         <v>5100</v>
@@ -18692,13 +18569,13 @@
         <v>0</v>
       </c>
       <c r="K55" s="1" t="s">
-        <v>202</v>
+        <v>197</v>
       </c>
       <c r="L55" s="1" t="s">
-        <v>202</v>
+        <v>197</v>
       </c>
       <c r="M55" s="1" t="s">
-        <v>201</v>
+        <v>196</v>
       </c>
       <c r="N55" s="1" t="str">
         <f t="shared" si="0"/>
@@ -18714,7 +18591,7 @@
         <v>55</v>
       </c>
       <c r="B56" s="1" t="s">
-        <v>291</v>
+        <v>273</v>
       </c>
       <c r="C56" s="1">
         <v>34000</v>
@@ -18741,29 +18618,29 @@
         <v>0</v>
       </c>
       <c r="K56" s="1" t="s">
-        <v>202</v>
+        <v>197</v>
       </c>
       <c r="L56" s="1" t="s">
-        <v>202</v>
+        <v>197</v>
       </c>
       <c r="M56" s="1" t="s">
-        <v>201</v>
+        <v>196</v>
       </c>
       <c r="N56" s="1" t="str">
         <f t="shared" si="0"/>
         <v>通常攻撃(物理)</v>
       </c>
       <c r="O56" s="1" t="s">
-        <v>441</v>
+        <v>410</v>
       </c>
       <c r="P56" s="1" t="s">
-        <v>438</v>
+        <v>408</v>
       </c>
       <c r="Q56" s="1" t="s">
-        <v>442</v>
+        <v>411</v>
       </c>
       <c r="R56" s="19" t="s">
-        <v>245</v>
+        <v>228</v>
       </c>
     </row>
     <row r="57" spans="1:18" x14ac:dyDescent="0.4">
@@ -18771,7 +18648,7 @@
         <v>56</v>
       </c>
       <c r="B57" s="1" t="s">
-        <v>275</v>
+        <v>257</v>
       </c>
       <c r="C57" s="1">
         <v>6000</v>
@@ -18798,23 +18675,23 @@
         <v>0</v>
       </c>
       <c r="K57" s="1" t="s">
-        <v>29</v>
+        <v>25</v>
       </c>
       <c r="L57" s="1" t="s">
-        <v>223</v>
+        <v>206</v>
       </c>
       <c r="M57" s="1" t="s">
-        <v>194</v>
+        <v>189</v>
       </c>
       <c r="N57" s="1" t="str">
         <f t="shared" si="0"/>
         <v>通常攻撃(物理)</v>
       </c>
       <c r="O57" s="1" t="s">
-        <v>443</v>
+        <v>412</v>
       </c>
       <c r="P57" s="1" t="s">
-        <v>419</v>
+        <v>390</v>
       </c>
       <c r="Q57" s="1"/>
       <c r="R57" s="19"/>
@@ -18824,7 +18701,7 @@
         <v>57</v>
       </c>
       <c r="B58" s="1" t="s">
-        <v>293</v>
+        <v>275</v>
       </c>
       <c r="C58" s="1">
         <v>5100</v>
@@ -18851,20 +18728,20 @@
         <v>0</v>
       </c>
       <c r="K58" s="1" t="s">
-        <v>29</v>
+        <v>25</v>
       </c>
       <c r="L58" s="1" t="s">
-        <v>162</v>
+        <v>157</v>
       </c>
       <c r="M58" s="1" t="s">
-        <v>193</v>
+        <v>188</v>
       </c>
       <c r="N58" s="1" t="str">
         <f t="shared" si="0"/>
         <v>通常攻撃(魔法)</v>
       </c>
       <c r="O58" s="1" t="s">
-        <v>352</v>
+        <v>334</v>
       </c>
       <c r="P58" s="1"/>
       <c r="Q58" s="1"/>
@@ -18875,7 +18752,7 @@
         <v>58</v>
       </c>
       <c r="B59" s="1" t="s">
-        <v>276</v>
+        <v>258</v>
       </c>
       <c r="C59" s="1">
         <v>5500</v>
@@ -18902,20 +18779,20 @@
         <v>0</v>
       </c>
       <c r="K59" s="1" t="s">
-        <v>162</v>
+        <v>157</v>
       </c>
       <c r="L59" s="1" t="s">
-        <v>163</v>
+        <v>158</v>
       </c>
       <c r="M59" s="1" t="s">
-        <v>193</v>
+        <v>188</v>
       </c>
       <c r="N59" s="1" t="str">
         <f t="shared" si="0"/>
         <v>通常攻撃(物理)</v>
       </c>
       <c r="O59" s="1" t="s">
-        <v>444</v>
+        <v>413</v>
       </c>
       <c r="P59" s="1"/>
       <c r="Q59" s="1"/>
@@ -18926,7 +18803,7 @@
         <v>59</v>
       </c>
       <c r="B60" s="1" t="s">
-        <v>277</v>
+        <v>259</v>
       </c>
       <c r="C60" s="1">
         <v>4200</v>
@@ -18953,10 +18830,10 @@
         <v>12</v>
       </c>
       <c r="K60" s="1" t="s">
-        <v>29</v>
+        <v>25</v>
       </c>
       <c r="L60" s="1" t="s">
-        <v>29</v>
+        <v>25</v>
       </c>
       <c r="M60" s="1"/>
       <c r="N60" s="1" t="str">
@@ -18964,10 +18841,10 @@
         <v>通常攻撃(物理)</v>
       </c>
       <c r="O60" s="1" t="s">
-        <v>428</v>
+        <v>399</v>
       </c>
       <c r="P60" s="1" t="s">
-        <v>445</v>
+        <v>414</v>
       </c>
       <c r="Q60" s="1"/>
       <c r="R60" s="19"/>
@@ -18977,7 +18854,7 @@
         <v>60</v>
       </c>
       <c r="B61" s="1" t="s">
-        <v>278</v>
+        <v>260</v>
       </c>
       <c r="C61" s="1">
         <v>2800</v>
@@ -19004,10 +18881,10 @@
         <v>0</v>
       </c>
       <c r="K61" s="1" t="s">
-        <v>294</v>
+        <v>276</v>
       </c>
       <c r="L61" s="1" t="s">
-        <v>295</v>
+        <v>277</v>
       </c>
       <c r="M61" s="1"/>
       <c r="N61" s="1" t="str">
@@ -19015,7 +18892,7 @@
         <v>通常攻撃(魔法)</v>
       </c>
       <c r="O61" s="1" t="s">
-        <v>431</v>
+        <v>402</v>
       </c>
       <c r="P61" s="8"/>
       <c r="Q61" s="1"/>
@@ -19026,7 +18903,7 @@
         <v>61</v>
       </c>
       <c r="B62" s="1" t="s">
-        <v>279</v>
+        <v>261</v>
       </c>
       <c r="C62" s="1">
         <v>5200</v>
@@ -19053,10 +18930,10 @@
         <v>0</v>
       </c>
       <c r="K62" s="1" t="s">
-        <v>296</v>
+        <v>278</v>
       </c>
       <c r="L62" s="1" t="s">
-        <v>296</v>
+        <v>278</v>
       </c>
       <c r="M62" s="1"/>
       <c r="N62" s="1" t="str">
@@ -19064,7 +18941,7 @@
         <v>通常攻撃(物理)</v>
       </c>
       <c r="O62" s="1" t="s">
-        <v>444</v>
+        <v>413</v>
       </c>
       <c r="P62" s="1"/>
       <c r="Q62" s="1"/>
@@ -19075,7 +18952,7 @@
         <v>62</v>
       </c>
       <c r="B63" s="1" t="s">
-        <v>280</v>
+        <v>262</v>
       </c>
       <c r="C63" s="1">
         <v>3300</v>
@@ -19102,10 +18979,10 @@
         <v>0</v>
       </c>
       <c r="K63" s="1" t="s">
-        <v>296</v>
+        <v>278</v>
       </c>
       <c r="L63" s="1" t="s">
-        <v>296</v>
+        <v>278</v>
       </c>
       <c r="M63" s="1"/>
       <c r="N63" s="1" t="str">
@@ -19122,7 +18999,7 @@
         <v>63</v>
       </c>
       <c r="B64" s="1" t="s">
-        <v>281</v>
+        <v>263</v>
       </c>
       <c r="C64" s="1">
         <v>4800</v>
@@ -19149,10 +19026,10 @@
         <v>0</v>
       </c>
       <c r="K64" s="1" t="s">
-        <v>296</v>
+        <v>278</v>
       </c>
       <c r="L64" s="1" t="s">
-        <v>295</v>
+        <v>277</v>
       </c>
       <c r="M64" s="1"/>
       <c r="N64" s="1" t="str">
@@ -19160,7 +19037,7 @@
         <v>通常攻撃(物理)</v>
       </c>
       <c r="O64" s="1" t="s">
-        <v>442</v>
+        <v>411</v>
       </c>
       <c r="P64" s="1"/>
       <c r="Q64" s="1"/>
@@ -19171,7 +19048,7 @@
         <v>64</v>
       </c>
       <c r="B65" s="1" t="s">
-        <v>282</v>
+        <v>264</v>
       </c>
       <c r="C65" s="1">
         <v>3999</v>
@@ -19198,10 +19075,10 @@
         <v>0</v>
       </c>
       <c r="K65" s="1" t="s">
-        <v>295</v>
+        <v>277</v>
       </c>
       <c r="L65" s="1" t="s">
-        <v>295</v>
+        <v>277</v>
       </c>
       <c r="M65" s="1"/>
       <c r="N65" s="1" t="str">
@@ -19218,7 +19095,7 @@
         <v>65</v>
       </c>
       <c r="B66" s="1" t="s">
-        <v>284</v>
+        <v>266</v>
       </c>
       <c r="C66" s="1">
         <v>3200</v>
@@ -19245,10 +19122,10 @@
         <v>9999</v>
       </c>
       <c r="K66" s="1" t="s">
-        <v>296</v>
+        <v>278</v>
       </c>
       <c r="L66" s="1" t="s">
-        <v>296</v>
+        <v>278</v>
       </c>
       <c r="M66" s="1"/>
       <c r="N66" s="1" t="str">
@@ -19256,10 +19133,10 @@
         <v>通常攻撃(物理)</v>
       </c>
       <c r="O66" s="1" t="s">
-        <v>446</v>
+        <v>415</v>
       </c>
       <c r="P66" s="1" t="s">
-        <v>447</v>
+        <v>416</v>
       </c>
       <c r="Q66" s="1"/>
       <c r="R66" s="19"/>
@@ -19269,7 +19146,7 @@
         <v>66</v>
       </c>
       <c r="B67" s="1" t="s">
-        <v>283</v>
+        <v>265</v>
       </c>
       <c r="C67" s="1">
         <v>45000</v>
@@ -19296,17 +19173,17 @@
         <v>100</v>
       </c>
       <c r="K67" s="1" t="s">
-        <v>296</v>
+        <v>278</v>
       </c>
       <c r="L67" s="1" t="s">
-        <v>296</v>
+        <v>278</v>
       </c>
       <c r="M67" s="1"/>
       <c r="N67" s="1" t="s">
-        <v>452</v>
+        <v>421</v>
       </c>
       <c r="O67" s="1" t="s">
-        <v>448</v>
+        <v>417</v>
       </c>
       <c r="P67" s="1"/>
       <c r="Q67" s="1"/>
@@ -19317,7 +19194,7 @@
         <v>67</v>
       </c>
       <c r="B68" s="1" t="s">
-        <v>297</v>
+        <v>279</v>
       </c>
       <c r="C68" s="1">
         <v>500</v>
@@ -19344,10 +19221,10 @@
         <v>0</v>
       </c>
       <c r="K68" s="1" t="s">
-        <v>319</v>
+        <v>301</v>
       </c>
       <c r="L68" s="1" t="s">
-        <v>320</v>
+        <v>302</v>
       </c>
       <c r="M68" s="1"/>
       <c r="N68" s="1" t="str">
@@ -19355,7 +19232,7 @@
         <v>通常攻撃(魔法)</v>
       </c>
       <c r="O68" s="1" t="s">
-        <v>451</v>
+        <v>420</v>
       </c>
       <c r="P68" s="1"/>
       <c r="Q68" s="1"/>
@@ -19366,7 +19243,7 @@
         <v>68</v>
       </c>
       <c r="B69" s="1" t="s">
-        <v>298</v>
+        <v>280</v>
       </c>
       <c r="C69" s="1">
         <v>6200</v>
@@ -19393,10 +19270,10 @@
         <v>0</v>
       </c>
       <c r="K69" s="1" t="s">
-        <v>296</v>
+        <v>278</v>
       </c>
       <c r="L69" s="1" t="s">
-        <v>296</v>
+        <v>278</v>
       </c>
       <c r="M69" s="1"/>
       <c r="N69" s="1" t="str">
@@ -19404,7 +19281,7 @@
         <v>通常攻撃(物理)</v>
       </c>
       <c r="O69" s="1" t="s">
-        <v>443</v>
+        <v>412</v>
       </c>
       <c r="P69" s="1"/>
       <c r="Q69" s="1"/>
@@ -19415,7 +19292,7 @@
         <v>69</v>
       </c>
       <c r="B70" s="1" t="s">
-        <v>299</v>
+        <v>281</v>
       </c>
       <c r="C70" s="1">
         <v>3000</v>
@@ -19442,10 +19319,10 @@
         <v>0</v>
       </c>
       <c r="K70" s="1" t="s">
-        <v>296</v>
+        <v>278</v>
       </c>
       <c r="L70" s="1" t="s">
-        <v>296</v>
+        <v>278</v>
       </c>
       <c r="M70" s="1"/>
       <c r="N70" s="1" t="str">
@@ -19462,7 +19339,7 @@
         <v>70</v>
       </c>
       <c r="B71" s="1" t="s">
-        <v>321</v>
+        <v>303</v>
       </c>
       <c r="C71" s="1">
         <v>3800</v>
@@ -19489,10 +19366,10 @@
         <v>0</v>
       </c>
       <c r="K71" s="1" t="s">
-        <v>296</v>
+        <v>278</v>
       </c>
       <c r="L71" s="1" t="s">
-        <v>296</v>
+        <v>278</v>
       </c>
       <c r="M71" s="1"/>
       <c r="N71" s="1" t="str">
@@ -19509,7 +19386,7 @@
         <v>71</v>
       </c>
       <c r="B72" s="1" t="s">
-        <v>322</v>
+        <v>304</v>
       </c>
       <c r="C72" s="1">
         <v>5000</v>
@@ -19536,10 +19413,10 @@
         <v>0</v>
       </c>
       <c r="K72" s="1" t="s">
-        <v>296</v>
+        <v>278</v>
       </c>
       <c r="L72" s="1" t="s">
-        <v>296</v>
+        <v>278</v>
       </c>
       <c r="M72" s="1"/>
       <c r="N72" s="1" t="str">
@@ -19547,7 +19424,7 @@
         <v>通常攻撃(物理)</v>
       </c>
       <c r="O72" s="1" t="s">
-        <v>455</v>
+        <v>423</v>
       </c>
       <c r="P72" s="1"/>
       <c r="Q72" s="1"/>
@@ -19558,7 +19435,7 @@
         <v>72</v>
       </c>
       <c r="B73" s="1" t="s">
-        <v>300</v>
+        <v>282</v>
       </c>
       <c r="C73" s="1">
         <v>38000</v>
@@ -19585,10 +19462,10 @@
         <v>0</v>
       </c>
       <c r="K73" s="1" t="s">
-        <v>296</v>
+        <v>278</v>
       </c>
       <c r="L73" s="1" t="s">
-        <v>296</v>
+        <v>278</v>
       </c>
       <c r="M73" s="1"/>
       <c r="N73" s="1" t="str">
@@ -19596,10 +19473,10 @@
         <v>通常攻撃(物理)</v>
       </c>
       <c r="O73" s="1" t="s">
-        <v>456</v>
+        <v>424</v>
       </c>
       <c r="P73" s="1" t="s">
-        <v>457</v>
+        <v>425</v>
       </c>
       <c r="Q73" s="1"/>
       <c r="R73" s="19"/>
@@ -19609,7 +19486,7 @@
         <v>73</v>
       </c>
       <c r="B74" s="1" t="s">
-        <v>458</v>
+        <v>426</v>
       </c>
       <c r="C74" s="1">
         <v>6500</v>
@@ -19636,10 +19513,10 @@
         <v>0</v>
       </c>
       <c r="K74" s="1" t="s">
-        <v>296</v>
+        <v>278</v>
       </c>
       <c r="L74" s="1" t="s">
-        <v>296</v>
+        <v>278</v>
       </c>
       <c r="M74" s="1"/>
       <c r="N74" s="1" t="str">
@@ -19647,7 +19524,7 @@
         <v>通常攻撃(物理)</v>
       </c>
       <c r="O74" s="1" t="s">
-        <v>428</v>
+        <v>399</v>
       </c>
       <c r="P74" s="1"/>
       <c r="Q74" s="1"/>
@@ -19658,7 +19535,7 @@
         <v>74</v>
       </c>
       <c r="B75" s="1" t="s">
-        <v>301</v>
+        <v>283</v>
       </c>
       <c r="C75" s="1">
         <v>500</v>
@@ -19685,10 +19562,10 @@
         <v>0</v>
       </c>
       <c r="K75" s="1" t="s">
-        <v>319</v>
+        <v>301</v>
       </c>
       <c r="L75" s="1" t="s">
-        <v>320</v>
+        <v>302</v>
       </c>
       <c r="M75" s="1"/>
       <c r="N75" s="1" t="str">
@@ -19696,7 +19573,7 @@
         <v>通常攻撃(魔法)</v>
       </c>
       <c r="O75" s="1" t="s">
-        <v>431</v>
+        <v>402</v>
       </c>
       <c r="P75" s="1"/>
       <c r="Q75" s="1"/>
@@ -19707,7 +19584,7 @@
         <v>75</v>
       </c>
       <c r="B76" s="1" t="s">
-        <v>303</v>
+        <v>285</v>
       </c>
       <c r="C76" s="1">
         <v>5200</v>
@@ -19734,10 +19611,10 @@
         <v>0</v>
       </c>
       <c r="K76" s="1" t="s">
-        <v>296</v>
+        <v>278</v>
       </c>
       <c r="L76" s="1" t="s">
-        <v>296</v>
+        <v>278</v>
       </c>
       <c r="M76" s="1"/>
       <c r="N76" s="1" t="str">
@@ -19745,7 +19622,7 @@
         <v>通常攻撃(物理)</v>
       </c>
       <c r="O76" s="1" t="s">
-        <v>385</v>
+        <v>358</v>
       </c>
       <c r="P76" s="1"/>
       <c r="Q76" s="1"/>
@@ -19756,7 +19633,7 @@
         <v>76</v>
       </c>
       <c r="B77" s="1" t="s">
-        <v>304</v>
+        <v>286</v>
       </c>
       <c r="C77" s="1">
         <v>6666</v>
@@ -19783,20 +19660,20 @@
         <v>0</v>
       </c>
       <c r="K77" s="1" t="s">
-        <v>296</v>
+        <v>278</v>
       </c>
       <c r="L77" s="1" t="s">
-        <v>296</v>
+        <v>278</v>
       </c>
       <c r="M77" s="1" t="s">
-        <v>325</v>
+        <v>307</v>
       </c>
       <c r="N77" s="1" t="str">
         <f t="shared" si="1"/>
         <v>通常攻撃(物理)</v>
       </c>
       <c r="O77" s="1" t="s">
-        <v>461</v>
+        <v>429</v>
       </c>
       <c r="P77" s="1"/>
       <c r="Q77" s="1"/>
@@ -19807,7 +19684,7 @@
         <v>77</v>
       </c>
       <c r="B78" s="1" t="s">
-        <v>305</v>
+        <v>287</v>
       </c>
       <c r="C78" s="1">
         <v>6666</v>
@@ -19834,20 +19711,20 @@
         <v>40</v>
       </c>
       <c r="K78" s="1" t="s">
-        <v>296</v>
+        <v>278</v>
       </c>
       <c r="L78" s="1" t="s">
-        <v>296</v>
+        <v>278</v>
       </c>
       <c r="M78" s="1" t="s">
-        <v>324</v>
+        <v>306</v>
       </c>
       <c r="N78" s="1" t="str">
         <f t="shared" si="1"/>
         <v>通常攻撃(物理)</v>
       </c>
       <c r="O78" s="1" t="s">
-        <v>462</v>
+        <v>430</v>
       </c>
       <c r="P78" s="1"/>
       <c r="Q78" s="1"/>
@@ -19858,7 +19735,7 @@
         <v>78</v>
       </c>
       <c r="B79" s="1" t="s">
-        <v>306</v>
+        <v>288</v>
       </c>
       <c r="C79" s="1">
         <v>6666</v>
@@ -19885,20 +19762,20 @@
         <v>32</v>
       </c>
       <c r="K79" s="1" t="s">
-        <v>296</v>
+        <v>278</v>
       </c>
       <c r="L79" s="1" t="s">
-        <v>296</v>
+        <v>278</v>
       </c>
       <c r="M79" s="1" t="s">
-        <v>323</v>
+        <v>305</v>
       </c>
       <c r="N79" s="1" t="str">
         <f t="shared" si="1"/>
         <v>通常攻撃(魔法)</v>
       </c>
       <c r="O79" s="1" t="s">
-        <v>463</v>
+        <v>431</v>
       </c>
       <c r="P79" s="1"/>
       <c r="Q79" s="1"/>
@@ -19909,7 +19786,7 @@
         <v>79</v>
       </c>
       <c r="B80" s="4" t="s">
-        <v>307</v>
+        <v>289</v>
       </c>
       <c r="C80" s="1">
         <v>4300</v>
@@ -19936,10 +19813,10 @@
         <v>0</v>
       </c>
       <c r="K80" s="1" t="s">
-        <v>296</v>
+        <v>278</v>
       </c>
       <c r="L80" s="1" t="s">
-        <v>296</v>
+        <v>278</v>
       </c>
       <c r="M80" s="1"/>
       <c r="N80" s="1" t="str">
@@ -19947,7 +19824,7 @@
         <v>通常攻撃(物理)</v>
       </c>
       <c r="O80" s="1" t="s">
-        <v>447</v>
+        <v>416</v>
       </c>
       <c r="P80" s="1"/>
       <c r="Q80" s="1"/>
@@ -19958,7 +19835,7 @@
         <v>80</v>
       </c>
       <c r="B81" s="3" t="s">
-        <v>326</v>
+        <v>308</v>
       </c>
       <c r="C81" s="1">
         <v>5321</v>
@@ -19985,19 +19862,19 @@
         <v>0</v>
       </c>
       <c r="K81" s="1" t="s">
-        <v>296</v>
+        <v>278</v>
       </c>
       <c r="L81" s="1" t="s">
-        <v>296</v>
+        <v>278</v>
       </c>
       <c r="M81" s="1" t="s">
-        <v>194</v>
+        <v>189</v>
       </c>
       <c r="N81" s="1" t="s">
-        <v>467</v>
+        <v>435</v>
       </c>
       <c r="O81" s="1" t="s">
-        <v>464</v>
+        <v>432</v>
       </c>
       <c r="P81" s="1"/>
       <c r="Q81" s="1"/>
@@ -20008,7 +19885,7 @@
         <v>81</v>
       </c>
       <c r="B82" s="1" t="s">
-        <v>327</v>
+        <v>309</v>
       </c>
       <c r="C82" s="1">
         <v>6100</v>
@@ -20035,19 +19912,19 @@
         <v>0</v>
       </c>
       <c r="K82" s="1" t="s">
-        <v>296</v>
+        <v>278</v>
       </c>
       <c r="L82" s="1" t="s">
-        <v>296</v>
+        <v>278</v>
       </c>
       <c r="M82" s="1" t="s">
-        <v>324</v>
+        <v>306</v>
       </c>
       <c r="N82" s="1" t="s">
-        <v>467</v>
+        <v>435</v>
       </c>
       <c r="O82" s="1" t="s">
-        <v>465</v>
+        <v>433</v>
       </c>
       <c r="P82" s="1"/>
       <c r="Q82" s="1"/>
@@ -20058,7 +19935,7 @@
         <v>82</v>
       </c>
       <c r="B83" s="1" t="s">
-        <v>328</v>
+        <v>310</v>
       </c>
       <c r="C83" s="1">
         <v>5800</v>
@@ -20085,19 +19962,19 @@
         <v>0</v>
       </c>
       <c r="K83" s="1" t="s">
-        <v>296</v>
+        <v>278</v>
       </c>
       <c r="L83" s="1" t="s">
-        <v>296</v>
+        <v>278</v>
       </c>
       <c r="M83" s="1" t="s">
-        <v>323</v>
+        <v>305</v>
       </c>
       <c r="N83" s="1" t="s">
-        <v>467</v>
+        <v>435</v>
       </c>
       <c r="O83" s="1" t="s">
-        <v>466</v>
+        <v>434</v>
       </c>
       <c r="P83" s="1"/>
       <c r="Q83" s="1"/>
@@ -20108,7 +19985,7 @@
         <v>83</v>
       </c>
       <c r="B84" s="1" t="s">
-        <v>308</v>
+        <v>290</v>
       </c>
       <c r="C84" s="1">
         <v>7100</v>
@@ -20135,10 +20012,10 @@
         <v>0</v>
       </c>
       <c r="K84" s="1" t="s">
-        <v>296</v>
+        <v>278</v>
       </c>
       <c r="L84" s="1" t="s">
-        <v>296</v>
+        <v>278</v>
       </c>
       <c r="M84" s="1"/>
       <c r="N84" s="1" t="str">
@@ -20155,7 +20032,7 @@
         <v>84</v>
       </c>
       <c r="B85" s="1" t="s">
-        <v>329</v>
+        <v>311</v>
       </c>
       <c r="C85" s="1">
         <v>40000</v>
@@ -20182,10 +20059,10 @@
         <v>0</v>
       </c>
       <c r="K85" s="1" t="s">
-        <v>296</v>
+        <v>278</v>
       </c>
       <c r="L85" s="1" t="s">
-        <v>296</v>
+        <v>278</v>
       </c>
       <c r="M85" s="1"/>
       <c r="N85" s="1" t="str">
@@ -20193,13 +20070,13 @@
         <v>通常攻撃(物理)</v>
       </c>
       <c r="O85" s="8" t="s">
-        <v>460</v>
+        <v>428</v>
       </c>
       <c r="P85" s="1" t="s">
-        <v>468</v>
+        <v>436</v>
       </c>
       <c r="Q85" s="1" t="s">
-        <v>459</v>
+        <v>427</v>
       </c>
       <c r="R85" s="19"/>
     </row>
@@ -20208,7 +20085,7 @@
         <v>85</v>
       </c>
       <c r="B86" s="3" t="s">
-        <v>309</v>
+        <v>291</v>
       </c>
       <c r="C86" s="1">
         <v>9000</v>
@@ -20235,10 +20112,10 @@
         <v>0</v>
       </c>
       <c r="K86" s="1" t="s">
-        <v>296</v>
+        <v>278</v>
       </c>
       <c r="L86" s="1" t="s">
-        <v>296</v>
+        <v>278</v>
       </c>
       <c r="M86" s="1"/>
       <c r="N86" s="1" t="str">
@@ -20246,7 +20123,7 @@
         <v>通常攻撃(物理)</v>
       </c>
       <c r="O86" s="1" t="s">
-        <v>479</v>
+        <v>445</v>
       </c>
       <c r="P86" s="1"/>
       <c r="Q86" s="1"/>
@@ -20257,7 +20134,7 @@
         <v>86</v>
       </c>
       <c r="B87" s="1" t="s">
-        <v>310</v>
+        <v>292</v>
       </c>
       <c r="C87" s="1">
         <v>3800</v>
@@ -20284,10 +20161,10 @@
         <v>0</v>
       </c>
       <c r="K87" s="1" t="s">
-        <v>296</v>
+        <v>278</v>
       </c>
       <c r="L87" s="1" t="s">
-        <v>296</v>
+        <v>278</v>
       </c>
       <c r="M87" s="1"/>
       <c r="N87" s="1" t="str">
@@ -20295,7 +20172,7 @@
         <v>通常攻撃(物理)</v>
       </c>
       <c r="O87" s="1" t="s">
-        <v>480</v>
+        <v>446</v>
       </c>
       <c r="P87" s="1"/>
       <c r="Q87" s="1"/>
@@ -20306,7 +20183,7 @@
         <v>87</v>
       </c>
       <c r="B88" s="1" t="s">
-        <v>311</v>
+        <v>293</v>
       </c>
       <c r="C88" s="1">
         <v>6700</v>
@@ -20333,10 +20210,10 @@
         <v>0</v>
       </c>
       <c r="K88" s="1" t="s">
-        <v>296</v>
+        <v>278</v>
       </c>
       <c r="L88" s="1" t="s">
-        <v>296</v>
+        <v>278</v>
       </c>
       <c r="M88" s="1"/>
       <c r="N88" s="1" t="str">
@@ -20344,7 +20221,7 @@
         <v>通常攻撃(物理)</v>
       </c>
       <c r="O88" s="1" t="s">
-        <v>428</v>
+        <v>399</v>
       </c>
       <c r="P88" s="1"/>
       <c r="Q88" s="1"/>
@@ -20355,7 +20232,7 @@
         <v>88</v>
       </c>
       <c r="B89" s="1" t="s">
-        <v>312</v>
+        <v>294</v>
       </c>
       <c r="C89" s="1">
         <v>4800</v>
@@ -20382,26 +20259,26 @@
         <v>0</v>
       </c>
       <c r="K89" s="1" t="s">
-        <v>296</v>
+        <v>278</v>
       </c>
       <c r="L89" s="1" t="s">
-        <v>296</v>
+        <v>278</v>
       </c>
       <c r="M89" s="1" t="s">
-        <v>323</v>
+        <v>305</v>
       </c>
       <c r="N89" s="1" t="str">
         <f t="shared" si="1"/>
         <v>通常攻撃(物理)</v>
       </c>
       <c r="O89" s="1" t="s">
-        <v>478</v>
+        <v>444</v>
       </c>
       <c r="P89" s="1" t="s">
-        <v>475</v>
+        <v>442</v>
       </c>
       <c r="Q89" s="1" t="s">
-        <v>436</v>
+        <v>406</v>
       </c>
       <c r="R89" s="19"/>
     </row>
@@ -20410,7 +20287,7 @@
         <v>89</v>
       </c>
       <c r="B90" s="1" t="s">
-        <v>313</v>
+        <v>295</v>
       </c>
       <c r="C90" s="1">
         <v>7777</v>
@@ -20437,10 +20314,10 @@
         <v>0</v>
       </c>
       <c r="K90" s="1" t="s">
-        <v>296</v>
+        <v>278</v>
       </c>
       <c r="L90" s="1" t="s">
-        <v>296</v>
+        <v>278</v>
       </c>
       <c r="M90" s="1"/>
       <c r="N90" s="1" t="str">
@@ -20457,7 +20334,7 @@
         <v>90</v>
       </c>
       <c r="B91" s="1" t="s">
-        <v>314</v>
+        <v>296</v>
       </c>
       <c r="C91" s="1">
         <v>8000</v>
@@ -20484,10 +20361,10 @@
         <v>0</v>
       </c>
       <c r="K91" s="1" t="s">
-        <v>296</v>
+        <v>278</v>
       </c>
       <c r="L91" s="1" t="s">
-        <v>296</v>
+        <v>278</v>
       </c>
       <c r="M91" s="1"/>
       <c r="N91" s="1" t="str">
@@ -20504,7 +20381,7 @@
         <v>91</v>
       </c>
       <c r="B92" s="1" t="s">
-        <v>315</v>
+        <v>297</v>
       </c>
       <c r="C92" s="1">
         <v>6500</v>
@@ -20531,10 +20408,10 @@
         <v>0</v>
       </c>
       <c r="K92" s="1" t="s">
-        <v>296</v>
+        <v>278</v>
       </c>
       <c r="L92" s="1" t="s">
-        <v>296</v>
+        <v>278</v>
       </c>
       <c r="M92" s="1"/>
       <c r="N92" s="1" t="str">
@@ -20542,7 +20419,7 @@
         <v>通常攻撃(魔法)</v>
       </c>
       <c r="O92" s="1" t="s">
-        <v>481</v>
+        <v>447</v>
       </c>
       <c r="P92" s="1"/>
       <c r="Q92" s="1"/>
@@ -20553,7 +20430,7 @@
         <v>92</v>
       </c>
       <c r="B93" s="1" t="s">
-        <v>316</v>
+        <v>298</v>
       </c>
       <c r="C93" s="1">
         <v>3200</v>
@@ -20580,23 +20457,23 @@
         <v>0</v>
       </c>
       <c r="K93" s="1" t="s">
-        <v>296</v>
+        <v>278</v>
       </c>
       <c r="L93" s="1" t="s">
-        <v>296</v>
+        <v>278</v>
       </c>
       <c r="M93" s="1" t="s">
-        <v>484</v>
+        <v>450</v>
       </c>
       <c r="N93" s="1" t="str">
         <f t="shared" si="1"/>
         <v>通常攻撃(物理)</v>
       </c>
       <c r="O93" s="1" t="s">
-        <v>442</v>
+        <v>411</v>
       </c>
       <c r="P93" s="1" t="s">
-        <v>444</v>
+        <v>413</v>
       </c>
       <c r="Q93" s="1"/>
       <c r="R93" s="19"/>
@@ -20606,7 +20483,7 @@
         <v>93</v>
       </c>
       <c r="B94" s="3" t="s">
-        <v>317</v>
+        <v>299</v>
       </c>
       <c r="C94" s="1">
         <v>3500</v>
@@ -20633,23 +20510,23 @@
         <v>0</v>
       </c>
       <c r="K94" s="1" t="s">
-        <v>296</v>
+        <v>278</v>
       </c>
       <c r="L94" s="1" t="s">
-        <v>296</v>
+        <v>278</v>
       </c>
       <c r="M94" s="1" t="s">
-        <v>483</v>
+        <v>449</v>
       </c>
       <c r="N94" s="1" t="str">
         <f t="shared" si="1"/>
         <v>通常攻撃(魔法)</v>
       </c>
       <c r="O94" s="1" t="s">
-        <v>482</v>
+        <v>448</v>
       </c>
       <c r="P94" s="1" t="s">
-        <v>485</v>
+        <v>451</v>
       </c>
       <c r="Q94" s="1"/>
       <c r="R94" s="19"/>
@@ -20659,7 +20536,7 @@
         <v>94</v>
       </c>
       <c r="B95" s="4" t="s">
-        <v>330</v>
+        <v>312</v>
       </c>
       <c r="C95" s="1">
         <v>36000</v>
@@ -20686,10 +20563,10 @@
         <v>0</v>
       </c>
       <c r="K95" s="1" t="s">
-        <v>296</v>
+        <v>278</v>
       </c>
       <c r="L95" s="1" t="s">
-        <v>296</v>
+        <v>278</v>
       </c>
       <c r="M95" s="1"/>
       <c r="N95" s="1" t="str">
@@ -20697,13 +20574,13 @@
         <v>通常攻撃(物理)</v>
       </c>
       <c r="O95" s="1" t="s">
-        <v>486</v>
+        <v>452</v>
       </c>
       <c r="P95" s="1" t="s">
-        <v>492</v>
+        <v>457</v>
       </c>
       <c r="Q95" s="1" t="s">
-        <v>495</v>
+        <v>460</v>
       </c>
       <c r="R95" s="19"/>
     </row>
@@ -20712,7 +20589,7 @@
         <v>95</v>
       </c>
       <c r="B96" s="4" t="s">
-        <v>348</v>
+        <v>330</v>
       </c>
       <c r="C96" s="1">
         <v>30000</v>
@@ -20739,10 +20616,10 @@
         <v>0</v>
       </c>
       <c r="K96" s="1" t="s">
-        <v>349</v>
+        <v>331</v>
       </c>
       <c r="L96" s="1" t="s">
-        <v>350</v>
+        <v>332</v>
       </c>
       <c r="M96" s="1"/>
       <c r="N96" s="1" t="str">
@@ -20750,13 +20627,13 @@
         <v>通常攻撃(物理)</v>
       </c>
       <c r="O96" s="1" t="s">
-        <v>487</v>
+        <v>453</v>
       </c>
       <c r="P96" s="1" t="s">
-        <v>489</v>
+        <v>455</v>
       </c>
       <c r="Q96" s="1" t="s">
-        <v>453</v>
+        <v>422</v>
       </c>
       <c r="R96" s="19"/>
     </row>
@@ -20765,7 +20642,7 @@
         <v>96</v>
       </c>
       <c r="B97" s="21" t="s">
-        <v>318</v>
+        <v>300</v>
       </c>
       <c r="C97" s="21">
         <v>99999</v>
@@ -20792,14 +20669,14 @@
         <v>0</v>
       </c>
       <c r="K97" s="21" t="s">
-        <v>295</v>
+        <v>277</v>
       </c>
       <c r="L97" s="21" t="s">
-        <v>295</v>
+        <v>277</v>
       </c>
       <c r="M97" s="21"/>
       <c r="N97" s="81" t="s">
-        <v>504</v>
+        <v>468</v>
       </c>
       <c r="O97" s="82"/>
       <c r="P97" s="82"/>
@@ -20809,7 +20686,7 @@
     <row r="101" spans="1:18" x14ac:dyDescent="0.4">
       <c r="A101" s="1"/>
       <c r="B101" s="1" t="s">
-        <v>154</v>
+        <v>150</v>
       </c>
       <c r="C101" s="1" t="s">
         <v>2</v>
@@ -20818,51 +20695,51 @@
         <v>3</v>
       </c>
       <c r="E101" s="1" t="s">
+        <v>551</v>
+      </c>
+      <c r="F101" s="1" t="s">
+        <v>559</v>
+      </c>
+      <c r="G101" s="1" t="s">
+        <v>565</v>
+      </c>
+      <c r="H101" s="1" t="s">
+        <v>572</v>
+      </c>
+      <c r="I101" s="1" t="s">
+        <v>578</v>
+      </c>
+      <c r="J101" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="F101" s="1" t="s">
-        <v>203</v>
-      </c>
-      <c r="G101" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="H101" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="I101" s="1" t="s">
-        <v>212</v>
-      </c>
-      <c r="J101" s="1" t="s">
-        <v>7</v>
-      </c>
       <c r="K101" s="4" t="s">
-        <v>170</v>
+        <v>165</v>
       </c>
       <c r="L101" s="4" t="s">
-        <v>159</v>
+        <v>154</v>
       </c>
       <c r="M101" s="4" t="s">
+        <v>179</v>
+      </c>
+      <c r="N101" s="4" t="s">
+        <v>183</v>
+      </c>
+      <c r="O101" s="4" t="s">
         <v>184</v>
       </c>
-      <c r="N101" s="4" t="s">
-        <v>188</v>
-      </c>
-      <c r="O101" s="4" t="s">
-        <v>189</v>
-      </c>
       <c r="P101" s="4" t="s">
-        <v>190</v>
+        <v>185</v>
       </c>
       <c r="Q101" s="4" t="s">
-        <v>191</v>
+        <v>186</v>
       </c>
       <c r="R101" s="4" t="s">
-        <v>22</v>
+        <v>18</v>
       </c>
     </row>
     <row r="109" spans="1:18" x14ac:dyDescent="0.4">
       <c r="G109" t="s">
-        <v>195</v>
+        <v>190</v>
       </c>
     </row>
   </sheetData>
@@ -20879,7 +20756,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
   <dimension ref="A1:G51"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView topLeftCell="A13" workbookViewId="0">
+      <selection activeCell="G41" sqref="G41"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
   <cols>
@@ -20897,22 +20776,22 @@
         <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>180</v>
+        <v>175</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>43</v>
+        <v>39</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>64</v>
+        <v>60</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>79</v>
+        <v>75</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>152</v>
+        <v>148</v>
       </c>
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.4">
@@ -20940,7 +20819,7 @@
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A3" s="1" t="s">
-        <v>155</v>
+        <v>151</v>
       </c>
       <c r="B3" s="1">
         <v>220</v>
@@ -20963,7 +20842,7 @@
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A4" s="1" t="s">
-        <v>214</v>
+        <v>201</v>
       </c>
       <c r="B4" s="1">
         <v>100</v>
@@ -20986,7 +20865,7 @@
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A5" s="1" t="s">
-        <v>204</v>
+        <v>551</v>
       </c>
       <c r="B5" s="1">
         <v>80</v>
@@ -21009,7 +20888,7 @@
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A6" s="1" t="s">
-        <v>203</v>
+        <v>559</v>
       </c>
       <c r="B6" s="1">
         <v>60</v>
@@ -21032,7 +20911,7 @@
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A7" s="1" t="s">
-        <v>5</v>
+        <v>565</v>
       </c>
       <c r="B7" s="1">
         <v>75</v>
@@ -21055,7 +20934,7 @@
     </row>
     <row r="8" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A8" s="1" t="s">
-        <v>213</v>
+        <v>572</v>
       </c>
       <c r="B8" s="1">
         <v>15</v>
@@ -21078,7 +20957,7 @@
     </row>
     <row r="9" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A9" s="1" t="s">
-        <v>212</v>
+        <v>578</v>
       </c>
       <c r="B9" s="1">
         <v>50</v>
@@ -21101,7 +20980,7 @@
     </row>
     <row r="10" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A10" s="1" t="s">
-        <v>192</v>
+        <v>187</v>
       </c>
       <c r="B10" s="1">
         <v>90</v>
@@ -21124,7 +21003,7 @@
     </row>
     <row r="11" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A11" s="4" t="s">
-        <v>569</v>
+        <v>513</v>
       </c>
       <c r="B11" s="4">
         <v>1</v>
@@ -21158,30 +21037,30 @@
     </row>
     <row r="14" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A14" s="1" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="B14" s="1" t="s">
-        <v>180</v>
+        <v>175</v>
       </c>
       <c r="C14" s="1" t="s">
-        <v>43</v>
+        <v>39</v>
       </c>
       <c r="D14" s="1" t="s">
-        <v>64</v>
+        <v>60</v>
       </c>
       <c r="E14" s="1" t="s">
-        <v>79</v>
+        <v>75</v>
       </c>
       <c r="F14" s="1" t="s">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="G14" s="1" t="s">
-        <v>152</v>
+        <v>148</v>
       </c>
     </row>
     <row r="15" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A15" s="1" t="s">
-        <v>155</v>
+        <v>151</v>
       </c>
       <c r="B15" s="1">
         <v>42</v>
@@ -21204,7 +21083,7 @@
     </row>
     <row r="16" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A16" s="1" t="s">
-        <v>156</v>
+        <v>152</v>
       </c>
       <c r="B16" s="1">
         <v>3.5</v>
@@ -21227,7 +21106,7 @@
     </row>
     <row r="17" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A17" s="1" t="s">
-        <v>157</v>
+        <v>551</v>
       </c>
       <c r="B17" s="1">
         <v>8.5</v>
@@ -21250,7 +21129,7 @@
     </row>
     <row r="18" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A18" s="1" t="s">
-        <v>203</v>
+        <v>559</v>
       </c>
       <c r="B18" s="1">
         <v>2.5</v>
@@ -21273,7 +21152,7 @@
     </row>
     <row r="19" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A19" s="1" t="s">
-        <v>5</v>
+        <v>565</v>
       </c>
       <c r="B19" s="1">
         <v>4.8</v>
@@ -21296,7 +21175,7 @@
     </row>
     <row r="20" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A20" s="1" t="s">
-        <v>213</v>
+        <v>572</v>
       </c>
       <c r="B20" s="1">
         <v>1</v>
@@ -21319,7 +21198,7 @@
     </row>
     <row r="21" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A21" s="1" t="s">
-        <v>212</v>
+        <v>578</v>
       </c>
       <c r="B21" s="1">
         <v>2.8</v>
@@ -21342,7 +21221,7 @@
     </row>
     <row r="22" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A22" s="1" t="s">
-        <v>192</v>
+        <v>187</v>
       </c>
       <c r="B22" s="1">
         <v>5.5</v>
@@ -21366,27 +21245,27 @@
     <row r="24" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A24" s="1"/>
       <c r="B24" s="1" t="s">
-        <v>180</v>
+        <v>175</v>
       </c>
       <c r="C24" s="1" t="s">
-        <v>43</v>
+        <v>39</v>
       </c>
       <c r="D24" s="1" t="s">
-        <v>64</v>
+        <v>60</v>
       </c>
       <c r="E24" s="1" t="s">
-        <v>79</v>
+        <v>75</v>
       </c>
       <c r="F24" s="1" t="s">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="G24" s="1" t="s">
-        <v>152</v>
+        <v>148</v>
       </c>
     </row>
     <row r="25" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A25" s="1" t="s">
-        <v>209</v>
+        <v>199</v>
       </c>
       <c r="B25" s="2">
         <f t="shared" ref="B25:G32" si="0">SUM(B15*98+B3)</f>
@@ -21415,7 +21294,7 @@
     </row>
     <row r="26" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A26" s="1" t="s">
-        <v>211</v>
+        <v>200</v>
       </c>
       <c r="B26" s="2">
         <f t="shared" si="0"/>
@@ -21444,7 +21323,7 @@
     </row>
     <row r="27" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A27" s="1" t="s">
-        <v>210</v>
+        <v>554</v>
       </c>
       <c r="B27" s="2">
         <f t="shared" si="0"/>
@@ -21473,7 +21352,7 @@
     </row>
     <row r="28" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A28" s="1" t="s">
-        <v>205</v>
+        <v>560</v>
       </c>
       <c r="B28" s="2">
         <f t="shared" si="0"/>
@@ -21502,7 +21381,7 @@
     </row>
     <row r="29" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A29" s="1" t="s">
-        <v>206</v>
+        <v>566</v>
       </c>
       <c r="B29" s="2">
         <f t="shared" si="0"/>
@@ -21531,7 +21410,7 @@
     </row>
     <row r="30" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A30" s="1" t="s">
-        <v>13</v>
+        <v>573</v>
       </c>
       <c r="B30" s="2">
         <f t="shared" si="0"/>
@@ -21560,7 +21439,7 @@
     </row>
     <row r="31" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A31" s="1" t="s">
-        <v>207</v>
+        <v>579</v>
       </c>
       <c r="B31" s="2">
         <f t="shared" si="0"/>
@@ -21589,7 +21468,7 @@
     </row>
     <row r="32" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A32" s="1" t="s">
-        <v>208</v>
+        <v>198</v>
       </c>
       <c r="B32" s="2">
         <f t="shared" si="0"/>
@@ -21618,7 +21497,7 @@
     </row>
     <row r="33" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A33" s="1" t="s">
-        <v>14</v>
+        <v>10</v>
       </c>
       <c r="B33" s="2">
         <f t="shared" ref="B33:G33" si="1">SUM(B25:B32)</f>
@@ -21666,27 +21545,27 @@
   <sheetData>
     <row r="1" spans="2:7" x14ac:dyDescent="0.4">
       <c r="B1" t="s">
-        <v>183</v>
+        <v>178</v>
       </c>
     </row>
     <row r="2" spans="2:7" x14ac:dyDescent="0.4">
       <c r="B2" s="1" t="s">
-        <v>161</v>
+        <v>156</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>253</v>
+        <v>236</v>
       </c>
       <c r="D2" s="1" t="s">
-        <v>162</v>
+        <v>157</v>
       </c>
       <c r="E2" s="1" t="s">
-        <v>29</v>
+        <v>25</v>
       </c>
       <c r="F2" s="1" t="s">
-        <v>163</v>
+        <v>158</v>
       </c>
       <c r="G2" s="1" t="s">
-        <v>164</v>
+        <v>159</v>
       </c>
     </row>
     <row r="3" spans="2:7" x14ac:dyDescent="0.4">
@@ -21711,19 +21590,19 @@
     </row>
     <row r="5" spans="2:7" x14ac:dyDescent="0.4">
       <c r="B5" s="8" t="s">
-        <v>249</v>
+        <v>232</v>
       </c>
       <c r="C5" s="8"/>
     </row>
     <row r="6" spans="2:7" x14ac:dyDescent="0.4">
       <c r="B6" s="1" t="s">
-        <v>252</v>
+        <v>235</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>251</v>
+        <v>234</v>
       </c>
       <c r="D6" s="1" t="s">
-        <v>250</v>
+        <v>233</v>
       </c>
     </row>
     <row r="7" spans="2:7" x14ac:dyDescent="0.4">
@@ -21748,7 +21627,9 @@
   <sheetPr codeName="Sheet4"/>
   <dimension ref="A1:L30"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D14" sqref="D14"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
   <cols>
@@ -21765,7 +21646,7 @@
   <sheetData>
     <row r="1" spans="1:12" x14ac:dyDescent="0.4">
       <c r="A1" s="1" t="s">
-        <v>48</v>
+        <v>44</v>
       </c>
       <c r="B1" s="1"/>
       <c r="C1" s="8"/>
@@ -21773,30 +21654,30 @@
     </row>
     <row r="2" spans="1:12" x14ac:dyDescent="0.4">
       <c r="A2" s="1" t="s">
-        <v>49</v>
+        <v>45</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>180</v>
+        <v>175</v>
       </c>
       <c r="C2" s="8"/>
       <c r="D2" s="8"/>
       <c r="F2" s="1" t="s">
-        <v>49</v>
+        <v>45</v>
       </c>
       <c r="G2" s="1" t="s">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="I2" s="1" t="s">
-        <v>49</v>
+        <v>45</v>
       </c>
       <c r="J2" s="1" t="s">
-        <v>64</v>
+        <v>60</v>
       </c>
       <c r="K2" s="8"/>
     </row>
     <row r="3" spans="1:12" x14ac:dyDescent="0.4">
       <c r="A3" s="1" t="s">
-        <v>50</v>
+        <v>46</v>
       </c>
       <c r="B3" s="2">
         <v>15</v>
@@ -21804,13 +21685,13 @@
       <c r="C3" s="9"/>
       <c r="D3" s="9"/>
       <c r="F3" s="1" t="s">
-        <v>50</v>
+        <v>46</v>
       </c>
       <c r="G3" s="2">
         <v>15</v>
       </c>
       <c r="I3" s="1" t="s">
-        <v>50</v>
+        <v>46</v>
       </c>
       <c r="J3" s="2">
         <v>15</v>
@@ -21871,7 +21752,7 @@
     </row>
     <row r="6" spans="1:12" x14ac:dyDescent="0.4">
       <c r="A6" s="1" t="s">
-        <v>4</v>
+        <v>551</v>
       </c>
       <c r="B6" s="2">
         <f>INDEX('味方 '!$A$1:$G$10,MATCH(A6,'味方 '!$A$1:$A$10,0),MATCH($B$2,'味方 '!$A$1:$G$1,1))+($B$3-1)*INDEX('味方 '!$A$14:$G$22,MATCH(A6,'味方 '!$A$14:$A$22,0),MATCH($B$2,'味方 '!$A$14:$G$14,0))</f>
@@ -21880,14 +21761,14 @@
       <c r="C6" s="9"/>
       <c r="D6" s="9"/>
       <c r="F6" s="1" t="s">
-        <v>4</v>
+        <v>551</v>
       </c>
       <c r="G6" s="2">
         <f>INDEX('味方 '!$A$1:$G$10,MATCH(F6,'味方 '!$A$1:$A$10,0),MATCH($G$2,'味方 '!$A$1:$G$1,0))+($G$3-1)*INDEX('味方 '!$A$14:$G$22,MATCH(F6,'味方 '!$A$14:$A$22,0),MATCH($G$2,'味方 '!$A$14:$G$14,0))</f>
         <v>75</v>
       </c>
       <c r="I6" s="1" t="s">
-        <v>4</v>
+        <v>551</v>
       </c>
       <c r="J6" s="2">
         <f>INDEX('味方 '!$A$1:$G$10,MATCH(I6,'味方 '!$A$1:$A$10,0),MATCH($J$2,'味方 '!$A$1:$G$1,0))+($J$3-1)*INDEX('味方 '!$A$14:$G$22,MATCH(I6,'味方 '!$A$14:$A$22,0),MATCH($J$2,'味方 '!$A$14:$G$14,0))</f>
@@ -21897,7 +21778,7 @@
     </row>
     <row r="7" spans="1:12" x14ac:dyDescent="0.4">
       <c r="A7" s="1" t="s">
-        <v>217</v>
+        <v>559</v>
       </c>
       <c r="B7" s="2">
         <f>INDEX('味方 '!$A$1:$G$10,MATCH(A7,'味方 '!$A$1:$A$10,0),MATCH($B$2,'味方 '!$A$1:$G$1,1))+($B$3-1)*INDEX('味方 '!$A$14:$G$22,MATCH(A7,'味方 '!$A$14:$A$22,0),MATCH($B$2,'味方 '!$A$14:$G$14,0))</f>
@@ -21906,14 +21787,14 @@
       <c r="C7" s="9"/>
       <c r="D7" s="9"/>
       <c r="F7" s="1" t="s">
-        <v>217</v>
+        <v>559</v>
       </c>
       <c r="G7" s="2">
         <f>INDEX('味方 '!$A$1:$G$10,MATCH(F7,'味方 '!$A$1:$A$10,0),MATCH($G$2,'味方 '!$A$1:$G$1,0))+($G$3-1)*INDEX('味方 '!$A$14:$G$22,MATCH(F7,'味方 '!$A$14:$A$22,0),MATCH($G$2,'味方 '!$A$14:$G$14,0))</f>
         <v>84.199999999999989</v>
       </c>
       <c r="I7" s="1" t="s">
-        <v>217</v>
+        <v>559</v>
       </c>
       <c r="J7" s="2">
         <f>INDEX('味方 '!$A$1:$G$10,MATCH(I7,'味方 '!$A$1:$A$10,0),MATCH($J$2,'味方 '!$A$1:$G$1,0))+($J$3-1)*INDEX('味方 '!$A$14:$G$22,MATCH(I7,'味方 '!$A$14:$A$22,0),MATCH($J$2,'味方 '!$A$14:$G$14,0))</f>
@@ -21923,7 +21804,7 @@
     </row>
     <row r="8" spans="1:12" x14ac:dyDescent="0.4">
       <c r="A8" s="1" t="s">
-        <v>5</v>
+        <v>565</v>
       </c>
       <c r="B8" s="2">
         <f>INDEX('味方 '!$A$1:$G$10,MATCH(A8,'味方 '!$A$1:$A$10,0),MATCH($B$2,'味方 '!$A$1:$G$1,1))+($B$3-1)*INDEX('味方 '!$A$14:$G$22,MATCH(A8,'味方 '!$A$14:$A$22,0),MATCH($B$2,'味方 '!$A$14:$G$14,0))</f>
@@ -21932,14 +21813,14 @@
       <c r="C8" s="9"/>
       <c r="D8" s="9"/>
       <c r="F8" s="1" t="s">
-        <v>5</v>
+        <v>565</v>
       </c>
       <c r="G8" s="2">
         <f>INDEX('味方 '!$A$1:$G$10,MATCH(F8,'味方 '!$A$1:$A$10,0),MATCH($G$2,'味方 '!$A$1:$G$1,0))+($G$3-1)*INDEX('味方 '!$A$14:$G$22,MATCH(F8,'味方 '!$A$14:$A$22,0),MATCH($G$2,'味方 '!$A$14:$G$14,0))</f>
         <v>103.4</v>
       </c>
       <c r="I8" s="1" t="s">
-        <v>5</v>
+        <v>565</v>
       </c>
       <c r="J8" s="2">
         <f>INDEX('味方 '!$A$1:$G$10,MATCH(I8,'味方 '!$A$1:$A$10,0),MATCH($J$2,'味方 '!$A$1:$G$1,0))+($J$3-1)*INDEX('味方 '!$A$14:$G$22,MATCH(I8,'味方 '!$A$14:$A$22,0),MATCH($J$2,'味方 '!$A$14:$G$14,0))</f>
@@ -21949,7 +21830,7 @@
     </row>
     <row r="9" spans="1:12" x14ac:dyDescent="0.4">
       <c r="A9" s="1" t="s">
-        <v>6</v>
+        <v>572</v>
       </c>
       <c r="B9" s="2">
         <f>INDEX('味方 '!$A$1:$G$10,MATCH(A9,'味方 '!$A$1:$A$10,0),MATCH($B$2,'味方 '!$A$1:$G$1,1))+($B$3-1)*INDEX('味方 '!$A$14:$G$22,MATCH(A9,'味方 '!$A$14:$A$22,0),MATCH($B$2,'味方 '!$A$14:$G$14,0))</f>
@@ -21958,14 +21839,14 @@
       <c r="C9" s="9"/>
       <c r="D9" s="9"/>
       <c r="F9" s="1" t="s">
-        <v>6</v>
+        <v>572</v>
       </c>
       <c r="G9" s="2">
         <f>INDEX('味方 '!$A$1:$G$10,MATCH(F9,'味方 '!$A$1:$A$10,0),MATCH($G$2,'味方 '!$A$1:$G$1,0))+($G$3-1)*INDEX('味方 '!$A$14:$G$22,MATCH(F9,'味方 '!$A$14:$A$22,0),MATCH($G$2,'味方 '!$A$14:$G$14,0))</f>
         <v>180.60000000000002</v>
       </c>
       <c r="I9" s="1" t="s">
-        <v>6</v>
+        <v>572</v>
       </c>
       <c r="J9" s="2">
         <f>INDEX('味方 '!$A$1:$G$10,MATCH(I9,'味方 '!$A$1:$A$10,0),MATCH($J$2,'味方 '!$A$1:$G$1,0))+($J$3-1)*INDEX('味方 '!$A$14:$G$22,MATCH(I9,'味方 '!$A$14:$A$22,0),MATCH($J$2,'味方 '!$A$14:$G$14,0))</f>
@@ -21975,7 +21856,7 @@
     </row>
     <row r="10" spans="1:12" x14ac:dyDescent="0.4">
       <c r="A10" s="1" t="s">
-        <v>218</v>
+        <v>578</v>
       </c>
       <c r="B10" s="2">
         <f>INDEX('味方 '!$A$1:$G$10,MATCH(A10,'味方 '!$A$1:$A$10,0),MATCH($B$2,'味方 '!$A$1:$G$1,1))+($B$3-1)*INDEX('味方 '!$A$14:$G$22,MATCH(A10,'味方 '!$A$14:$A$22,0),MATCH($B$2,'味方 '!$A$14:$G$14,0))</f>
@@ -21984,14 +21865,14 @@
       <c r="C10" s="9"/>
       <c r="D10" s="9"/>
       <c r="F10" s="1" t="s">
-        <v>218</v>
+        <v>578</v>
       </c>
       <c r="G10" s="2">
         <f>INDEX('味方 '!$A$1:$G$10,MATCH(F10,'味方 '!$A$1:$A$10,0),MATCH($G$2,'味方 '!$A$1:$G$1,0))+($G$3-1)*INDEX('味方 '!$A$14:$G$22,MATCH(F10,'味方 '!$A$14:$A$22,0),MATCH($G$2,'味方 '!$A$14:$G$14,0))</f>
         <v>119</v>
       </c>
       <c r="I10" s="1" t="s">
-        <v>218</v>
+        <v>578</v>
       </c>
       <c r="J10" s="2">
         <f>INDEX('味方 '!$A$1:$G$10,MATCH(I10,'味方 '!$A$1:$A$10,0),MATCH($J$2,'味方 '!$A$1:$G$1,0))+($J$3-1)*INDEX('味方 '!$A$14:$G$22,MATCH(I10,'味方 '!$A$14:$A$22,0),MATCH($J$2,'味方 '!$A$14:$G$14,0))</f>
@@ -22001,7 +21882,7 @@
     </row>
     <row r="11" spans="1:12" x14ac:dyDescent="0.4">
       <c r="A11" s="1" t="s">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="B11" s="2">
         <f>INDEX('味方 '!$A$1:$G$10,MATCH(A11,'味方 '!$A$1:$A$10,0),MATCH($B$2,'味方 '!$A$1:$G$1,1))+($B$3-1)*INDEX('味方 '!$A$14:$G$22,MATCH(A11,'味方 '!$A$14:$A$22,0),MATCH($B$2,'味方 '!$A$14:$G$14,0))</f>
@@ -22010,14 +21891,14 @@
       <c r="C11" s="9"/>
       <c r="D11" s="9"/>
       <c r="F11" s="1" t="s">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="G11" s="2">
         <f>INDEX('味方 '!$A$1:$G$10,MATCH(F11,'味方 '!$A$1:$A$10,0),MATCH($G$2,'味方 '!$A$1:$G$1,0))+($G$3-1)*INDEX('味方 '!$A$14:$G$22,MATCH(F11,'味方 '!$A$14:$A$22,0),MATCH($G$2,'味方 '!$A$14:$G$14,0))</f>
         <v>112.39999999999999</v>
       </c>
       <c r="I11" s="1" t="s">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="J11" s="2">
         <f>INDEX('味方 '!$A$1:$G$10,MATCH(I11,'味方 '!$A$1:$A$10,0),MATCH($J$2,'味方 '!$A$1:$G$1,0))+($J$3-1)*INDEX('味方 '!$A$14:$G$22,MATCH(I11,'味方 '!$A$14:$A$22,0),MATCH($J$2,'味方 '!$A$14:$G$14,0))</f>
@@ -22027,65 +21908,65 @@
     </row>
     <row r="13" spans="1:12" x14ac:dyDescent="0.4">
       <c r="A13" s="1" t="s">
-        <v>51</v>
+        <v>47</v>
       </c>
       <c r="B13" s="1" t="s">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="C13" s="1" t="s">
-        <v>64</v>
+        <v>60</v>
       </c>
       <c r="D13" s="1" t="s">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="E13" s="1" t="s">
-        <v>33</v>
+        <v>29</v>
       </c>
       <c r="F13" s="1" t="s">
-        <v>152</v>
+        <v>148</v>
       </c>
     </row>
     <row r="15" spans="1:12" x14ac:dyDescent="0.4">
       <c r="A15" t="s">
-        <v>175</v>
+        <v>170</v>
       </c>
       <c r="H15" t="s">
-        <v>176</v>
+        <v>171</v>
       </c>
     </row>
     <row r="16" spans="1:12" x14ac:dyDescent="0.4">
       <c r="A16" s="1" t="s">
-        <v>165</v>
+        <v>160</v>
       </c>
       <c r="B16" s="1" t="s">
-        <v>166</v>
+        <v>161</v>
       </c>
       <c r="C16" s="1" t="s">
-        <v>248</v>
+        <v>231</v>
       </c>
       <c r="D16" s="1" t="s">
+        <v>169</v>
+      </c>
+      <c r="E16" s="1" t="s">
+        <v>167</v>
+      </c>
+      <c r="F16" s="1" t="s">
+        <v>168</v>
+      </c>
+      <c r="H16" s="1" t="s">
+        <v>164</v>
+      </c>
+      <c r="I16" s="1" t="s">
+        <v>172</v>
+      </c>
+      <c r="J16" s="1" t="s">
+        <v>173</v>
+      </c>
+      <c r="K16" s="1" t="s">
+        <v>329</v>
+      </c>
+      <c r="L16" s="1" t="s">
         <v>174</v>
-      </c>
-      <c r="E16" s="1" t="s">
-        <v>172</v>
-      </c>
-      <c r="F16" s="1" t="s">
-        <v>173</v>
-      </c>
-      <c r="H16" s="1" t="s">
-        <v>169</v>
-      </c>
-      <c r="I16" s="1" t="s">
-        <v>177</v>
-      </c>
-      <c r="J16" s="1" t="s">
-        <v>178</v>
-      </c>
-      <c r="K16" s="1" t="s">
-        <v>347</v>
-      </c>
-      <c r="L16" s="1" t="s">
-        <v>179</v>
       </c>
     </row>
     <row r="17" spans="1:12" x14ac:dyDescent="0.4">
@@ -22131,23 +22012,23 @@
     </row>
     <row r="19" spans="1:12" x14ac:dyDescent="0.4">
       <c r="A19" s="1" t="s">
-        <v>49</v>
+        <v>45</v>
       </c>
       <c r="B19" s="1" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="C19" s="8"/>
       <c r="D19" s="8"/>
       <c r="F19" s="1" t="s">
-        <v>169</v>
+        <v>164</v>
       </c>
       <c r="G19" s="1" t="s">
-        <v>289</v>
+        <v>271</v>
       </c>
     </row>
     <row r="20" spans="1:12" x14ac:dyDescent="0.4">
       <c r="A20" s="1" t="s">
-        <v>50</v>
+        <v>46</v>
       </c>
       <c r="B20" s="2">
         <v>25</v>
@@ -22192,7 +22073,7 @@
       <c r="C22" s="9"/>
       <c r="D22" s="9"/>
       <c r="F22" s="1" t="s">
-        <v>4</v>
+        <v>551</v>
       </c>
       <c r="G22" s="1" t="e">
         <f>INDEX(敵!$B$1:$Q$97,MATCH($G$19,敵!$B$1:$B$101,0),MATCH(F22,敵!$B$1:$Q$1,0))</f>
@@ -22201,7 +22082,7 @@
     </row>
     <row r="23" spans="1:12" x14ac:dyDescent="0.4">
       <c r="A23" s="1" t="s">
-        <v>4</v>
+        <v>551</v>
       </c>
       <c r="B23" s="2">
         <f>INDEX('味方 '!$A$1:$G$10,MATCH(A23,'味方 '!$A$1:$A$10,0),MATCH($B$19,'味方 '!$A$1:$G$1,0))+($B$20-1)*INDEX('味方 '!$A$14:$G$22,MATCH(A23,'味方 '!$A$14:$A$22,0),MATCH($B$19,'味方 '!$A$14:$G$14,0))</f>
@@ -22210,7 +22091,7 @@
       <c r="C23" s="9"/>
       <c r="D23" s="9"/>
       <c r="F23" s="1" t="s">
-        <v>5</v>
+        <v>565</v>
       </c>
       <c r="G23" s="1" t="e">
         <f>INDEX(敵!$B$1:$Q$97,MATCH($G$19,敵!$B$1:$B$101,0),MATCH(F23,敵!$B$1:$Q$1,0))</f>
@@ -22219,7 +22100,7 @@
     </row>
     <row r="24" spans="1:12" x14ac:dyDescent="0.4">
       <c r="A24" s="1" t="s">
-        <v>217</v>
+        <v>559</v>
       </c>
       <c r="B24" s="2">
         <f>INDEX('味方 '!$A$1:$G$10,MATCH(A24,'味方 '!$A$1:$A$10,0),MATCH($B$19,'味方 '!$A$1:$G$1,0))+($B$20-1)*INDEX('味方 '!$A$14:$G$22,MATCH(A24,'味方 '!$A$14:$A$22,0),MATCH($B$19,'味方 '!$A$14:$G$14,0))</f>
@@ -22228,7 +22109,7 @@
       <c r="C24" s="9"/>
       <c r="D24" s="9"/>
       <c r="F24" s="1" t="s">
-        <v>217</v>
+        <v>559</v>
       </c>
       <c r="G24" s="1" t="e">
         <f>INDEX(敵!$B$1:$Q$97,MATCH($G$19,敵!$B$1:$B$101,0),MATCH(F24,敵!$B$1:$Q$1,0))</f>
@@ -22237,7 +22118,7 @@
     </row>
     <row r="25" spans="1:12" x14ac:dyDescent="0.4">
       <c r="A25" s="1" t="s">
-        <v>5</v>
+        <v>565</v>
       </c>
       <c r="B25" s="2">
         <f>INDEX('味方 '!$A$1:$G$10,MATCH(A25,'味方 '!$A$1:$A$10,0),MATCH($B$19,'味方 '!$A$1:$G$1,0))+($B$20-1)*INDEX('味方 '!$A$14:$G$22,MATCH(A25,'味方 '!$A$14:$A$22,0),MATCH($B$19,'味方 '!$A$14:$G$14,0))</f>
@@ -22246,7 +22127,7 @@
       <c r="C25" s="9"/>
       <c r="D25" s="9"/>
       <c r="F25" s="1" t="s">
-        <v>6</v>
+        <v>572</v>
       </c>
       <c r="G25" s="1" t="e">
         <f>INDEX(敵!$B$1:$Q$97,MATCH($G$19,敵!$B$1:$B$101,0),MATCH(F25,敵!$B$1:$Q$1,0))</f>
@@ -22255,7 +22136,7 @@
     </row>
     <row r="26" spans="1:12" x14ac:dyDescent="0.4">
       <c r="A26" s="1" t="s">
-        <v>6</v>
+        <v>572</v>
       </c>
       <c r="B26" s="2">
         <f>INDEX('味方 '!$A$1:$G$10,MATCH(A26,'味方 '!$A$1:$A$10,0),MATCH($B$19,'味方 '!$A$1:$G$1,0))+($B$20-1)*INDEX('味方 '!$A$14:$G$22,MATCH(A26,'味方 '!$A$14:$A$22,0),MATCH($B$19,'味方 '!$A$14:$G$14,0))</f>
@@ -22264,7 +22145,7 @@
       <c r="C26" s="9"/>
       <c r="D26" s="9"/>
       <c r="F26" s="1" t="s">
-        <v>212</v>
+        <v>578</v>
       </c>
       <c r="G26" s="1" t="e">
         <f>INDEX(敵!$B$1:$Q$97,MATCH($G$19,敵!$B$1:$B$101,0),MATCH(F26,敵!$B$1:$Q$1,0))</f>
@@ -22273,7 +22154,7 @@
     </row>
     <row r="27" spans="1:12" x14ac:dyDescent="0.4">
       <c r="A27" s="1" t="s">
-        <v>218</v>
+        <v>578</v>
       </c>
       <c r="B27" s="2">
         <f>INDEX('味方 '!$A$1:$G$10,MATCH(A27,'味方 '!$A$1:$A$10,0),MATCH($B$19,'味方 '!$A$1:$G$1,0))+($B$20-1)*INDEX('味方 '!$A$14:$G$22,MATCH(A27,'味方 '!$A$14:$A$22,0),MATCH($B$19,'味方 '!$A$14:$G$14,0))</f>
@@ -22282,7 +22163,7 @@
       <c r="C27" s="9"/>
       <c r="D27" s="9"/>
       <c r="F27" s="1" t="s">
-        <v>219</v>
+        <v>202</v>
       </c>
       <c r="G27" s="1" t="e">
         <f>INDEX(敵!$B$1:$Q$97,MATCH($G$19,敵!$B$1:$B$101,0),MATCH(F27,敵!$B$1:$Q$1,0))</f>
@@ -22291,7 +22172,7 @@
     </row>
     <row r="28" spans="1:12" x14ac:dyDescent="0.4">
       <c r="A28" s="1" t="s">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="B28" s="2">
         <f>INDEX('味方 '!$A$1:$G$10,MATCH(A28,'味方 '!$A$1:$A$10,0),MATCH($B$19,'味方 '!$A$1:$G$1,0))+($B$20-1)*INDEX('味方 '!$A$14:$G$22,MATCH(A28,'味方 '!$A$14:$A$22,0),MATCH($B$19,'味方 '!$A$14:$G$14,0))</f>
@@ -22300,7 +22181,7 @@
       <c r="C28" s="9"/>
       <c r="D28" s="9"/>
       <c r="F28" s="7" t="s">
-        <v>170</v>
+        <v>165</v>
       </c>
       <c r="G28" s="1" t="e">
         <f>INDEX(敵!$B$1:$Q$97,MATCH($G$19,敵!$B$1:$B$101,0),MATCH(F28,敵!$B$1:$Q$1,0))</f>
@@ -22310,7 +22191,7 @@
     <row r="29" spans="1:12" x14ac:dyDescent="0.4">
       <c r="D29" s="9"/>
       <c r="F29" s="7" t="s">
-        <v>171</v>
+        <v>166</v>
       </c>
       <c r="G29" s="1" t="e">
         <f>INDEX(敵!$B$1:$Q$97,MATCH($G$19,敵!$B$1:$B$101,0),MATCH(F29,敵!$B$1:$Q$1,0))</f>
@@ -22344,18 +22225,18 @@
         <v>0</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>20</v>
+        <v>16</v>
       </c>
       <c r="D3" s="1" t="s">
-        <v>572</v>
+        <v>516</v>
       </c>
     </row>
     <row r="4" spans="2:4" x14ac:dyDescent="0.4">
       <c r="B4" s="1" t="s">
-        <v>510</v>
+        <v>474</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>512</v>
+        <v>476</v>
       </c>
       <c r="D4" s="1">
         <v>80</v>
@@ -22363,10 +22244,10 @@
     </row>
     <row r="5" spans="2:4" x14ac:dyDescent="0.4">
       <c r="B5" s="1" t="s">
-        <v>511</v>
+        <v>475</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>515</v>
+        <v>479</v>
       </c>
       <c r="D5" s="1">
         <v>500</v>
@@ -22374,10 +22255,10 @@
     </row>
     <row r="6" spans="2:4" x14ac:dyDescent="0.4">
       <c r="B6" s="1" t="s">
-        <v>514</v>
+        <v>478</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>516</v>
+        <v>480</v>
       </c>
       <c r="D6" s="1">
         <v>1000</v>
@@ -22385,10 +22266,10 @@
     </row>
     <row r="7" spans="2:4" x14ac:dyDescent="0.4">
       <c r="B7" s="1" t="s">
-        <v>517</v>
+        <v>481</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>518</v>
+        <v>482</v>
       </c>
       <c r="D7" s="1">
         <v>120</v>
@@ -22396,10 +22277,10 @@
     </row>
     <row r="8" spans="2:4" x14ac:dyDescent="0.4">
       <c r="B8" s="1" t="s">
-        <v>519</v>
+        <v>483</v>
       </c>
       <c r="C8" s="1" t="s">
-        <v>520</v>
+        <v>484</v>
       </c>
       <c r="D8" s="1">
         <v>600</v>
@@ -22407,10 +22288,10 @@
     </row>
     <row r="9" spans="2:4" x14ac:dyDescent="0.4">
       <c r="B9" s="1" t="s">
-        <v>513</v>
+        <v>477</v>
       </c>
       <c r="C9" s="1" t="s">
-        <v>573</v>
+        <v>517</v>
       </c>
       <c r="D9" s="1">
         <v>1200</v>
@@ -22418,10 +22299,10 @@
     </row>
     <row r="10" spans="2:4" x14ac:dyDescent="0.4">
       <c r="B10" s="1" t="s">
-        <v>521</v>
+        <v>485</v>
       </c>
       <c r="C10" s="1" t="s">
-        <v>522</v>
+        <v>486</v>
       </c>
       <c r="D10" s="1">
         <v>60</v>
@@ -22429,10 +22310,10 @@
     </row>
     <row r="11" spans="2:4" x14ac:dyDescent="0.4">
       <c r="B11" s="1" t="s">
-        <v>524</v>
+        <v>488</v>
       </c>
       <c r="C11" s="1" t="s">
-        <v>523</v>
+        <v>487</v>
       </c>
       <c r="D11" s="1">
         <v>80</v>
@@ -22440,10 +22321,10 @@
     </row>
     <row r="12" spans="2:4" x14ac:dyDescent="0.4">
       <c r="B12" s="1" t="s">
-        <v>528</v>
+        <v>492</v>
       </c>
       <c r="C12" s="1" t="s">
-        <v>525</v>
+        <v>489</v>
       </c>
       <c r="D12" s="1">
         <v>90</v>
@@ -22451,10 +22332,10 @@
     </row>
     <row r="13" spans="2:4" x14ac:dyDescent="0.4">
       <c r="B13" s="1" t="s">
-        <v>526</v>
+        <v>490</v>
       </c>
       <c r="C13" s="1" t="s">
-        <v>527</v>
+        <v>491</v>
       </c>
       <c r="D13" s="1">
         <v>250</v>
@@ -22484,19 +22365,19 @@
     <row r="3" spans="1:5" ht="19.5" thickBot="1" x14ac:dyDescent="0.45"/>
     <row r="4" spans="1:5" ht="19.5" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A4" s="31" t="s">
-        <v>597</v>
+        <v>541</v>
       </c>
       <c r="B4" s="32" t="s">
         <v>0</v>
       </c>
       <c r="C4" s="13" t="s">
-        <v>20</v>
+        <v>16</v>
       </c>
       <c r="D4" s="13" t="s">
-        <v>574</v>
+        <v>518</v>
       </c>
       <c r="E4" s="52" t="s">
-        <v>604</v>
+        <v>548</v>
       </c>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.4">
@@ -22504,13 +22385,13 @@
         <v>1</v>
       </c>
       <c r="B5" s="33" t="s">
-        <v>529</v>
+        <v>493</v>
       </c>
       <c r="C5" s="16" t="s">
-        <v>530</v>
+        <v>555</v>
       </c>
       <c r="D5" s="16" t="s">
-        <v>580</v>
+        <v>524</v>
       </c>
       <c r="E5" s="25">
         <v>450</v>
@@ -22521,13 +22402,13 @@
         <v>2</v>
       </c>
       <c r="B6" s="34" t="s">
-        <v>535</v>
+        <v>495</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>531</v>
+        <v>556</v>
       </c>
       <c r="D6" s="1" t="s">
-        <v>600</v>
+        <v>544</v>
       </c>
       <c r="E6" s="26">
         <v>1000</v>
@@ -22538,13 +22419,13 @@
         <v>3</v>
       </c>
       <c r="B7" s="34" t="s">
-        <v>536</v>
+        <v>496</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>532</v>
+        <v>557</v>
       </c>
       <c r="D7" s="1" t="s">
-        <v>575</v>
+        <v>519</v>
       </c>
       <c r="E7" s="26">
         <v>2500</v>
@@ -22555,13 +22436,13 @@
         <v>4</v>
       </c>
       <c r="B8" s="34" t="s">
-        <v>549</v>
+        <v>505</v>
       </c>
       <c r="C8" s="1" t="s">
-        <v>533</v>
+        <v>558</v>
       </c>
       <c r="D8" s="1" t="s">
-        <v>581</v>
+        <v>525</v>
       </c>
       <c r="E8" s="26">
         <v>6000</v>
@@ -22572,13 +22453,13 @@
         <v>5</v>
       </c>
       <c r="B9" s="35" t="s">
-        <v>534</v>
+        <v>494</v>
       </c>
       <c r="C9" s="21" t="s">
-        <v>539</v>
+        <v>561</v>
       </c>
       <c r="D9" s="21" t="s">
-        <v>576</v>
+        <v>520</v>
       </c>
       <c r="E9" s="28">
         <v>15000</v>
@@ -22589,13 +22470,13 @@
         <v>6</v>
       </c>
       <c r="B10" s="33" t="s">
-        <v>537</v>
+        <v>497</v>
       </c>
       <c r="C10" s="16" t="s">
-        <v>540</v>
+        <v>562</v>
       </c>
       <c r="D10" s="16" t="s">
-        <v>577</v>
+        <v>521</v>
       </c>
       <c r="E10" s="25">
         <v>450</v>
@@ -22606,13 +22487,13 @@
         <v>7</v>
       </c>
       <c r="B11" s="34" t="s">
-        <v>538</v>
+        <v>498</v>
       </c>
       <c r="C11" s="1" t="s">
-        <v>541</v>
+        <v>563</v>
       </c>
       <c r="D11" s="1" t="s">
-        <v>578</v>
+        <v>522</v>
       </c>
       <c r="E11" s="26">
         <v>1000</v>
@@ -22623,13 +22504,13 @@
         <v>8</v>
       </c>
       <c r="B12" s="34" t="s">
-        <v>550</v>
+        <v>506</v>
       </c>
       <c r="C12" s="1" t="s">
-        <v>545</v>
+        <v>564</v>
       </c>
       <c r="D12" s="1" t="s">
-        <v>579</v>
+        <v>523</v>
       </c>
       <c r="E12" s="26">
         <v>2500</v>
@@ -22640,13 +22521,13 @@
         <v>9</v>
       </c>
       <c r="B13" s="34" t="s">
-        <v>542</v>
+        <v>499</v>
       </c>
       <c r="C13" s="1" t="s">
-        <v>553</v>
+        <v>574</v>
       </c>
       <c r="D13" s="1" t="s">
-        <v>582</v>
+        <v>526</v>
       </c>
       <c r="E13" s="26">
         <v>6000</v>
@@ -22657,13 +22538,13 @@
         <v>10</v>
       </c>
       <c r="B14" s="35" t="s">
-        <v>543</v>
+        <v>500</v>
       </c>
       <c r="C14" s="21" t="s">
-        <v>554</v>
+        <v>575</v>
       </c>
       <c r="D14" s="21" t="s">
-        <v>583</v>
+        <v>527</v>
       </c>
       <c r="E14" s="28">
         <v>15000</v>
@@ -22674,13 +22555,13 @@
         <v>11</v>
       </c>
       <c r="B15" s="33" t="s">
-        <v>544</v>
+        <v>501</v>
       </c>
       <c r="C15" s="16" t="s">
-        <v>555</v>
+        <v>576</v>
       </c>
       <c r="D15" s="16" t="s">
-        <v>584</v>
+        <v>528</v>
       </c>
       <c r="E15" s="25">
         <v>450</v>
@@ -22691,13 +22572,13 @@
         <v>12</v>
       </c>
       <c r="B16" s="34" t="s">
-        <v>551</v>
+        <v>507</v>
       </c>
       <c r="C16" s="1" t="s">
-        <v>556</v>
+        <v>577</v>
       </c>
       <c r="D16" s="1" t="s">
-        <v>585</v>
+        <v>529</v>
       </c>
       <c r="E16" s="26">
         <v>1000</v>
@@ -22708,13 +22589,13 @@
         <v>13</v>
       </c>
       <c r="B17" s="34" t="s">
-        <v>546</v>
+        <v>502</v>
       </c>
       <c r="C17" s="1" t="s">
-        <v>563</v>
+        <v>567</v>
       </c>
       <c r="D17" s="1" t="s">
-        <v>586</v>
+        <v>530</v>
       </c>
       <c r="E17" s="26">
         <v>2500</v>
@@ -22725,13 +22606,13 @@
         <v>14</v>
       </c>
       <c r="B18" s="34" t="s">
-        <v>547</v>
+        <v>503</v>
       </c>
       <c r="C18" s="1" t="s">
-        <v>564</v>
+        <v>568</v>
       </c>
       <c r="D18" s="1" t="s">
-        <v>587</v>
+        <v>531</v>
       </c>
       <c r="E18" s="26">
         <v>6000</v>
@@ -22742,13 +22623,13 @@
         <v>15</v>
       </c>
       <c r="B19" s="35" t="s">
-        <v>548</v>
+        <v>504</v>
       </c>
       <c r="C19" s="21" t="s">
-        <v>565</v>
+        <v>569</v>
       </c>
       <c r="D19" s="21" t="s">
-        <v>588</v>
+        <v>532</v>
       </c>
       <c r="E19" s="28">
         <v>15000</v>
@@ -22759,13 +22640,13 @@
         <v>16</v>
       </c>
       <c r="B20" s="33" t="s">
-        <v>552</v>
+        <v>508</v>
       </c>
       <c r="C20" s="16" t="s">
-        <v>566</v>
+        <v>570</v>
       </c>
       <c r="D20" s="16" t="s">
-        <v>598</v>
+        <v>542</v>
       </c>
       <c r="E20" s="25">
         <v>450</v>
@@ -22776,13 +22657,13 @@
         <v>17</v>
       </c>
       <c r="B21" s="34" t="s">
-        <v>557</v>
+        <v>509</v>
       </c>
       <c r="C21" s="1" t="s">
-        <v>559</v>
+        <v>580</v>
       </c>
       <c r="D21" s="1" t="s">
-        <v>589</v>
+        <v>533</v>
       </c>
       <c r="E21" s="26">
         <v>1000</v>
@@ -22793,13 +22674,13 @@
         <v>18</v>
       </c>
       <c r="B22" s="34" t="s">
-        <v>558</v>
+        <v>510</v>
       </c>
       <c r="C22" s="1" t="s">
-        <v>560</v>
+        <v>581</v>
       </c>
       <c r="D22" s="1" t="s">
-        <v>590</v>
+        <v>534</v>
       </c>
       <c r="E22" s="26">
         <v>2500</v>
@@ -22810,13 +22691,13 @@
         <v>19</v>
       </c>
       <c r="B23" s="34" t="s">
-        <v>567</v>
+        <v>511</v>
       </c>
       <c r="C23" s="1" t="s">
-        <v>561</v>
+        <v>582</v>
       </c>
       <c r="D23" s="1" t="s">
-        <v>601</v>
+        <v>545</v>
       </c>
       <c r="E23" s="26">
         <v>6000</v>
@@ -22827,13 +22708,13 @@
         <v>20</v>
       </c>
       <c r="B24" s="35" t="s">
-        <v>568</v>
+        <v>512</v>
       </c>
       <c r="C24" s="21" t="s">
-        <v>562</v>
+        <v>583</v>
       </c>
       <c r="D24" s="21" t="s">
-        <v>596</v>
+        <v>540</v>
       </c>
       <c r="E24" s="28">
         <v>15000</v>
